--- a/pyCybermancy/cybermancy-object-list.xlsx
+++ b/pyCybermancy/cybermancy-object-list.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Daniel\role-gaming\Cybermancy module development\cybermancy\pyCybermancy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\cybermancy\pyCybermancy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590F5681-8598-4824-A1FB-3A8D6F6BA689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39785D1A-5930-428F-A0AA-7341C18D99F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="1" r:id="rId1"/>
-    <sheet name="Controlled Lists" sheetId="2" r:id="rId2"/>
-    <sheet name="Actions and Effects" sheetId="3" r:id="rId3"/>
-    <sheet name="Weapon Features" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="armor" sheetId="7" r:id="rId2"/>
+    <sheet name="Controlled Lists" sheetId="2" r:id="rId3"/>
+    <sheet name="Actions and Effects" sheetId="3" r:id="rId4"/>
+    <sheet name="Weapon Features" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="1667">
   <si>
     <t>name</t>
   </si>
@@ -5008,6 +5009,36 @@
   </si>
   <si>
     <t>modules/cybermancy/assets/icons/weapons/emp-singularity.png</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/fragmentation-grenade-plus.png</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/emp-grenade-plus.png</t>
+  </si>
+  <si>
+    <t>feature-img</t>
+  </si>
+  <si>
+    <t>critical-effect-img</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Card Name</t>
+  </si>
+  <si>
+    <t>Card Text</t>
+  </si>
+  <si>
+    <t>Card img</t>
+  </si>
+  <si>
+    <t>Hacking</t>
   </si>
 </sst>
 </file>
@@ -5920,7 +5951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8970F5F1-D148-4DDA-AF55-EA0D3E53DF1D}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -6848,7 +6879,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1290</v>
       </c>
@@ -8653,6 +8684,3678 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72752D74-2A44-49A3-AA77-657858ABC6FB}">
+  <dimension ref="A1:Z47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.26953125" customWidth="1"/>
+    <col min="5" max="5" width="60.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="19.08984375" customWidth="1"/>
+    <col min="21" max="21" width="47.26953125" customWidth="1"/>
+    <col min="22" max="22" width="30.90625" style="4" customWidth="1"/>
+    <col min="23" max="25" width="18.54296875" customWidth="1"/>
+    <col min="26" max="26" width="20.90625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D14" si="0">CONCATENATE("Cybermancy image generator thread: generate an image for ", C2, " in the size recommended by Foundry VTT for icons")</f>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/axes/axe-double-jagged-black.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="str">
+        <f>"modules/cybermancy/assets/icons/features/" &amp; LOWER(SUBSTITUTE(S2," ","-"))</f>
+        <v>modules/cybermancy/assets/icons/features/</v>
+      </c>
+      <c r="U2" t="str">
+        <f t="shared" ref="U2:U47" si="1">CONCATENATE("Cybermancy image generator thread: generate an image for ", T2, ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; S2 &amp; " in the image generation. " &amp; S2 &amp; " in Cybermancy has the effect of: " &amp; V2)</f>
+        <v xml:space="preserve">Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by  in the image generation.  in Cybermancy has the effect of: </v>
+      </c>
+      <c r="X2" t="str">
+        <f>"modules/cybermancy/assets/icons/features/" &amp; LOWER(SUBSTITUTE(W2," ","-"))</f>
+        <v>modules/cybermancy/assets/icons/features/</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2" si="2">CONCATENATE("Cybermancy image generator thread: generate an image for ", X2, ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; W2 &amp; " in the image generation. " &amp; W2 &amp; " in Cybermancy has the effect of: " &amp; Z2)</f>
+        <v xml:space="preserve">Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by  in the image generation.  in Cybermancy has the effect of: </v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/monofilament-whip.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T7" si="3">"modules/cybermancy/assets/icons/features/" &amp; LOWER(SUBSTITUTE(S3," ","-"))</f>
+        <v>modules/cybermancy/assets/icons/features/lethal-edge</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/lethal-edge.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Lethal Edge in the image generation. Lethal Edge in Cybermancy has the effect of:  On a Hope win, deal Severe damage if the Fear die shows 8-12.</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3:X47" si="4">"modules/cybermancy/assets/icons/features/" &amp; LOWER(SUBSTITUTE(W3," ","-"))</f>
+        <v>modules/cybermancy/assets/icons/features/slice-in-two</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" ref="Y3:Y47" si="5">CONCATENATE("Cybermancy image generator thread: generate an image for ", X3, ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; W3 &amp; " in the image generation. " &amp; W3 &amp; " in Cybermancy has the effect of: " &amp; Z3)</f>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/slice-in-two.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Slice in Two in the image generation. Slice in Two in Cybermancy has the effect of:  Sever or disable a limb, item, or piece of cover.</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/cyber-spur.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="3"/>
+        <v>modules/cybermancy/assets/icons/features/concealed</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/concealed.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Concealed in the image generation. Concealed in Cybermancy has the effect of:  Can be hidden; gain advantage on your first attack each scene.</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/ambush-kill</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/ambush-kill.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Ambush Kill in the image generation. Ambush Kill in Cybermancy has the effect of:  If striking from surprise, escalate Fear consequences for target.</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/shock-baton.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>modules/cybermancy/assets/icons/features/stunning</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/stunning.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Stunning in the image generation. Stunning in Cybermancy has the effect of:  Spend a Hope on a successful hit to inflict Dazed for one round.</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/knockout</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/knockout.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Knockout in the image generation. Knockout in Cybermancy has the effect of:  Target is stunned or unconscious for one scene beat.</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/vibro-knife.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>modules/cybermancy/assets/icons/features/piercing</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/piercing.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Piercing in the image generation. Piercing in Cybermancy has the effect of:  Ignores armor on a Hope critical.</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/silent-kill</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/silent-kill.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Silent Kill in the image generation. Silent Kill in Cybermancy has the effect of:  Disable one target silently with no alert escalation.</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/smartpistol.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>modules/cybermancy/assets/icons/features/smartlink</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/smartlink.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Smartlink in the image generation. Smartlink in Cybermancy has the effect of:  Once per scene, reroll one attack die if linked to cyberware/gear.</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/pinpoint</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/pinpoint.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Pinpoint in the image generation. Pinpoint in Cybermancy has the effect of:  Crit ignores cover; disable weapon/armor.</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/smg-machine-pistol.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="T8" t="str">
+        <f>"modules/cybermancy/assets/icons/weapons-feature/" &amp; LOWER(SUBSTITUTE(S8," ","-"))</f>
+        <v>modules/cybermancy/assets/icons/weapons-feature/burst-fire</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/burst-fire.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Burst Fire in the image generation. Burst Fire in Cybermancy has the effect of:  Mark 1 Stress to attack an additional target in Close range.</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/spray-down</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/spray-down.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Spray Down in the image generation. Spray Down in Cybermancy has the effect of:  Hit all targets in Very Close range with collateral fire.</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/assault-rifle.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1326</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" ref="T9:T47" si="6">"modules/cybermancy/assets/icons/weapons-feature/" &amp; LOWER(SUBSTITUTE(S9," ","-"))</f>
+        <v>modules/cybermancy/assets/icons/weapons-feature/suppressive-fire</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/suppressive-fire.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Suppressive Fire in the image generation. Suppressive Fire in Cybermancy has the effect of:  On a Hope win, target must mark 1 Stress to act next turn.</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/shredding-burst</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/shredding-burst.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Shredding Burst in the image generation. Shredding Burst in Cybermancy has the effect of:  Force enemy into cover, reducing their next attack roll.</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/shotgun.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1327</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/scatter</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/scatter.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Scatter in the image generation. Scatter in Cybermancy has the effect of:  Spend a Hope to attack all targets in Very Close range.</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/point-blank-devastation</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/point-blank-devastation.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Point-Blank Devastation in the image generation. Point-Blank Devastation in Cybermancy has the effect of:  Knock back and lose next action.</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/sniper-rifle.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/scoped</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/scoped.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Scoped in the image generation. Scoped in Cybermancy has the effect of:  Spend a round aiming to gain advantage on next shot.</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1493</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/through-and-through</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/through-and-through.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Through and Through in the image generation. Through and Through in Cybermancy has the effect of:  Bullet passes through to a second target in line.</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/throwing-knives.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/quick-draw</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/quick-draw.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Quick Draw in the image generation. Quick Draw in Cybermancy has the effect of:  May be used as a reaction against melee attackers.</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1495</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/pinning-strike</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/pinning-strike.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Pinning Strike in the image generation. Pinning Strike in Cybermancy has the effect of:  Pin targets limb, weapon, or clothing, restricting movement.</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/fragmentation-grenade.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/explosive</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/explosive.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Explosive in the image generation. Explosive in Cybermancy has the effect of:  On Hope win, half damage to all in Close range.</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1496</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/shrapnel-storm</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/shrapnel-storm.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Shrapnel Storm in the image generation. Shrapnel Storm in Cybermancy has the effect of:  All enemies in area take full damage and mark 1 Stress.</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/emp-grenade.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1419</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/disruptive</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/disruptive.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Disruptive in the image generation. Disruptive in Cybermancy has the effect of:  On hit, drones/tech in range must succeed or shut down 1 round.</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1498</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/total-system-crash</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/total-system-crash.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Total System Crash in the image generation. Total System Crash in Cybermancy has the effect of:  All devices in area disabled until end of scene.</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D15" t="str">
+        <f>CONCATENATE("Cybermancy image generator thread: generate an image for ", C15, " in the size recommended by Foundry VTT for icons")</f>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/improved-monofilament-whip.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1397</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/lethal-edge</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/lethal-edge.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Lethal Edge in the image generation. Lethal Edge in Cybermancy has the effect of:  On a Hope win, upgrade one damage die to max value.</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1500</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/severance</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/severance.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Severance in the image generation. Severance in Cybermancy has the effect of:  Cut through armor, restraints, or environmental barriers.</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16:D47" si="7">CONCATENATE("Cybermancy image generator thread: generate an image for ", C16, " in the size recommended by Foundry VTT for icons")</f>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/improved-cyber-spur.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1399</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/concealed</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/concealed.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Concealed in the image generation. Concealed in Cybermancy has the effect of:  Cannot be detected by casual scans.</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1502</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/spinal-strike</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/spinal-strike.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Spinal Strike in the image generation. Spinal Strike in Cybermancy has the effect of:  Target is paralyzed for 1 round.</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D17" t="str">
+        <f>CONCATENATE("Cybermancy image generator thread: generate an image for ", C17, " ", E17, " in the size recommended by Foundry VTT for icons")</f>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/improved-shock-baton.png Upgraded battery coils deliver chained electrical arcs between multiple nearby targets. in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1326</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1423</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/arc-charge</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/arc-charge.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Arc Charge in the image generation. Arc Charge in Cybermancy has the effect of:  Spend 1 Stress to arc lightning to another Very Close target.</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1504</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/overload</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/overload.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Overload in the image generation. Overload in Cybermancy has the effect of:  Targets nervous system locks up; they drop gear.</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/improved-vibro-knife.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1333</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1403</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/piercing</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/piercing.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Piercing in the image generation. Piercing in Cybermancy has the effect of:  Ignores 1 level of armor.</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1602</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/assassins-cut</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/assassins-cut.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Assassins Cut in the image generation. Assassins Cut in Cybermancy has the effect of:  Severe damage ignoring defenses.</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/smartpistol-mk-ii.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1334</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1405</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/smartlink</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/smartlink.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Smartlink in the image generation. Smartlink in Cybermancy has the effect of:  Auto-correct; reroll a miss once per scene.</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1506</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/eye-shot</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/eye-shot.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Eye Shot in the image generation. Eye Shot in Cybermancy has the effect of:  Disable optics or key sensors.</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/compact-smg.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/burst-fire</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/burst-fire.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Burst Fire in the image generation. Burst Fire in Cybermancy has the effect of:  Spend Hope to hit two targets in Close range.</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1508</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/crowd-control</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/crowd-control.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Crowd Control in the image generation. Crowd Control in Cybermancy has the effect of:  Panic/disrupt all enemies in Very Close range.</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/military-assault-rifle.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1336</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1409</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/suppressive-fire</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/suppressive-fire.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Suppressive Fire in the image generation. Suppressive Fire in Cybermancy has the effect of:  On Hope win, all enemies in line of fire mark Stress.</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1510</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/armor-break</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/armor-break.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Armor Break in the image generation. Armor Break in Cybermancy has the effect of:  Ignore armor; bullets chew through cover.</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/street-sweeper-shotgun.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1429</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/wide-scatter</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/wide-scatter.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Wide Scatter in the image generation. Wide Scatter in Cybermancy has the effect of:  Attack all targets in Very Close range once per scene.</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1512</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/bone-shaker</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/bone-shaker.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Bone Shaker in the image generation. Bone Shaker in Cybermancy has the effect of:  Target knocked prone and loses next turn.</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/scoped-sniper-rifle.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1336</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1413</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/scoped</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/scoped.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Scoped in the image generation. Scoped in Cybermancy has the effect of:  Aim for advantage; crit chance rises if aiming 1 round.</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1493</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/through-and-through</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/through-and-through.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Through and Through in the image generation. Through and Through in Cybermancy has the effect of:  Shot penetrates multiple targets.</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/fragmentation-grenade-plus.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1417</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/explosive</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/explosive.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Explosive in the image generation. Explosive in Cybermancy has the effect of:  Half damage to adjacent zones.</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1515</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/massive-detonation</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/massive-detonation.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Massive Detonation in the image generation. Massive Detonation in Cybermancy has the effect of:  Full damage in wider zone (Far).</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/emp-grenade-plus.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1321</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1419</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/disruptive</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/disruptive.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Disruptive in the image generation. Disruptive in Cybermancy has the effect of:  Drones/tech roll at Disadvantage.</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1517</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/grid-blackout</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/grid-blackout.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Grid Blackout in the image generation. Grid Blackout in Cybermancy has the effect of:  All tech shuts down until reboot.</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/corporate-mono-whip.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1397</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/lethal-edge</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/lethal-edge.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Lethal Edge in the image generation. Lethal Edge in Cybermancy has the effect of:  Can slice through vehicles on Hope crit.</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1519</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/corpse-cutter</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/corpse-cutter.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Corpse-Cutter in the image generation. Corpse-Cutter in Cybermancy has the effect of:  Destroy one environmental object (door, drone, wall).</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/titanium-cyber-spurs.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1339</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/hidden-killer</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/hidden-killer.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Hidden Killer in the image generation. Hidden Killer in Cybermancy has the effect of:  +2 to first attack in combat.</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1521</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/critical-tendons</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/critical-tendons.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Critical Tendons in the image generation. Critical Tendons in Cybermancy has the effect of:  Cripple targets mobility permanently.</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/heavy-shock-baton.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1340</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1437</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/chain-lightning</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/chain-lightning.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Chain Lightning in the image generation. Chain Lightning in Cybermancy has the effect of:  Spend 2 Hope, arc to 2 additional targets.</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1522</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/system-shutdown</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/system-shutdown.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by System Shutdown in the image generation. System Shutdown in Cybermancy has the effect of:  Target incapacitated (stun or KO).</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/combat-vibro-blade.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1439</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/high-frequency</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/high-frequency.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by High Frequency in the image generation. High Frequency in Cybermancy has the effect of:  +2 to all attack rolls this scene after a hit.</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1524</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/fatal-wound</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/fatal-wound.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Fatal Wound in the image generation. Fatal Wound in Cybermancy has the effect of:  Additional 1d12 bleed damage next turn.</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/smartpistol-elite.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1336</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1441</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/autotarget</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/autotarget.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Autotarget in the image generation. Autotarget in Cybermancy has the effect of:  Always ignore cover.</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1526</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/one-shot-kill</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/one-shot-kill.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by One-Shot Kill in the image generation. One-Shot Kill in Cybermancy has the effect of:  Severe damage ignoring all armor.</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/advanced-smg.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1443</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/bulletstorm</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/bulletstorm.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Bulletstorm in the image generation. Bulletstorm in Cybermancy has the effect of:  Once per rest, attack 3 targets in Close.</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1528</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/suppression-killzone</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/suppression-killzone.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Suppression Killzone in the image generation. Suppression Killzone in Cybermancy has the effect of:  Enemies must Retreat or mark Stress.</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/advanced-assault-rifle.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1445</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/full-auto</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/full-auto.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Full Auto in the image generation. Full Auto in Cybermancy has the effect of:  Spend Hope, double damage dice.</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1530</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/critical-barrage</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/critical-barrage.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Critical Barrage in the image generation. Critical Barrage in Cybermancy has the effect of:  Mow down cover, forcing enemies into open.</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/riot-shotgun.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1447</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/knockback</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/knockback.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Knockback in the image generation. Knockback in Cybermancy has the effect of:  Push targets back one range band.</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1532</v>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/concussive-blast</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/concussive-blast.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Concussive Blast in the image generation. Concussive Blast in Cybermancy has the effect of:  Stun all in Close cone.</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/anti-materiel-sniper.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/penetration</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/penetration.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Penetration in the image generation. Penetration in Cybermancy has the effect of:  Shoot through walls/vehicles.</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1603</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/executioners-shot</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/executioners-shot.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Executioners Shot in the image generation. Executioners Shot in Cybermancy has the effect of:  Instantly remove non-boss foe.</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/cluster-grenade.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1451</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/fragment-split</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/fragment-split.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Fragment Split in the image generation. Fragment Split in Cybermancy has the effect of:  Hit two separate zones.</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1535</v>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/kill-zone</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/kill-zone.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Kill Zone in the image generation. Kill Zone in Cybermancy has the effect of:  Full damage in all adjacent zones.</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/emp-cascade.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1330</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/system-overload</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/system-overload.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by System Overload in the image generation. System Overload in Cybermancy has the effect of:  Devices take 2 rounds to recover.</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1537</v>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/matrix-burnout</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/matrix-burnout.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Matrix Burnout in the image generation. Matrix Burnout in Cybermancy has the effect of:  Deckers hit take HP damage directly.</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/legendary-monofilament-whip.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1455</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/reality-cut</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/reality-cut.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Reality Cut in the image generation. Reality Cut in Cybermancy has the effect of:  Can slice vehicles, turrets, drones.</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1539</v>
+      </c>
+      <c r="X37" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/sever-reality</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/sever-reality.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Sever Reality in the image generation. Sever Reality in Cybermancy has the effect of:  Slice environment  create a permanent gap or hazard.</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/diamond-cyber-spurs.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1346</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1457</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/ghost-kill</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/ghost-kill.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Ghost Kill in the image generation. Ghost Kill in Cybermancy has the effect of:  Cannot be tracked by sensors.</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1540</v>
+      </c>
+      <c r="X38" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/spinal-sever</v>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/spinal-sever.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Spinal Sever in the image generation. Spinal Sever in Cybermancy has the effect of:  Target permanently disabled unless cybernetically healed.</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/thunder-baton.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1346</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1459</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/overdrive</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/overdrive.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Overdrive in the image generation. Overdrive in Cybermancy has the effect of:  Once per rest, stun all enemies in Close range.</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1542</v>
+      </c>
+      <c r="X39" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/emp-surge</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/emp-surge.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by EMP Surge in the image generation. EMP Surge in Cybermancy has the effect of:  Wipe out all small electronics in scene.</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/nano-vibro-blade.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1346</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1461</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/self-sharpening</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/self-sharpening.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Self-Sharpening in the image generation. Self-Sharpening in Cybermancy has the effect of:  Ignore all armor values.</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1544</v>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/critical-dissection</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/critical-dissection.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Critical Dissection in the image generation. Critical Dissection in Cybermancy has the effect of:  Narratively kill or disable any single non-boss foe.</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/smartpistol-omega.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1463</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/ai-assist</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/ai-assist.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by AI Assist in the image generation. AI Assist in Cybermancy has the effect of:  Advantage on all ranged rolls.</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1546</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/neural-kill</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/neural-kill.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Neural Kill in the image generation. Neural Kill in Cybermancy has the effect of:  Bullet bypasses physical armor; deals Stress + HP.</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/prototype-smg.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1348</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" t="s">
+        <v>1465</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/gyrostabilized</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/gyrostabilized.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Gyrostabilized in the image generation. Gyrostabilized in Cybermancy has the effect of:  Fire with no recoil penalty.</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="W42" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/critical-spray</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/critical-spray.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Critical Spray in the image generation. Critical Spray in Cybermancy has the effect of:  Hit all enemies in Close range automatically.</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/gauss-rifle.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>22</v>
+      </c>
+      <c r="P43" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1467</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/rail-shot</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/rail-shot.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Rail Shot in the image generation. Rail Shot in Cybermancy has the effect of:  Spend Stress to deal double damage dice.</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="W43" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/hyper-pierce</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/hyper-pierce.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Hyper-Pierce in the image generation. Hyper-Pierce in Cybermancy has the effect of:  Shot tears through multiple enemies/vehicles in a line.</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/plasma-shotgun.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" t="s">
+        <v>1469</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/meltdown</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/meltdown.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Meltdown in the image generation. Meltdown in Cybermancy has the effect of:  Spend Hope to add 1d8 burn damage.</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="W44" t="s">
+        <v>1552</v>
+      </c>
+      <c r="X44" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/critical-inferno</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/critical-inferno.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Critical Inferno in the image generation. Critical Inferno in Cybermancy has the effect of:  All targets in blast zone catch fire.</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/orbital-sniper-rifle.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1471</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/satellite-link</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/satellite-link.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Satellite Link in the image generation. Satellite Link in Cybermancy has the effect of:  Call in orbital fire once per rest.</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="W45" t="s">
+        <v>1607</v>
+      </c>
+      <c r="X45" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/heavens-lance</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/heavens-lance.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Heavens Lance in the image generation. Heavens Lance in Cybermancy has the effect of:  Obliterate target zone, GM narrates consequences.</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/annihilation-grenade.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>22</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" t="s">
+        <v>1473</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/final-boom</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/final-boom.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Final Boom in the image generation. Final Boom in Cybermancy has the effect of:  Single-use, but massive radius.</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="W46" t="s">
+        <v>1554</v>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/tactical-nuke-(micro)</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/tactical-nuke-(micro).png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Tactical Nuke (Micro) in the image generation. Tactical Nuke (Micro) in Cybermancy has the effect of:  Entire area wiped  citywide consequences.</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="7"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/emp-singularity.png in the size recommended by Foundry VTT for icons</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P47" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" t="s">
+        <v>1475</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="6"/>
+        <v>modules/cybermancy/assets/icons/weapons-feature/blackout</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="1"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/blackout.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Blackout in the image generation. Blackout in Cybermancy has the effect of:  Kill power grid in 1 km radius once per rest.</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="W47" t="s">
+        <v>1555</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" si="4"/>
+        <v>modules/cybermancy/assets/icons/features/system-collapse</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="5"/>
+        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/system-collapse.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by System Collapse in the image generation. System Collapse in Cybermancy has the effect of:  Entire Matrix zone crashes beyond repair.</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{914DC4EC-A891-435E-AD2A-76436998A8C7}">
+      <formula1>1</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Revvity Proprietary Information</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3466477-CEDE-4560-9CEE-D928858E09B2}">
+          <x14:formula1>
+            <xm:f>'Controlled Lists'!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4E89FD5-FE25-4CFB-A918-FD22073EDC6E}">
+          <x14:formula1>
+            <xm:f>'Controlled Lists'!$I$2:$I$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2:R1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C03F2E2C-FEEA-4D76-AD53-54682C78D9BF}">
+          <x14:formula1>
+            <xm:f>'Controlled Lists'!$F$2:$F$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B078C6EA-DC82-4C08-8677-EAF96D0C98A3}">
+          <x14:formula1>
+            <xm:f>'Controlled Lists'!$K$2:$K$49</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F369775-DDF2-47A3-800D-EF83EF2F8563}">
+          <x14:formula1>
+            <xm:f>'Actions and Effects'!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E686D192-2305-4189-A649-5A945B43EECE}">
+          <x14:formula1>
+            <xm:f>'Controlled Lists'!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{02895020-FC90-4395-A540-A8C55B3381CB}">
+          <x14:formula1>
+            <xm:f>'Controlled Lists'!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2231F62D-7182-49A5-A170-8043111B0E34}">
+          <x14:formula1>
+            <xm:f>'Controlled Lists'!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A0210F-6AD5-4290-AC2A-0367F956D048}">
   <dimension ref="A1:K49"/>
   <sheetViews>
@@ -9083,7 +12786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E888BC-20E7-4294-8A2D-BD0A7B31655F}">
   <dimension ref="A1:E530"/>
   <sheetViews>
@@ -18118,11 +21821,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA33895-3184-47ED-9CD0-40CC7512F6C6}">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -18389,375 +22092,212 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8134B3E0-0F30-40E4-A4E1-00A26E5811E5}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="106.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>1662</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="232" x14ac:dyDescent="0.35">
+        <v>1663</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="203" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="203" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>1600</v>
-      </c>
+        <v>1666</v>
+      </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pyCybermancy/cybermancy-object-list.xlsx
+++ b/pyCybermancy/cybermancy-object-list.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\cybermancy\pyCybermancy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Daniel\role-gaming\Cybermancy module development\cybermancy\pyCybermancy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39785D1A-5930-428F-A0AA-7341C18D99F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC90F3AF-EC57-4815-B7A9-70E9FE45AD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
   </bookViews>
   <sheets>
-    <sheet name="weapons" sheetId="1" r:id="rId1"/>
-    <sheet name="armor" sheetId="7" r:id="rId2"/>
+    <sheet name="weapons" sheetId="7" r:id="rId1"/>
+    <sheet name="armors" sheetId="10" r:id="rId2"/>
     <sheet name="Controlled Lists" sheetId="2" r:id="rId3"/>
     <sheet name="Actions and Effects" sheetId="3" r:id="rId4"/>
     <sheet name="Weapon Features" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Armor Features" sheetId="9" r:id="rId6"/>
+    <sheet name="Domain cards" sheetId="6" r:id="rId7"/>
+    <sheet name="Img Prompt example" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="1855">
   <si>
     <t>name</t>
   </si>
@@ -4879,166 +4881,1697 @@
     <t>cybermancy-feature-effect</t>
   </si>
   <si>
-    <t>modules/cybermancy/assets/icons/weapons/axes/axe-double-jagged-black.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/monofilament-whip.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/cyber-spur.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/shock-baton.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/vibro-knife.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/smartpistol.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/smg-machine-pistol.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/assault-rifle.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/shotgun.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/sniper-rifle.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/throwing-knives.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/fragmentation-grenade.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/emp-grenade.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/improved-monofilament-whip.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/improved-cyber-spur.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/improved-shock-baton.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/improved-vibro-knife.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/smartpistol-mk-ii.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/compact-smg.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/military-assault-rifle.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/street-sweeper-shotgun.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/scoped-sniper-rifle.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/corporate-mono-whip.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/titanium-cyber-spurs.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/heavy-shock-baton.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/combat-vibro-blade.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/smartpistol-elite.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/advanced-smg.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/advanced-assault-rifle.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/riot-shotgun.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/anti-materiel-sniper.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/cluster-grenade.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/emp-cascade.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/legendary-monofilament-whip.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/diamond-cyber-spurs.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/thunder-baton.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/nano-vibro-blade.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/smartpistol-omega.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/prototype-smg.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/gauss-rifle.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/plasma-shotgun.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/orbital-sniper-rifle.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/annihilation-grenade.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/emp-singularity.png</t>
+    <t>feature-img</t>
+  </si>
+  <si>
+    <t>critical-effect-img</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Card Name</t>
+  </si>
+  <si>
+    <t>Card Text</t>
+  </si>
+  <si>
+    <t>Card img</t>
+  </si>
+  <si>
+    <t>Hacking</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/axes/axe-double-jagged-black.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/monofilament-whip.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/cyber-spur.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/shock-baton.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/vibro-knife.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/smartpistol.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/smg-machine-pistol.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/assault-rifle.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/shotgun.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/sniper-rifle.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/throwing-knives.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/fragmentation-grenade.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/emp-grenade.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/improved-monofilament-whip.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/improved-cyber-spur.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/improved-shock-baton.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/improved-vibro-knife.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/smartpistol-mk-ii.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/compact-smg.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/military-assault-rifle.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/street-sweeper-shotgun.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/scoped-sniper-rifle.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/fragmentation-grenade-plus.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/emp-grenade-plus.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/corporate-mono-whip.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/titanium-cyber-spurs.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/heavy-shock-baton.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/combat-vibro-blade.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/smartpistol-elite.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/advanced-smg.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/advanced-assault-rifle.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/riot-shotgun.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/anti-materiel-sniper.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/cluster-grenade.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/emp-cascade.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/legendary-monofilament-whip.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/diamond-cyber-spurs.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/thunder-baton.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/nano-vibro-blade.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/smartpistol-omega.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/prototype-smg.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/gauss-rifle.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/plasma-shotgun.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/orbital-sniper-rifle.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/annihilation-grenade.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons/emp-singularity.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/lethal-edge.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/concealed.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/stunning.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/piercing.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/smartlink.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/burst-fire.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/suppressive-fire.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/scatter.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/scoped.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/quick-draw.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/explosive.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/disruptive.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/lethal-edge.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/concealed.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/arc-charge.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/piercing.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/smartlink.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/wide-scatter.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/hidden-killer.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/chain-lightning.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/high-frequency.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/autotarget.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/bulletstorm.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/full-auto.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/knockback.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/penetration.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/fragment-split.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/system-overload.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/reality-cut.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/ghost-kill.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/overdrive.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/self-sharpening.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/ai-assist.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/gyrostabilized.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/rail-shot.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/meltdown.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/satellite-link.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/final-boom.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/weapons-feature/blackout.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/slice-in-two.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/ambush-kill.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/knockout.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/silent-kill.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/pinpoint.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/spray-down.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/shredding-burst.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/point-blank-devastation.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/through-and-through.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/pinning-strike.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/shrapnel-storm.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/total-system-crash.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/severance.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/spinal-strike.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/overload.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/assassins-cut.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/eye-shot.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/crowd-control.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/armor-break.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/bone-shaker.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/massive-detonation.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/grid-blackout.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/corpse-cutter.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/critical-tendons.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/system-shutdown.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/fatal-wound.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/one-shot-kill.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/suppression-killzone.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/critical-barrage.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/concussive-blast.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/executioners-shot.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/kill-zone.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/matrix-burnout.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/sever-reality.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/spinal-sever.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/emp-surge.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/critical-dissection.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/neural-kill.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/critical-spray.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/hyper-pierce.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/critical-inferno.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/heavens-lance.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/system-collapse.webp</t>
+  </si>
+  <si>
+    <t>modules/cybermancy/assets/icons/features/tactical-nuke-micro.webp</t>
+  </si>
+  <si>
+    <r>
+      <t>Flexible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — “+1 to Evasion.”</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: passive +1 Evasion when the item is equipped. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Heavy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — “−1 to Evasion.”</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: passive −1 Evasion on equip. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Very Heavy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — “−2 to Evasion; −1 to Agility.”</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: passive penalties applied while equipped. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Resilient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Before you’d </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark your last Armor Slot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, roll d6; on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reduce the severity by one threshold </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> marking the slot.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: a triggered effect at the “last slot” moment; GMs/players click/roll to resolve. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Reinforced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — When you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark your last Armor Slot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, increase your damage thresholds by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> until you clear at least 1 slot.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: stateful buff after last-slot is marked; clear it when you free a slot. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Shifting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — When targeted for an attack, you may </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark an Armor Slot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to give the attack roll </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>disadvantage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: spend-to-toggle disadvantage on the incoming roll. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Quiet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to rolls to move silently.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: passive situational bonus (GM applies/sets advantage as needed). daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Hopeful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — When you would </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spend a Hope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, you can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark an Armor Slot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: replacement cost; mark slot instead of spending Hope. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Warded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — You </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reduce incoming magic damage by your Armor Score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before applying to thresholds.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: subtract Armor Score from magic damage first, then resolve thresholds. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Gilded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1 to Presence.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: passive +1 Presence while equipped. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Impenetrable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Once per short rest, when you’d </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark your last Hit Point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, you can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark a Stress instead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: 1/short-rest replacement trigger at “last HP” moment. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Sharp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — On a successful attack against a target in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Melee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add a d4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the damage roll.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: conditional damage rider (melee only). daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Physical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — You </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can’t mark an Armor Slot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to reduce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>magic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> damage.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: prohibits using slots vs. magic. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Magic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — You </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can’t mark an Armor Slot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to reduce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>physical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> damage.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: prohibits using slots vs. physical. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Painful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Each time you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark an Armor Slot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, you must </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark a Stress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: adds a cost when spending slots. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Timeslowing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Mark an Armor Slot to roll </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add to Evasion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> against an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>incoming attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: reaction: spend slot, roll d4, add to Evasion for that attack. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Channeling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1 to Spellcast Rolls.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: passive +1 on spellcast checks while equipped. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Burning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — When an adversary attacks you in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Melee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>they mark a Stress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: reactive penalty to melee attackers. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Fortified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — When you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mark an Armor Slot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, you reduce severity by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>two thresholds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead of one.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: stronger slot-spend mitigation. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Truthseeking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Armor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>glows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when a creature within </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tells a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: narrative/visual indicator; no roll math. daggerheart.org</t>
+  </si>
+  <si>
+    <r>
+      <t>Difficult</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — “−1 to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> character traits and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evasion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.”</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundryborne: broad passive penalties while equipped. daggerheart.org</t>
+  </si>
+  <si>
+    <t>Leather Jacket</t>
+  </si>
+  <si>
+    <t>icons/armor/leather-jacket.webp</t>
+  </si>
+  <si>
+    <t>Streetwear with hidden Kevlar panels—light protection that doesn't slow you down.</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>Kevlar Vest</t>
+  </si>
+  <si>
+    <t>icons/armor/kevlar-vest.webp</t>
+  </si>
+  <si>
+    <t>Soft ballistic vest worn under clothes; basic insurance against small arms.</t>
+  </si>
+  <si>
+    <t>Riot Shield</t>
+  </si>
+  <si>
+    <t>icons/armor/riot-shield.webp</t>
+  </si>
+  <si>
+    <t>Polycarbonate shield for crowd control and breach work.</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Hazmat Suit</t>
+  </si>
+  <si>
+    <t>icons/armor/hazmat-suit.webp</t>
+  </si>
+  <si>
+    <t>Sealed suit against toxins and biohazards; clumsy but lifesaving.</t>
+  </si>
+  <si>
+    <t>Chameleon Hoodie</t>
+  </si>
+  <si>
+    <t>icons/armor/chameleon-hoodie.webp</t>
+  </si>
+  <si>
+    <t>Active-fabric hoodie that shifts patterns to blend with urban clutter.</t>
+  </si>
+  <si>
+    <t>Armored Coat</t>
+  </si>
+  <si>
+    <t>icons/armor/armored-coat.webp</t>
+  </si>
+  <si>
+    <t>Reinforced long-coat with ceramic plating sewn into the lining.</t>
+  </si>
+  <si>
+    <t>Tactical Vest</t>
+  </si>
+  <si>
+    <t>icons/armor/tactical-vest.webp</t>
+  </si>
+  <si>
+    <t>Modular plate carrier with hard inserts and gear webbing.</t>
+  </si>
+  <si>
+    <t>Ballistic Shield</t>
+  </si>
+  <si>
+    <t>icons/armor/ballistic-shield.webp</t>
+  </si>
+  <si>
+    <t>Heavy composite shield used by breach teams; excellent cover.</t>
+  </si>
+  <si>
+    <t>Reactive Weave Suit</t>
+  </si>
+  <si>
+    <t>icons/armor/reactive-weave-suit.webp</t>
+  </si>
+  <si>
+    <t>Micro-actuated fibers stiffen on impact, dispersing kinetic force.</t>
+  </si>
+  <si>
+    <t>Insulation Lining</t>
+  </si>
+  <si>
+    <t>icons/armor/insulation-lining.webp</t>
+  </si>
+  <si>
+    <t>Dielectric layers and ground straps mitigate electrical shocks.</t>
+  </si>
+  <si>
+    <t>Combat Armor</t>
+  </si>
+  <si>
+    <t>icons/armor/combat-armor.webp</t>
+  </si>
+  <si>
+    <t>Full-body tactical armor with sealed joints and hardened plates.</t>
+  </si>
+  <si>
+    <t>Stealth Weave Cloak</t>
+  </si>
+  <si>
+    <t>icons/armor/stealth-weave-cloak.webp</t>
+  </si>
+  <si>
+    <t>Light cloak with optical dampening and sound-baffling seams.</t>
+  </si>
+  <si>
+    <t>Riot Exo-Frame</t>
+  </si>
+  <si>
+    <t>icons/armor/riot-exo-frame.webp</t>
+  </si>
+  <si>
+    <t>Powered brace that supports heavy shields and nonlethal ordnance.</t>
+  </si>
+  <si>
+    <t>Ballistic Plate Carrier</t>
+  </si>
+  <si>
+    <t>icons/armor/ballistic-plate-carrier.webp</t>
+  </si>
+  <si>
+    <t>High-cut plate carrier with side plates; optimized for mobility.</t>
+  </si>
+  <si>
+    <t>Fire-Resistant Armor</t>
+  </si>
+  <si>
+    <t>icons/armor/fire-resistant-armor.webp</t>
+  </si>
+  <si>
+    <t>Thermally insulated rig built for infernos and plasma splash.</t>
+  </si>
+  <si>
+    <t>Powered Armor</t>
+  </si>
+  <si>
+    <t>icons/armor/powered-armor.webp</t>
+  </si>
+  <si>
+    <t>Black-ops exosuit with servo assist, HUD, and full sealed systems.</t>
+  </si>
+  <si>
+    <t>Mirror Cloak</t>
+  </si>
+  <si>
+    <t>icons/armor/mirror-cloak.webp</t>
+  </si>
+  <si>
+    <t>Metamaterial cloak that bends light—nearly invisible when still.</t>
+  </si>
+  <si>
+    <t>Kinetic Dampener Suit</t>
+  </si>
+  <si>
+    <t>icons/armor/kinetic-dampener-suit.webp</t>
+  </si>
+  <si>
+    <t>Field projectors diffuse impacts before they land.</t>
+  </si>
+  <si>
+    <t>Hazard Response Exosuit</t>
+  </si>
+  <si>
+    <t>icons/armor/hazard-response-exosuit.webp</t>
+  </si>
+  <si>
+    <t>Industrial exo rated for radiation, vacuum, and caustics.</t>
   </si>
   <si>
     <t>prompt</t>
   </si>
   <si>
-    <t>modules/cybermancy/assets/icons/weapons/fragmentation-grenade-plus.png</t>
-  </si>
-  <si>
-    <t>modules/cybermancy/assets/icons/weapons/emp-grenade-plus.png</t>
-  </si>
-  <si>
-    <t>feature-img</t>
-  </si>
-  <si>
-    <t>critical-effect-img</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Card Name</t>
-  </si>
-  <si>
-    <t>Card Text</t>
-  </si>
-  <si>
-    <t>Card img</t>
-  </si>
-  <si>
-    <t>Hacking</t>
+    <t>armor-features</t>
+  </si>
+  <si>
+    <t>baseScore</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>severe</t>
   </si>
 </sst>
 </file>
@@ -5545,7 +7078,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5573,6 +7106,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5948,2747 +7482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8970F5F1-D148-4DDA-AF55-EA0D3E53DF1D}">
-  <dimension ref="A1:U47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.26953125" customWidth="1"/>
-    <col min="4" max="4" width="60.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.08984375" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.08984375" customWidth="1"/>
-    <col min="19" max="19" width="30.90625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="18.54296875" customWidth="1"/>
-    <col min="21" max="21" width="20.90625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>1611</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>1612</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1321</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>1398</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1477</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1356</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1331</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1399</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>1400</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1479</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1357</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" t="s">
-        <v>1401</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>1402</v>
-      </c>
-      <c r="T5" t="s">
-        <v>1481</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1560</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1323</v>
-      </c>
-      <c r="P6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" t="s">
-        <v>1403</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>1404</v>
-      </c>
-      <c r="T6" t="s">
-        <v>1483</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O7" t="s">
-        <v>1324</v>
-      </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1405</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>1406</v>
-      </c>
-      <c r="T7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O8" t="s">
-        <v>1325</v>
-      </c>
-      <c r="P8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" t="s">
-        <v>1407</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="T8" t="s">
-        <v>1487</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" t="s">
-        <v>1326</v>
-      </c>
-      <c r="P9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" t="s">
-        <v>1409</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>1410</v>
-      </c>
-      <c r="T9" t="s">
-        <v>1489</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1356</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1327</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10" t="s">
-        <v>1411</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="T10" t="s">
-        <v>1491</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1354</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O11" t="s">
-        <v>1328</v>
-      </c>
-      <c r="P11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" t="s">
-        <v>1413</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="T11" t="s">
-        <v>1493</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O12" t="s">
-        <v>1329</v>
-      </c>
-      <c r="P12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" t="s">
-        <v>1415</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>1416</v>
-      </c>
-      <c r="T12" t="s">
-        <v>1495</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" t="s">
-        <v>1417</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>1418</v>
-      </c>
-      <c r="T13" t="s">
-        <v>1496</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O14" t="s">
-        <v>1331</v>
-      </c>
-      <c r="P14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" t="s">
-        <v>1419</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>1420</v>
-      </c>
-      <c r="T14" t="s">
-        <v>1498</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O15" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>25</v>
-      </c>
-      <c r="R15" t="s">
-        <v>1397</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>1421</v>
-      </c>
-      <c r="T15" t="s">
-        <v>1500</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1356</v>
-      </c>
-      <c r="O16" t="s">
-        <v>1328</v>
-      </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" t="s">
-        <v>1399</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>1422</v>
-      </c>
-      <c r="T16" t="s">
-        <v>1502</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1357</v>
-      </c>
-      <c r="O17" t="s">
-        <v>1326</v>
-      </c>
-      <c r="P17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" t="s">
-        <v>1423</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>1424</v>
-      </c>
-      <c r="T17" t="s">
-        <v>1504</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O18" t="s">
-        <v>1333</v>
-      </c>
-      <c r="P18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>25</v>
-      </c>
-      <c r="R18" t="s">
-        <v>1403</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>1425</v>
-      </c>
-      <c r="T18" t="s">
-        <v>1602</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O19" t="s">
-        <v>1334</v>
-      </c>
-      <c r="P19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R19" t="s">
-        <v>1405</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>1426</v>
-      </c>
-      <c r="T19" t="s">
-        <v>1506</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O20" t="s">
-        <v>1335</v>
-      </c>
-      <c r="P20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>25</v>
-      </c>
-      <c r="R20" t="s">
-        <v>1407</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>1427</v>
-      </c>
-      <c r="T20" t="s">
-        <v>1508</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1336</v>
-      </c>
-      <c r="P21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>25</v>
-      </c>
-      <c r="R21" t="s">
-        <v>1409</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>1428</v>
-      </c>
-      <c r="T21" t="s">
-        <v>1510</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>1356</v>
-      </c>
-      <c r="O22" t="s">
-        <v>1337</v>
-      </c>
-      <c r="P22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22" t="s">
-        <v>1429</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>1430</v>
-      </c>
-      <c r="T22" t="s">
-        <v>1512</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s">
-        <v>1354</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O23" t="s">
-        <v>1336</v>
-      </c>
-      <c r="P23" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23" t="s">
-        <v>1413</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>1431</v>
-      </c>
-      <c r="T23" t="s">
-        <v>1493</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>1578</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" t="s">
-        <v>1337</v>
-      </c>
-      <c r="P24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>25</v>
-      </c>
-      <c r="R24" t="s">
-        <v>1417</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>1432</v>
-      </c>
-      <c r="T24" t="s">
-        <v>1515</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O25" t="s">
-        <v>1321</v>
-      </c>
-      <c r="P25" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>25</v>
-      </c>
-      <c r="R25" t="s">
-        <v>1419</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="T25" t="s">
-        <v>1517</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O26" t="s">
-        <v>1338</v>
-      </c>
-      <c r="P26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>25</v>
-      </c>
-      <c r="R26" t="s">
-        <v>1397</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="T26" t="s">
-        <v>1519</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1356</v>
-      </c>
-      <c r="O27" t="s">
-        <v>1339</v>
-      </c>
-      <c r="P27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>25</v>
-      </c>
-      <c r="R27" t="s">
-        <v>1435</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="T27" t="s">
-        <v>1521</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>1357</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1340</v>
-      </c>
-      <c r="P28" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>25</v>
-      </c>
-      <c r="R28" t="s">
-        <v>1437</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>1438</v>
-      </c>
-      <c r="T28" t="s">
-        <v>1522</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O29" t="s">
-        <v>1341</v>
-      </c>
-      <c r="P29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>25</v>
-      </c>
-      <c r="R29" t="s">
-        <v>1439</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="T29" t="s">
-        <v>1524</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1336</v>
-      </c>
-      <c r="P30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>25</v>
-      </c>
-      <c r="R30" t="s">
-        <v>1441</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T30" t="s">
-        <v>1526</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O31" t="s">
-        <v>1342</v>
-      </c>
-      <c r="P31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>25</v>
-      </c>
-      <c r="R31" t="s">
-        <v>1443</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>1444</v>
-      </c>
-      <c r="T31" t="s">
-        <v>1528</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" t="s">
-        <v>1343</v>
-      </c>
-      <c r="P32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>25</v>
-      </c>
-      <c r="R32" t="s">
-        <v>1445</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>1446</v>
-      </c>
-      <c r="T32" t="s">
-        <v>1530</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>1356</v>
-      </c>
-      <c r="O33" t="s">
-        <v>1344</v>
-      </c>
-      <c r="P33" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>25</v>
-      </c>
-      <c r="R33" t="s">
-        <v>1447</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>1448</v>
-      </c>
-      <c r="T33" t="s">
-        <v>1532</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" t="s">
-        <v>1354</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O34" t="s">
-        <v>1343</v>
-      </c>
-      <c r="P34" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>1450</v>
-      </c>
-      <c r="T34" t="s">
-        <v>1603</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" t="s">
-        <v>1338</v>
-      </c>
-      <c r="P35" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>25</v>
-      </c>
-      <c r="R35" t="s">
-        <v>1451</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>1452</v>
-      </c>
-      <c r="T35" t="s">
-        <v>1535</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O36" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P36" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>25</v>
-      </c>
-      <c r="R36" t="s">
-        <v>1453</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>1454</v>
-      </c>
-      <c r="T36" t="s">
-        <v>1537</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O37" t="s">
-        <v>1345</v>
-      </c>
-      <c r="P37" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>25</v>
-      </c>
-      <c r="R37" t="s">
-        <v>1455</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>1456</v>
-      </c>
-      <c r="T37" t="s">
-        <v>1539</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38" t="s">
-        <v>1356</v>
-      </c>
-      <c r="O38" t="s">
-        <v>1346</v>
-      </c>
-      <c r="P38" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>25</v>
-      </c>
-      <c r="R38" t="s">
-        <v>1457</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>1458</v>
-      </c>
-      <c r="T38" t="s">
-        <v>1540</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E39">
-        <v>4</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1357</v>
-      </c>
-      <c r="O39" t="s">
-        <v>1346</v>
-      </c>
-      <c r="P39" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>25</v>
-      </c>
-      <c r="R39" t="s">
-        <v>1459</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>1460</v>
-      </c>
-      <c r="T39" t="s">
-        <v>1542</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O40" t="s">
-        <v>1346</v>
-      </c>
-      <c r="P40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>25</v>
-      </c>
-      <c r="R40" t="s">
-        <v>1461</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="T40" t="s">
-        <v>1544</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="P41" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>25</v>
-      </c>
-      <c r="R41" t="s">
-        <v>1463</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>1464</v>
-      </c>
-      <c r="T41" t="s">
-        <v>1546</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O42" t="s">
-        <v>1348</v>
-      </c>
-      <c r="P42" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>25</v>
-      </c>
-      <c r="R42" t="s">
-        <v>1465</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>1466</v>
-      </c>
-      <c r="T42" t="s">
-        <v>1548</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s">
-        <v>22</v>
-      </c>
-      <c r="O43" t="s">
-        <v>1349</v>
-      </c>
-      <c r="P43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>25</v>
-      </c>
-      <c r="R43" t="s">
-        <v>1467</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>1468</v>
-      </c>
-      <c r="T43" t="s">
-        <v>1550</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E44">
-        <v>4</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s">
-        <v>1356</v>
-      </c>
-      <c r="O44" t="s">
-        <v>1349</v>
-      </c>
-      <c r="P44" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>25</v>
-      </c>
-      <c r="R44" t="s">
-        <v>1469</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>1470</v>
-      </c>
-      <c r="T44" t="s">
-        <v>1552</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>1354</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O45" t="s">
-        <v>1349</v>
-      </c>
-      <c r="P45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>25</v>
-      </c>
-      <c r="R45" t="s">
-        <v>1471</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>1472</v>
-      </c>
-      <c r="T45" t="s">
-        <v>1607</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O46" t="s">
-        <v>1350</v>
-      </c>
-      <c r="P46" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>25</v>
-      </c>
-      <c r="R46" t="s">
-        <v>1473</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>1474</v>
-      </c>
-      <c r="T46" t="s">
-        <v>1554</v>
-      </c>
-      <c r="U46" s="4" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O47" t="s">
-        <v>1350</v>
-      </c>
-      <c r="P47" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>25</v>
-      </c>
-      <c r="R47" t="s">
-        <v>1475</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>1476</v>
-      </c>
-      <c r="T47" t="s">
-        <v>1555</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{CA9249BB-96A3-4B21-8AA7-F6ED0229181D}">
-      <formula1>1</formula1>
-      <formula2>4</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 Revvity Proprietary Information</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{817CA325-3ED4-452E-A21E-F9C2DCD8BA1D}">
-          <x14:formula1>
-            <xm:f>'Controlled Lists'!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03935069-1AD2-4DBC-9377-8EE02E56D76A}">
-          <x14:formula1>
-            <xm:f>'Controlled Lists'!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DDE426EB-C91D-43B3-87F0-3395D2A7C343}">
-          <x14:formula1>
-            <xm:f>'Controlled Lists'!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{887E881B-5E90-416E-B2B7-2DC2216BCEE8}">
-          <x14:formula1>
-            <xm:f>'Actions and Effects'!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:J1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3FDCE4C7-C980-4432-A833-ACA43AF53F15}">
-          <x14:formula1>
-            <xm:f>'Controlled Lists'!$K$2:$K$49</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7E1DA5BE-D560-46B7-BDF5-11857B271A29}">
-          <x14:formula1>
-            <xm:f>'Controlled Lists'!$F$2:$F$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{554334A1-00EE-4A9F-ACF3-A02E16863E84}">
-          <x14:formula1>
-            <xm:f>'Controlled Lists'!$I$2:$I$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q2:Q1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AD88C65-3515-4FBC-9FB8-482E6627A84B}">
-          <x14:formula1>
-            <xm:f>'Controlled Lists'!$H$2:$H$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>P2:P1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72752D74-2A44-49A3-AA77-657858ABC6FB}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8710,10 +7508,13 @@
     <col min="16" max="16" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="19.08984375" customWidth="1"/>
-    <col min="21" max="21" width="47.26953125" customWidth="1"/>
+    <col min="19" max="19" width="19.08984375" customWidth="1"/>
+    <col min="20" max="20" width="58.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="58.54296875" customWidth="1"/>
     <col min="22" max="22" width="30.90625" style="4" customWidth="1"/>
-    <col min="23" max="25" width="18.54296875" customWidth="1"/>
+    <col min="23" max="23" width="18.54296875" customWidth="1"/>
+    <col min="24" max="24" width="57.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="57.36328125" customWidth="1"/>
     <col min="26" max="26" width="20.90625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8728,7 +7529,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1657</v>
+        <v>1850</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -8776,10 +7577,7 @@
         <v>1611</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>1660</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1657</v>
+        <v>1613</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>1612</v>
@@ -8788,10 +7586,10 @@
         <v>1395</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>1661</v>
+        <v>1614</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1657</v>
+        <v>1850</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>1396</v>
@@ -8805,11 +7603,11 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>1613</v>
+        <v>1620</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D14" si="0">CONCATENATE("Cybermancy image generator thread: generate an image for ", C2, " in the size recommended by Foundry VTT for icons")</f>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/axes/axe-double-jagged-black.png in the size recommended by Foundry VTT for icons</v>
+        <f>CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; A2 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; C2 &amp; " in the image generation. " &amp; A2 &amp; " in Cybermancy has the description of: " &amp; E2)</f>
+        <v>Cybermancy image generator thread: generate an image for Loaded Battleaxe.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/axes/axe-double-jagged-black.webp in the image generation. Loaded Battleaxe in Cybermancy has the description of: It's an axe</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -8847,21 +7645,13 @@
       <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" t="str">
-        <f>"modules/cybermancy/assets/icons/features/" &amp; LOWER(SUBSTITUTE(S2," ","-"))</f>
-        <v>modules/cybermancy/assets/icons/features/</v>
-      </c>
       <c r="U2" t="str">
-        <f t="shared" ref="U2:U47" si="1">CONCATENATE("Cybermancy image generator thread: generate an image for ", T2, ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; S2 &amp; " in the image generation. " &amp; S2 &amp; " in Cybermancy has the effect of: " &amp; V2)</f>
-        <v xml:space="preserve">Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by  in the image generation.  in Cybermancy has the effect of: </v>
-      </c>
-      <c r="X2" t="str">
-        <f>"modules/cybermancy/assets/icons/features/" &amp; LOWER(SUBSTITUTE(W2," ","-"))</f>
-        <v>modules/cybermancy/assets/icons/features/</v>
+        <f>CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; R2 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; T2 &amp; " in the image generation. " &amp; R2 &amp; " in Cybermancy has the description of: " &amp; V2)</f>
+        <v xml:space="preserve">Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by  in the image generation. hitPoints in Cybermancy has the description of: </v>
       </c>
       <c r="Y2" t="str">
-        <f t="shared" ref="Y2" si="2">CONCATENATE("Cybermancy image generator thread: generate an image for ", X2, ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; W2 &amp; " in the image generation. " &amp; W2 &amp; " in Cybermancy has the effect of: " &amp; Z2)</f>
-        <v xml:space="preserve">Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by  in the image generation.  in Cybermancy has the effect of: </v>
+        <f>CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; V2 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; X2 &amp; " in the image generation. " &amp; V2 &amp; " in Cybermancy has the description of: " &amp; Z2)</f>
+        <v xml:space="preserve">Cybermancy image generator thread: generate an image for .png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by  in the image generation.  in Cybermancy has the description of: </v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="29" x14ac:dyDescent="0.35">
@@ -8872,11 +7662,11 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>1614</v>
+        <v>1621</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/monofilament-whip.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" ref="D3:D47" si="0">CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; A3 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; C3 &amp; " in the image generation. " &amp; A3 &amp; " in Cybermancy has the description of: " &amp; E3)</f>
+        <v>Cybermancy image generator thread: generate an image for Monofilament Whip.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/monofilament-whip.webp in the image generation. Monofilament Whip in Cybermancy has the description of: A razor-thin filament coil capable of slicing through armor and bone. Deadly, silent, and banned in most civilized zones.</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1557</v>
@@ -8914,13 +7704,12 @@
       <c r="S3" t="s">
         <v>1397</v>
       </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T7" si="3">"modules/cybermancy/assets/icons/features/" &amp; LOWER(SUBSTITUTE(S3," ","-"))</f>
-        <v>modules/cybermancy/assets/icons/features/lethal-edge</v>
+      <c r="T3" t="s">
+        <v>1666</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/lethal-edge.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Lethal Edge in the image generation. Lethal Edge in Cybermancy has the effect of:  On a Hope win, deal Severe damage if the Fear die shows 8-12.</v>
+        <f t="shared" ref="U3:U47" si="1">CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; R3 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; T3 &amp; " in the image generation. " &amp; R3 &amp; " in Cybermancy has the description of: " &amp; V3)</f>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/lethal-edge.webp in the image generation. hitPoints in Cybermancy has the description of:  On a Hope win, deal Severe damage if the Fear die shows 8-12.</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>1398</v>
@@ -8928,13 +7717,12 @@
       <c r="W3" t="s">
         <v>1477</v>
       </c>
-      <c r="X3" t="str">
-        <f t="shared" ref="X3:X47" si="4">"modules/cybermancy/assets/icons/features/" &amp; LOWER(SUBSTITUTE(W3," ","-"))</f>
-        <v>modules/cybermancy/assets/icons/features/slice-in-two</v>
+      <c r="X3" t="s">
+        <v>1705</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y47" si="5">CONCATENATE("Cybermancy image generator thread: generate an image for ", X3, ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; W3 &amp; " in the image generation. " &amp; W3 &amp; " in Cybermancy has the effect of: " &amp; Z3)</f>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/slice-in-two.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Slice in Two in the image generation. Slice in Two in Cybermancy has the effect of:  Sever or disable a limb, item, or piece of cover.</v>
+        <f t="shared" ref="Y3:Y47" si="2">CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; V3 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; X3 &amp; " in the image generation. " &amp; V3 &amp; " in Cybermancy has the description of: " &amp; Z3)</f>
+        <v>Cybermancy image generator thread: generate an image for  On a Hope win, deal Severe damage if the Fear die shows 8-12..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/slice-in-two.webp in the image generation.  On a Hope win, deal Severe damage if the Fear die shows 8-12. in Cybermancy has the description of:  Sever or disable a limb, item, or piece of cover.</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>1478</v>
@@ -8948,11 +7736,11 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>1615</v>
+        <v>1622</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/cyber-spur.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for Cyber Spur.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/cyber-spur.webp in the image generation. Cyber Spur in Cybermancy has the description of: A retractable blade hidden in the user’s forearm, perfect for sudden, lethal strikes in close quarters.</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>1558</v>
@@ -8993,13 +7781,12 @@
       <c r="S4" t="s">
         <v>1399</v>
       </c>
-      <c r="T4" t="str">
-        <f t="shared" si="3"/>
-        <v>modules/cybermancy/assets/icons/features/concealed</v>
+      <c r="T4" t="s">
+        <v>1667</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/concealed.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Concealed in the image generation. Concealed in Cybermancy has the effect of:  Can be hidden; gain advantage on your first attack each scene.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/concealed.webp in the image generation. hitPoints in Cybermancy has the description of:  Can be hidden; gain advantage on your first attack each scene.</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>1400</v>
@@ -9007,13 +7794,12 @@
       <c r="W4" t="s">
         <v>1479</v>
       </c>
-      <c r="X4" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/ambush-kill</v>
+      <c r="X4" t="s">
+        <v>1706</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/ambush-kill.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Ambush Kill in the image generation. Ambush Kill in Cybermancy has the effect of:  If striking from surprise, escalate Fear consequences for target.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Can be hidden; gain advantage on your first attack each scene..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/ambush-kill.webp in the image generation.  Can be hidden; gain advantage on your first attack each scene. in Cybermancy has the description of:  If striking from surprise, escalate Fear consequences for target.</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>1480</v>
@@ -9027,11 +7813,11 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>1616</v>
+        <v>1623</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/shock-baton.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for Shock Baton.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/shock-baton.webp in the image generation. Shock Baton in Cybermancy has the description of: A polymer club fitted with a high-voltage capacitor, used by corp security and riot control alike.</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>1559</v>
@@ -9069,13 +7855,12 @@
       <c r="S5" t="s">
         <v>1401</v>
       </c>
-      <c r="T5" t="str">
-        <f t="shared" si="3"/>
-        <v>modules/cybermancy/assets/icons/features/stunning</v>
+      <c r="T5" t="s">
+        <v>1668</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/stunning.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Stunning in the image generation. Stunning in Cybermancy has the effect of:  Spend a Hope on a successful hit to inflict Dazed for one round.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/stunning.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend a Hope on a successful hit to inflict Dazed for one round.</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>1402</v>
@@ -9083,13 +7868,12 @@
       <c r="W5" t="s">
         <v>1481</v>
       </c>
-      <c r="X5" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/knockout</v>
+      <c r="X5" t="s">
+        <v>1707</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/knockout.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Knockout in the image generation. Knockout in Cybermancy has the effect of:  Target is stunned or unconscious for one scene beat.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Spend a Hope on a successful hit to inflict Dazed for one round..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/knockout.webp in the image generation.  Spend a Hope on a successful hit to inflict Dazed for one round. in Cybermancy has the description of:  Target is stunned or unconscious for one scene beat.</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>1482</v>
@@ -9103,11 +7887,11 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>1617</v>
+        <v>1624</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/vibro-knife.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for Vibro-Knife.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/vibro-knife.webp in the image generation. Vibro-Knife in Cybermancy has the description of: A short combat blade that hums at ultrasonic speed, capable of piercing armor with surgical precision.</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>1560</v>
@@ -9145,13 +7929,12 @@
       <c r="S6" t="s">
         <v>1403</v>
       </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>modules/cybermancy/assets/icons/features/piercing</v>
+      <c r="T6" t="s">
+        <v>1669</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/piercing.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Piercing in the image generation. Piercing in Cybermancy has the effect of:  Ignores armor on a Hope critical.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/piercing.webp in the image generation. hitPoints in Cybermancy has the description of:  Ignores armor on a Hope critical.</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>1404</v>
@@ -9159,13 +7942,12 @@
       <c r="W6" t="s">
         <v>1483</v>
       </c>
-      <c r="X6" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/silent-kill</v>
+      <c r="X6" t="s">
+        <v>1708</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/silent-kill.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Silent Kill in the image generation. Silent Kill in Cybermancy has the effect of:  Disable one target silently with no alert escalation.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Ignores armor on a Hope critical..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/silent-kill.webp in the image generation.  Ignores armor on a Hope critical. in Cybermancy has the description of:  Disable one target silently with no alert escalation.</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>1484</v>
@@ -9179,11 +7961,11 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>1618</v>
+        <v>1625</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/smartpistol.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for Smartpistol.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/smartpistol.webp in the image generation. Smartpistol in Cybermancy has the description of: Compact sidearm with digital targeting and auto-adjust systems, favored by professional runners.</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1561</v>
@@ -9221,13 +8003,12 @@
       <c r="S7" t="s">
         <v>1405</v>
       </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>modules/cybermancy/assets/icons/features/smartlink</v>
+      <c r="T7" t="s">
+        <v>1670</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/smartlink.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Smartlink in the image generation. Smartlink in Cybermancy has the effect of:  Once per scene, reroll one attack die if linked to cyberware/gear.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/smartlink.webp in the image generation. hitPoints in Cybermancy has the description of:  Once per scene, reroll one attack die if linked to cyberware/gear.</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>1406</v>
@@ -9235,13 +8016,12 @@
       <c r="W7" t="s">
         <v>1485</v>
       </c>
-      <c r="X7" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/pinpoint</v>
+      <c r="X7" t="s">
+        <v>1709</v>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/pinpoint.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Pinpoint in the image generation. Pinpoint in Cybermancy has the effect of:  Crit ignores cover; disable weapon/armor.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Once per scene, reroll one attack die if linked to cyberware/gear..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/pinpoint.webp in the image generation.  Once per scene, reroll one attack die if linked to cyberware/gear. in Cybermancy has the description of:  Crit ignores cover; disable weapon/armor.</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>1486</v>
@@ -9255,11 +8035,11 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>1619</v>
+        <v>1626</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/smg-machine-pistol.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for SMG (Machine Pistol).png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/smg-machine-pistol.webp in the image generation. SMG (Machine Pistol) in Cybermancy has the description of: Lightweight submachine gun optimized for close-quarters burst fire; loud, fast, and unforgiving.</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>1562</v>
@@ -9297,13 +8077,12 @@
       <c r="S8" t="s">
         <v>1407</v>
       </c>
-      <c r="T8" t="str">
-        <f>"modules/cybermancy/assets/icons/weapons-feature/" &amp; LOWER(SUBSTITUTE(S8," ","-"))</f>
-        <v>modules/cybermancy/assets/icons/weapons-feature/burst-fire</v>
+      <c r="T8" t="s">
+        <v>1671</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/burst-fire.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Burst Fire in the image generation. Burst Fire in Cybermancy has the effect of:  Mark 1 Stress to attack an additional target in Close range.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/burst-fire.webp in the image generation. hitPoints in Cybermancy has the description of:  Mark 1 Stress to attack an additional target in Close range.</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>1408</v>
@@ -9311,13 +8090,12 @@
       <c r="W8" t="s">
         <v>1487</v>
       </c>
-      <c r="X8" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/spray-down</v>
+      <c r="X8" t="s">
+        <v>1710</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/spray-down.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Spray Down in the image generation. Spray Down in Cybermancy has the effect of:  Hit all targets in Very Close range with collateral fire.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Mark 1 Stress to attack an additional target in Close range..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/spray-down.webp in the image generation.  Mark 1 Stress to attack an additional target in Close range. in Cybermancy has the description of:  Hit all targets in Very Close range with collateral fire.</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>1488</v>
@@ -9331,11 +8109,11 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>1620</v>
+        <v>1627</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/assault-rifle.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for Assault Rifle.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/assault-rifle.webp in the image generation. Assault Rifle in Cybermancy has the description of: The runner’s staple: reliable, lethal, and adaptable across every corporate warzone on Earth.</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>1563</v>
@@ -9373,13 +8151,12 @@
       <c r="S9" t="s">
         <v>1409</v>
       </c>
-      <c r="T9" t="str">
-        <f t="shared" ref="T9:T47" si="6">"modules/cybermancy/assets/icons/weapons-feature/" &amp; LOWER(SUBSTITUTE(S9," ","-"))</f>
-        <v>modules/cybermancy/assets/icons/weapons-feature/suppressive-fire</v>
+      <c r="T9" t="s">
+        <v>1672</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/suppressive-fire.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Suppressive Fire in the image generation. Suppressive Fire in Cybermancy has the effect of:  On a Hope win, target must mark 1 Stress to act next turn.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/suppressive-fire.webp in the image generation. hitPoints in Cybermancy has the description of:  On a Hope win, target must mark 1 Stress to act next turn.</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>1410</v>
@@ -9387,13 +8164,12 @@
       <c r="W9" t="s">
         <v>1489</v>
       </c>
-      <c r="X9" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/shredding-burst</v>
+      <c r="X9" t="s">
+        <v>1711</v>
       </c>
       <c r="Y9" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/shredding-burst.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Shredding Burst in the image generation. Shredding Burst in Cybermancy has the effect of:  Force enemy into cover, reducing their next attack roll.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  On a Hope win, target must mark 1 Stress to act next turn..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/shredding-burst.webp in the image generation.  On a Hope win, target must mark 1 Stress to act next turn. in Cybermancy has the description of:  Force enemy into cover, reducing their next attack roll.</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>1490</v>
@@ -9407,11 +8183,11 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>1621</v>
+        <v>1628</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/shotgun.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for Shotgun.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/shotgun.webp in the image generation. Shotgun in Cybermancy has the description of: Brutal close-range weapon that clears hallways with concussive thunder and devastating scatter.</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>1564</v>
@@ -9449,13 +8225,12 @@
       <c r="S10" t="s">
         <v>1411</v>
       </c>
-      <c r="T10" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/scatter</v>
+      <c r="T10" t="s">
+        <v>1673</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/scatter.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Scatter in the image generation. Scatter in Cybermancy has the effect of:  Spend a Hope to attack all targets in Very Close range.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/scatter.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend a Hope to attack all targets in Very Close range.</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>1412</v>
@@ -9463,13 +8238,12 @@
       <c r="W10" t="s">
         <v>1491</v>
       </c>
-      <c r="X10" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/point-blank-devastation</v>
+      <c r="X10" t="s">
+        <v>1712</v>
       </c>
       <c r="Y10" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/point-blank-devastation.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Point-Blank Devastation in the image generation. Point-Blank Devastation in Cybermancy has the effect of:  Knock back and lose next action.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Spend a Hope to attack all targets in Very Close range..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/point-blank-devastation.webp in the image generation.  Spend a Hope to attack all targets in Very Close range. in Cybermancy has the description of:  Knock back and lose next action.</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>1492</v>
@@ -9483,11 +8257,11 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>1622</v>
+        <v>1629</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/sniper-rifle.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for Sniper Rifle.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/sniper-rifle.webp in the image generation. Sniper Rifle in Cybermancy has the description of: Precision weapon built for the patient killer — silent, steady, and unerring over long distances.</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>1565</v>
@@ -9525,13 +8299,12 @@
       <c r="S11" t="s">
         <v>1413</v>
       </c>
-      <c r="T11" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/scoped</v>
+      <c r="T11" t="s">
+        <v>1674</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/scoped.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Scoped in the image generation. Scoped in Cybermancy has the effect of:  Spend a round aiming to gain advantage on next shot.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/scoped.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend a round aiming to gain advantage on next shot.</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>1414</v>
@@ -9539,13 +8312,12 @@
       <c r="W11" t="s">
         <v>1493</v>
       </c>
-      <c r="X11" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/through-and-through</v>
+      <c r="X11" t="s">
+        <v>1713</v>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/through-and-through.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Through and Through in the image generation. Through and Through in Cybermancy has the effect of:  Bullet passes through to a second target in line.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Spend a round aiming to gain advantage on next shot..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/through-and-through.webp in the image generation.  Spend a round aiming to gain advantage on next shot. in Cybermancy has the description of:  Bullet passes through to a second target in line.</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>1494</v>
@@ -9559,11 +8331,11 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>1623</v>
+        <v>1630</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/throwing-knives.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for Throwing Knives.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/throwing-knives.webp in the image generation. Throwing Knives in Cybermancy has the description of: Balanced steel blades designed for silent takedowns or distraction in the shadows.</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>1566</v>
@@ -9601,13 +8373,12 @@
       <c r="S12" t="s">
         <v>1415</v>
       </c>
-      <c r="T12" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/quick-draw</v>
+      <c r="T12" t="s">
+        <v>1675</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/quick-draw.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Quick Draw in the image generation. Quick Draw in Cybermancy has the effect of:  May be used as a reaction against melee attackers.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/quick-draw.webp in the image generation. hitPoints in Cybermancy has the description of:  May be used as a reaction against melee attackers.</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>1416</v>
@@ -9615,13 +8386,12 @@
       <c r="W12" t="s">
         <v>1495</v>
       </c>
-      <c r="X12" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/pinning-strike</v>
+      <c r="X12" t="s">
+        <v>1714</v>
       </c>
       <c r="Y12" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/pinning-strike.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Pinning Strike in the image generation. Pinning Strike in Cybermancy has the effect of:  Pin targets limb, weapon, or clothing, restricting movement.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  May be used as a reaction against melee attackers..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/pinning-strike.webp in the image generation.  May be used as a reaction against melee attackers. in Cybermancy has the description of:  Pin targets limb, weapon, or clothing, restricting movement.</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>1604</v>
@@ -9635,11 +8405,11 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>1624</v>
+        <v>1631</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/fragmentation-grenade.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for Fragmentation Grenade.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/fragmentation-grenade.webp in the image generation. Fragmentation Grenade in Cybermancy has the description of: A high-yield fragmentation device scattering lethal shrapnel in every direction.</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>1567</v>
@@ -9677,13 +8447,12 @@
       <c r="S13" t="s">
         <v>1417</v>
       </c>
-      <c r="T13" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/explosive</v>
+      <c r="T13" t="s">
+        <v>1676</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/explosive.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Explosive in the image generation. Explosive in Cybermancy has the effect of:  On Hope win, half damage to all in Close range.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/explosive.webp in the image generation. hitPoints in Cybermancy has the description of:  On Hope win, half damage to all in Close range.</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>1418</v>
@@ -9691,13 +8460,12 @@
       <c r="W13" t="s">
         <v>1496</v>
       </c>
-      <c r="X13" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/shrapnel-storm</v>
+      <c r="X13" t="s">
+        <v>1715</v>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/shrapnel-storm.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Shrapnel Storm in the image generation. Shrapnel Storm in Cybermancy has the effect of:  All enemies in area take full damage and mark 1 Stress.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  On Hope win, half damage to all in Close range..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/shrapnel-storm.webp in the image generation.  On Hope win, half damage to all in Close range. in Cybermancy has the description of:  All enemies in area take full damage and mark 1 Stress.</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>1497</v>
@@ -9711,11 +8479,11 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>1625</v>
+        <v>1632</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/emp-grenade.png in the size recommended by Foundry VTT for icons</v>
+        <v>Cybermancy image generator thread: generate an image for EMP Grenade.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/emp-grenade.webp in the image generation. EMP Grenade in Cybermancy has the description of: Pulse emitter that fries circuits, drones, and cyberware with a single electromagnetic burst.</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>1568</v>
@@ -9753,13 +8521,12 @@
       <c r="S14" t="s">
         <v>1419</v>
       </c>
-      <c r="T14" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/disruptive</v>
+      <c r="T14" t="s">
+        <v>1677</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/disruptive.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Disruptive in the image generation. Disruptive in Cybermancy has the effect of:  On hit, drones/tech in range must succeed or shut down 1 round.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/disruptive.webp in the image generation. hitPoints in Cybermancy has the description of:  On hit, drones/tech in range must succeed or shut down 1 round.</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>1420</v>
@@ -9767,13 +8534,12 @@
       <c r="W14" t="s">
         <v>1498</v>
       </c>
-      <c r="X14" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/total-system-crash</v>
+      <c r="X14" t="s">
+        <v>1716</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/total-system-crash.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Total System Crash in the image generation. Total System Crash in Cybermancy has the effect of:  All devices in area disabled until end of scene.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  On hit, drones/tech in range must succeed or shut down 1 round..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/total-system-crash.webp in the image generation.  On hit, drones/tech in range must succeed or shut down 1 round. in Cybermancy has the description of:  All devices in area disabled until end of scene.</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>1499</v>
@@ -9787,11 +8553,11 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>1626</v>
+        <v>1633</v>
       </c>
       <c r="D15" t="str">
-        <f>CONCATENATE("Cybermancy image generator thread: generate an image for ", C15, " in the size recommended by Foundry VTT for icons")</f>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/improved-monofilament-whip.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Improved Monofilament Whip.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/improved-monofilament-whip.webp in the image generation. Improved Monofilament Whip in Cybermancy has the description of: A reinforced filament with servo control for higher cutting torque and unmatched lethality.</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>1569</v>
@@ -9829,13 +8595,12 @@
       <c r="S15" t="s">
         <v>1397</v>
       </c>
-      <c r="T15" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/lethal-edge</v>
+      <c r="T15" t="s">
+        <v>1678</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/lethal-edge.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Lethal Edge in the image generation. Lethal Edge in Cybermancy has the effect of:  On a Hope win, upgrade one damage die to max value.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/lethal-edge.webp in the image generation. hitPoints in Cybermancy has the description of:  On a Hope win, upgrade one damage die to max value.</v>
       </c>
       <c r="V15" s="4" t="s">
         <v>1421</v>
@@ -9843,13 +8608,12 @@
       <c r="W15" t="s">
         <v>1500</v>
       </c>
-      <c r="X15" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/severance</v>
+      <c r="X15" t="s">
+        <v>1717</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/severance.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Severance in the image generation. Severance in Cybermancy has the effect of:  Cut through armor, restraints, or environmental barriers.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  On a Hope win, upgrade one damage die to max value..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/severance.webp in the image generation.  On a Hope win, upgrade one damage die to max value. in Cybermancy has the description of:  Cut through armor, restraints, or environmental barriers.</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>1501</v>
@@ -9863,11 +8627,11 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>1627</v>
+        <v>1634</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ref="D16:D47" si="7">CONCATENATE("Cybermancy image generator thread: generate an image for ", C16, " in the size recommended by Foundry VTT for icons")</f>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/improved-cyber-spur.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Improved Cyber Spur.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/improved-cyber-spur.webp in the image generation. Improved Cyber Spur in Cybermancy has the description of: Enhanced retractable spurs forged from titanium alloy, near undetectable by security scanners.</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>1570</v>
@@ -9905,13 +8669,12 @@
       <c r="S16" t="s">
         <v>1399</v>
       </c>
-      <c r="T16" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/concealed</v>
+      <c r="T16" t="s">
+        <v>1679</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/concealed.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Concealed in the image generation. Concealed in Cybermancy has the effect of:  Cannot be detected by casual scans.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/concealed.webp in the image generation. hitPoints in Cybermancy has the description of:  Cannot be detected by casual scans.</v>
       </c>
       <c r="V16" s="4" t="s">
         <v>1422</v>
@@ -9919,13 +8682,12 @@
       <c r="W16" t="s">
         <v>1502</v>
       </c>
-      <c r="X16" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/spinal-strike</v>
+      <c r="X16" t="s">
+        <v>1718</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/spinal-strike.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Spinal Strike in the image generation. Spinal Strike in Cybermancy has the effect of:  Target is paralyzed for 1 round.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Cannot be detected by casual scans..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/spinal-strike.webp in the image generation.  Cannot be detected by casual scans. in Cybermancy has the description of:  Target is paralyzed for 1 round.</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>1503</v>
@@ -9939,11 +8701,11 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>1628</v>
+        <v>1635</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE("Cybermancy image generator thread: generate an image for ", C17, " ", E17, " in the size recommended by Foundry VTT for icons")</f>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/improved-shock-baton.png Upgraded battery coils deliver chained electrical arcs between multiple nearby targets. in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Improved Shock Baton.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/improved-shock-baton.webp in the image generation. Improved Shock Baton in Cybermancy has the description of: Upgraded battery coils deliver chained electrical arcs between multiple nearby targets.</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>1571</v>
@@ -9981,13 +8743,12 @@
       <c r="S17" t="s">
         <v>1423</v>
       </c>
-      <c r="T17" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/arc-charge</v>
+      <c r="T17" t="s">
+        <v>1680</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/arc-charge.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Arc Charge in the image generation. Arc Charge in Cybermancy has the effect of:  Spend 1 Stress to arc lightning to another Very Close target.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/arc-charge.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend 1 Stress to arc lightning to another Very Close target.</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>1424</v>
@@ -9995,13 +8756,12 @@
       <c r="W17" t="s">
         <v>1504</v>
       </c>
-      <c r="X17" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/overload</v>
+      <c r="X17" t="s">
+        <v>1719</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/overload.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Overload in the image generation. Overload in Cybermancy has the effect of:  Targets nervous system locks up; they drop gear.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Spend 1 Stress to arc lightning to another Very Close target..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/overload.webp in the image generation.  Spend 1 Stress to arc lightning to another Very Close target. in Cybermancy has the description of:  Targets nervous system locks up; they drop gear.</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>1605</v>
@@ -10015,11 +8775,11 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>1629</v>
+        <v>1636</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/improved-vibro-knife.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Improved Vibro-Knife.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/improved-vibro-knife.webp in the image generation. Improved Vibro-Knife in Cybermancy has the description of: Precision-tuned vibration edge allows for armor penetration and silent, efficient kills.</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>1572</v>
@@ -10057,13 +8817,12 @@
       <c r="S18" t="s">
         <v>1403</v>
       </c>
-      <c r="T18" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/piercing</v>
+      <c r="T18" t="s">
+        <v>1681</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/piercing.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Piercing in the image generation. Piercing in Cybermancy has the effect of:  Ignores 1 level of armor.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/piercing.webp in the image generation. hitPoints in Cybermancy has the description of:  Ignores 1 level of armor.</v>
       </c>
       <c r="V18" s="4" t="s">
         <v>1425</v>
@@ -10071,13 +8830,12 @@
       <c r="W18" t="s">
         <v>1602</v>
       </c>
-      <c r="X18" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/assassins-cut</v>
+      <c r="X18" t="s">
+        <v>1720</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/assassins-cut.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Assassins Cut in the image generation. Assassins Cut in Cybermancy has the effect of:  Severe damage ignoring defenses.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Ignores 1 level of armor..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/assassins-cut.webp in the image generation.  Ignores 1 level of armor. in Cybermancy has the description of:  Severe damage ignoring defenses.</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>1505</v>
@@ -10091,11 +8849,11 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>1630</v>
+        <v>1637</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/smartpistol-mk-ii.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Smartpistol Mk II.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/smartpistol-mk-ii.webp in the image generation. Smartpistol Mk II in Cybermancy has the description of: Improved ballistic computer with predictive recoil compensation and infrared tracking.</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>1573</v>
@@ -10133,13 +8891,12 @@
       <c r="S19" t="s">
         <v>1405</v>
       </c>
-      <c r="T19" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/smartlink</v>
+      <c r="T19" t="s">
+        <v>1682</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/smartlink.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Smartlink in the image generation. Smartlink in Cybermancy has the effect of:  Auto-correct; reroll a miss once per scene.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/smartlink.webp in the image generation. hitPoints in Cybermancy has the description of:  Auto-correct; reroll a miss once per scene.</v>
       </c>
       <c r="V19" s="4" t="s">
         <v>1426</v>
@@ -10147,13 +8904,12 @@
       <c r="W19" t="s">
         <v>1506</v>
       </c>
-      <c r="X19" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/eye-shot</v>
+      <c r="X19" t="s">
+        <v>1721</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/eye-shot.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Eye Shot in the image generation. Eye Shot in Cybermancy has the effect of:  Disable optics or key sensors.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Auto-correct; reroll a miss once per scene..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/eye-shot.webp in the image generation.  Auto-correct; reroll a miss once per scene. in Cybermancy has the description of:  Disable optics or key sensors.</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>1507</v>
@@ -10167,11 +8923,11 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>1631</v>
+        <v>1638</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/compact-smg.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Compact SMG.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/compact-smg.webp in the image generation. Compact SMG in Cybermancy has the description of: A miniaturized submachine gun favored by covert teams — concealable but vicious in a firefight.</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>1574</v>
@@ -10209,13 +8965,12 @@
       <c r="S20" t="s">
         <v>1407</v>
       </c>
-      <c r="T20" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/burst-fire</v>
+      <c r="T20" t="s">
+        <v>1671</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/burst-fire.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Burst Fire in the image generation. Burst Fire in Cybermancy has the effect of:  Spend Hope to hit two targets in Close range.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/burst-fire.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend Hope to hit two targets in Close range.</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>1427</v>
@@ -10223,13 +8978,12 @@
       <c r="W20" t="s">
         <v>1508</v>
       </c>
-      <c r="X20" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/crowd-control</v>
+      <c r="X20" t="s">
+        <v>1722</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/crowd-control.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Crowd Control in the image generation. Crowd Control in Cybermancy has the effect of:  Panic/disrupt all enemies in Very Close range.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Spend Hope to hit two targets in Close range..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/crowd-control.webp in the image generation.  Spend Hope to hit two targets in Close range. in Cybermancy has the description of:  Panic/disrupt all enemies in Very Close range.</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>1509</v>
@@ -10243,11 +8997,11 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>1632</v>
+        <v>1639</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/military-assault-rifle.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Military Assault Rifle.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/military-assault-rifle.webp in the image generation. Military Assault Rifle in Cybermancy has the description of: Hardened composite frame with select-fire and tactical uplink for squad-level coordination.</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>1575</v>
@@ -10285,13 +9039,12 @@
       <c r="S21" t="s">
         <v>1409</v>
       </c>
-      <c r="T21" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/suppressive-fire</v>
+      <c r="T21" t="s">
+        <v>1672</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/suppressive-fire.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Suppressive Fire in the image generation. Suppressive Fire in Cybermancy has the effect of:  On Hope win, all enemies in line of fire mark Stress.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/suppressive-fire.webp in the image generation. hitPoints in Cybermancy has the description of:  On Hope win, all enemies in line of fire mark Stress.</v>
       </c>
       <c r="V21" s="4" t="s">
         <v>1428</v>
@@ -10299,13 +9052,12 @@
       <c r="W21" t="s">
         <v>1510</v>
       </c>
-      <c r="X21" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/armor-break</v>
+      <c r="X21" t="s">
+        <v>1723</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/armor-break.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Armor Break in the image generation. Armor Break in Cybermancy has the effect of:  Ignore armor; bullets chew through cover.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  On Hope win, all enemies in line of fire mark Stress..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/armor-break.webp in the image generation.  On Hope win, all enemies in line of fire mark Stress. in Cybermancy has the description of:  Ignore armor; bullets chew through cover.</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>1511</v>
@@ -10319,11 +9071,11 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>1633</v>
+        <v>1640</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/street-sweeper-shotgun.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Street Sweeper Shotgun.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/street-sweeper-shotgun.webp in the image generation. Street Sweeper Shotgun in Cybermancy has the description of: Heavy drum-fed shotgun designed to clear rooms and alleys in seconds.</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>1576</v>
@@ -10361,13 +9113,12 @@
       <c r="S22" t="s">
         <v>1429</v>
       </c>
-      <c r="T22" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/wide-scatter</v>
+      <c r="T22" t="s">
+        <v>1683</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/wide-scatter.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Wide Scatter in the image generation. Wide Scatter in Cybermancy has the effect of:  Attack all targets in Very Close range once per scene.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/wide-scatter.webp in the image generation. hitPoints in Cybermancy has the description of:  Attack all targets in Very Close range once per scene.</v>
       </c>
       <c r="V22" s="4" t="s">
         <v>1430</v>
@@ -10375,13 +9126,12 @@
       <c r="W22" t="s">
         <v>1512</v>
       </c>
-      <c r="X22" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/bone-shaker</v>
+      <c r="X22" t="s">
+        <v>1724</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/bone-shaker.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Bone Shaker in the image generation. Bone Shaker in Cybermancy has the effect of:  Target knocked prone and loses next turn.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Attack all targets in Very Close range once per scene..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/bone-shaker.webp in the image generation.  Attack all targets in Very Close range once per scene. in Cybermancy has the description of:  Target knocked prone and loses next turn.</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>1513</v>
@@ -10395,11 +9145,11 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>1634</v>
+        <v>1641</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/scoped-sniper-rifle.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Scoped Sniper Rifle.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/scoped-sniper-rifle.webp in the image generation. Scoped Sniper Rifle in Cybermancy has the description of: Enhanced optics suite allows bullet trajectory correction and real-time target telemetry.</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>1577</v>
@@ -10437,13 +9187,12 @@
       <c r="S23" t="s">
         <v>1413</v>
       </c>
-      <c r="T23" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/scoped</v>
+      <c r="T23" t="s">
+        <v>1674</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/scoped.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Scoped in the image generation. Scoped in Cybermancy has the effect of:  Aim for advantage; crit chance rises if aiming 1 round.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/scoped.webp in the image generation. hitPoints in Cybermancy has the description of:  Aim for advantage; crit chance rises if aiming 1 round.</v>
       </c>
       <c r="V23" s="4" t="s">
         <v>1431</v>
@@ -10451,13 +9200,12 @@
       <c r="W23" t="s">
         <v>1493</v>
       </c>
-      <c r="X23" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/through-and-through</v>
+      <c r="X23" t="s">
+        <v>1713</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/through-and-through.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Through and Through in the image generation. Through and Through in Cybermancy has the effect of:  Shot penetrates multiple targets.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Aim for advantage; crit chance rises if aiming 1 round..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/through-and-through.webp in the image generation.  Aim for advantage; crit chance rises if aiming 1 round. in Cybermancy has the description of:  Shot penetrates multiple targets.</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>1514</v>
@@ -10471,11 +9219,11 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>1658</v>
+        <v>1642</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/fragmentation-grenade-plus.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Fragmentation Grenade+.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/fragmentation-grenade-plus.webp in the image generation. Fragmentation Grenade+ in Cybermancy has the description of: Factory-tuned military variant with denser shrapnel spread and wider kill radius.</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>1578</v>
@@ -10513,13 +9261,12 @@
       <c r="S24" t="s">
         <v>1417</v>
       </c>
-      <c r="T24" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/explosive</v>
+      <c r="T24" t="s">
+        <v>1676</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/explosive.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Explosive in the image generation. Explosive in Cybermancy has the effect of:  Half damage to adjacent zones.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/explosive.webp in the image generation. hitPoints in Cybermancy has the description of:  Half damage to adjacent zones.</v>
       </c>
       <c r="V24" s="4" t="s">
         <v>1432</v>
@@ -10527,13 +9274,12 @@
       <c r="W24" t="s">
         <v>1515</v>
       </c>
-      <c r="X24" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/massive-detonation</v>
+      <c r="X24" t="s">
+        <v>1725</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/massive-detonation.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Massive Detonation in the image generation. Massive Detonation in Cybermancy has the effect of:  Full damage in wider zone (Far).</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Half damage to adjacent zones..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/massive-detonation.webp in the image generation.  Half damage to adjacent zones. in Cybermancy has the description of:  Full damage in wider zone (Far).</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>1516</v>
@@ -10547,11 +9293,11 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/emp-grenade-plus.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for EMP Grenade+.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/emp-grenade-plus.webp in the image generation. EMP Grenade+ in Cybermancy has the description of: Improved electromagnetic charge capable of disabling entire comm grids in seconds.</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>1579</v>
@@ -10589,13 +9335,12 @@
       <c r="S25" t="s">
         <v>1419</v>
       </c>
-      <c r="T25" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/disruptive</v>
+      <c r="T25" t="s">
+        <v>1677</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/disruptive.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Disruptive in the image generation. Disruptive in Cybermancy has the effect of:  Drones/tech roll at Disadvantage.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/disruptive.webp in the image generation. hitPoints in Cybermancy has the description of:  Drones/tech roll at Disadvantage.</v>
       </c>
       <c r="V25" s="4" t="s">
         <v>1433</v>
@@ -10603,13 +9348,12 @@
       <c r="W25" t="s">
         <v>1517</v>
       </c>
-      <c r="X25" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/grid-blackout</v>
+      <c r="X25" t="s">
+        <v>1726</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/grid-blackout.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Grid Blackout in the image generation. Grid Blackout in Cybermancy has the effect of:  All tech shuts down until reboot.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Drones/tech roll at Disadvantage..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/grid-blackout.webp in the image generation.  Drones/tech roll at Disadvantage. in Cybermancy has the description of:  All tech shuts down until reboot.</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>1518</v>
@@ -10623,11 +9367,11 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>1635</v>
+        <v>1644</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/corporate-mono-whip.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Corporate Mono-Whip.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/corporate-mono-whip.webp in the image generation. Corporate Mono-Whip in Cybermancy has the description of: A high-grade monofilament weapon issued to elite corp assassins — silent, perfect, final.</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>1580</v>
@@ -10665,13 +9409,12 @@
       <c r="S26" t="s">
         <v>1397</v>
       </c>
-      <c r="T26" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/lethal-edge</v>
+      <c r="T26" t="s">
+        <v>1678</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/lethal-edge.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Lethal Edge in the image generation. Lethal Edge in Cybermancy has the effect of:  Can slice through vehicles on Hope crit.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/lethal-edge.webp in the image generation. hitPoints in Cybermancy has the description of:  Can slice through vehicles on Hope crit.</v>
       </c>
       <c r="V26" s="4" t="s">
         <v>1434</v>
@@ -10679,13 +9422,12 @@
       <c r="W26" t="s">
         <v>1519</v>
       </c>
-      <c r="X26" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/corpse-cutter</v>
+      <c r="X26" t="s">
+        <v>1727</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/corpse-cutter.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Corpse-Cutter in the image generation. Corpse-Cutter in Cybermancy has the effect of:  Destroy one environmental object (door, drone, wall).</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Can slice through vehicles on Hope crit..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/corpse-cutter.webp in the image generation.  Can slice through vehicles on Hope crit. in Cybermancy has the description of:  Destroy one environmental object (door, drone, wall).</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>1520</v>
@@ -10699,11 +9441,11 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>1636</v>
+        <v>1645</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/titanium-cyber-spurs.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Titanium Cyber Spurs.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/titanium-cyber-spurs.webp in the image generation. Titanium Cyber Spurs in Cybermancy has the description of: Polished titanium spurs with self-cleaning servos and monomolecular precision edges.</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>1581</v>
@@ -10741,13 +9483,12 @@
       <c r="S27" t="s">
         <v>1435</v>
       </c>
-      <c r="T27" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/hidden-killer</v>
+      <c r="T27" t="s">
+        <v>1684</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/hidden-killer.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Hidden Killer in the image generation. Hidden Killer in Cybermancy has the effect of:  +2 to first attack in combat.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/hidden-killer.webp in the image generation. hitPoints in Cybermancy has the description of:  +2 to first attack in combat.</v>
       </c>
       <c r="V27" s="4" t="s">
         <v>1436</v>
@@ -10755,13 +9496,12 @@
       <c r="W27" t="s">
         <v>1521</v>
       </c>
-      <c r="X27" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/critical-tendons</v>
+      <c r="X27" t="s">
+        <v>1728</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/critical-tendons.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Critical Tendons in the image generation. Critical Tendons in Cybermancy has the effect of:  Cripple targets mobility permanently.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  +2 to first attack in combat..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/critical-tendons.webp in the image generation.  +2 to first attack in combat. in Cybermancy has the description of:  Cripple targets mobility permanently.</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>1606</v>
@@ -10775,11 +9515,11 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>1637</v>
+        <v>1646</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/heavy-shock-baton.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Heavy Shock Baton.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/heavy-shock-baton.webp in the image generation. Heavy Shock Baton in Cybermancy has the description of: Industrial security baton capable of stunning cybernetic brutes and armored enforcers alike.</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>1582</v>
@@ -10817,13 +9557,12 @@
       <c r="S28" t="s">
         <v>1437</v>
       </c>
-      <c r="T28" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/chain-lightning</v>
+      <c r="T28" t="s">
+        <v>1685</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/chain-lightning.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Chain Lightning in the image generation. Chain Lightning in Cybermancy has the effect of:  Spend 2 Hope, arc to 2 additional targets.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/chain-lightning.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend 2 Hope, arc to 2 additional targets.</v>
       </c>
       <c r="V28" s="4" t="s">
         <v>1438</v>
@@ -10831,13 +9570,12 @@
       <c r="W28" t="s">
         <v>1522</v>
       </c>
-      <c r="X28" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/system-shutdown</v>
+      <c r="X28" t="s">
+        <v>1729</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/system-shutdown.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by System Shutdown in the image generation. System Shutdown in Cybermancy has the effect of:  Target incapacitated (stun or KO).</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Spend 2 Hope, arc to 2 additional targets..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/system-shutdown.webp in the image generation.  Spend 2 Hope, arc to 2 additional targets. in Cybermancy has the description of:  Target incapacitated (stun or KO).</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>1523</v>
@@ -10851,11 +9589,11 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>1638</v>
+        <v>1647</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/combat-vibro-blade.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Combat Vibro-Blade.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/combat-vibro-blade.webp in the image generation. Combat Vibro-Blade in Cybermancy has the description of: Balanced for extended melee, this knife hums with a subsonic pulse designed for battlefield chaos.</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>1583</v>
@@ -10893,13 +9631,12 @@
       <c r="S29" t="s">
         <v>1439</v>
       </c>
-      <c r="T29" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/high-frequency</v>
+      <c r="T29" t="s">
+        <v>1686</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/high-frequency.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by High Frequency in the image generation. High Frequency in Cybermancy has the effect of:  +2 to all attack rolls this scene after a hit.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/high-frequency.webp in the image generation. hitPoints in Cybermancy has the description of:  +2 to all attack rolls this scene after a hit.</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>1440</v>
@@ -10907,13 +9644,12 @@
       <c r="W29" t="s">
         <v>1524</v>
       </c>
-      <c r="X29" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/fatal-wound</v>
+      <c r="X29" t="s">
+        <v>1730</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/fatal-wound.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Fatal Wound in the image generation. Fatal Wound in Cybermancy has the effect of:  Additional 1d12 bleed damage next turn.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  +2 to all attack rolls this scene after a hit..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/fatal-wound.webp in the image generation.  +2 to all attack rolls this scene after a hit. in Cybermancy has the description of:  Additional 1d12 bleed damage next turn.</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>1525</v>
@@ -10927,11 +9663,11 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>1639</v>
+        <v>1648</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/smartpistol-elite.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Smartpistol Elite.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/smartpistol-elite.webp in the image generation. Smartpistol Elite in Cybermancy has the description of: High-end model linked directly to neural networks for predictive targeting.</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>1584</v>
@@ -10969,13 +9705,12 @@
       <c r="S30" t="s">
         <v>1441</v>
       </c>
-      <c r="T30" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/autotarget</v>
+      <c r="T30" t="s">
+        <v>1687</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/autotarget.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Autotarget in the image generation. Autotarget in Cybermancy has the effect of:  Always ignore cover.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/autotarget.webp in the image generation. hitPoints in Cybermancy has the description of:  Always ignore cover.</v>
       </c>
       <c r="V30" s="4" t="s">
         <v>1442</v>
@@ -10983,13 +9718,12 @@
       <c r="W30" t="s">
         <v>1526</v>
       </c>
-      <c r="X30" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/one-shot-kill</v>
+      <c r="X30" t="s">
+        <v>1731</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/one-shot-kill.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by One-Shot Kill in the image generation. One-Shot Kill in Cybermancy has the effect of:  Severe damage ignoring all armor.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Always ignore cover..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/one-shot-kill.webp in the image generation.  Always ignore cover. in Cybermancy has the description of:  Severe damage ignoring all armor.</v>
       </c>
       <c r="Z30" s="4" t="s">
         <v>1527</v>
@@ -11003,11 +9737,11 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>1640</v>
+        <v>1649</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/advanced-smg.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Advanced SMG.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/advanced-smg.webp in the image generation. Advanced SMG in Cybermancy has the description of: Modular close-combat firearm with smart recoil dampers and ammo tracking.</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>1585</v>
@@ -11045,13 +9779,12 @@
       <c r="S31" t="s">
         <v>1443</v>
       </c>
-      <c r="T31" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/bulletstorm</v>
+      <c r="T31" t="s">
+        <v>1688</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/bulletstorm.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Bulletstorm in the image generation. Bulletstorm in Cybermancy has the effect of:  Once per rest, attack 3 targets in Close.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/bulletstorm.webp in the image generation. hitPoints in Cybermancy has the description of:  Once per rest, attack 3 targets in Close.</v>
       </c>
       <c r="V31" s="4" t="s">
         <v>1444</v>
@@ -11059,13 +9792,12 @@
       <c r="W31" t="s">
         <v>1528</v>
       </c>
-      <c r="X31" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/suppression-killzone</v>
+      <c r="X31" t="s">
+        <v>1732</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/suppression-killzone.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Suppression Killzone in the image generation. Suppression Killzone in Cybermancy has the effect of:  Enemies must Retreat or mark Stress.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Once per rest, attack 3 targets in Close..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/suppression-killzone.webp in the image generation.  Once per rest, attack 3 targets in Close. in Cybermancy has the description of:  Enemies must Retreat or mark Stress.</v>
       </c>
       <c r="Z31" s="4" t="s">
         <v>1529</v>
@@ -11079,11 +9811,11 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>1641</v>
+        <v>1650</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/advanced-assault-rifle.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Advanced Assault Rifle.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/advanced-assault-rifle.webp in the image generation. Advanced Assault Rifle in Cybermancy has the description of: Elite-issue firearm capable of sustained fire with minimal barrel drift.</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>1586</v>
@@ -11121,13 +9853,12 @@
       <c r="S32" t="s">
         <v>1445</v>
       </c>
-      <c r="T32" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/full-auto</v>
+      <c r="T32" t="s">
+        <v>1689</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/full-auto.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Full Auto in the image generation. Full Auto in Cybermancy has the effect of:  Spend Hope, double damage dice.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/full-auto.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend Hope, double damage dice.</v>
       </c>
       <c r="V32" s="4" t="s">
         <v>1446</v>
@@ -11135,13 +9866,12 @@
       <c r="W32" t="s">
         <v>1530</v>
       </c>
-      <c r="X32" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/critical-barrage</v>
+      <c r="X32" t="s">
+        <v>1733</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/critical-barrage.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Critical Barrage in the image generation. Critical Barrage in Cybermancy has the effect of:  Mow down cover, forcing enemies into open.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Spend Hope, double damage dice..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/critical-barrage.webp in the image generation.  Spend Hope, double damage dice. in Cybermancy has the description of:  Mow down cover, forcing enemies into open.</v>
       </c>
       <c r="Z32" s="4" t="s">
         <v>1531</v>
@@ -11155,11 +9885,11 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>1642</v>
+        <v>1651</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/riot-shotgun.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Riot Shotgun.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/riot-shotgun.webp in the image generation. Riot Shotgun in Cybermancy has the description of: Crowd-control platform launching high-impact kinetic or shock shells to suppress hostiles.</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>1587</v>
@@ -11197,13 +9927,12 @@
       <c r="S33" t="s">
         <v>1447</v>
       </c>
-      <c r="T33" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/knockback</v>
+      <c r="T33" t="s">
+        <v>1690</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/knockback.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Knockback in the image generation. Knockback in Cybermancy has the effect of:  Push targets back one range band.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/knockback.webp in the image generation. hitPoints in Cybermancy has the description of:  Push targets back one range band.</v>
       </c>
       <c r="V33" s="4" t="s">
         <v>1448</v>
@@ -11211,13 +9940,12 @@
       <c r="W33" t="s">
         <v>1532</v>
       </c>
-      <c r="X33" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/concussive-blast</v>
+      <c r="X33" t="s">
+        <v>1734</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/concussive-blast.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Concussive Blast in the image generation. Concussive Blast in Cybermancy has the effect of:  Stun all in Close cone.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Push targets back one range band..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/concussive-blast.webp in the image generation.  Push targets back one range band. in Cybermancy has the description of:  Stun all in Close cone.</v>
       </c>
       <c r="Z33" s="4" t="s">
         <v>1533</v>
@@ -11231,11 +9959,11 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>1643</v>
+        <v>1652</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/anti-materiel-sniper.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Anti-Materiel Sniper.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/anti-materiel-sniper.webp in the image generation. Anti-Materiel Sniper in Cybermancy has the description of: Long-range rail weapon capable of puncturing vehicles, mechs, and even bunkers.</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>1588</v>
@@ -11273,13 +10001,12 @@
       <c r="S34" t="s">
         <v>1449</v>
       </c>
-      <c r="T34" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/penetration</v>
+      <c r="T34" t="s">
+        <v>1691</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/penetration.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Penetration in the image generation. Penetration in Cybermancy has the effect of:  Shoot through walls/vehicles.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/penetration.webp in the image generation. hitPoints in Cybermancy has the description of:  Shoot through walls/vehicles.</v>
       </c>
       <c r="V34" s="4" t="s">
         <v>1450</v>
@@ -11287,13 +10014,12 @@
       <c r="W34" t="s">
         <v>1603</v>
       </c>
-      <c r="X34" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/executioners-shot</v>
+      <c r="X34" t="s">
+        <v>1735</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/executioners-shot.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Executioners Shot in the image generation. Executioners Shot in Cybermancy has the effect of:  Instantly remove non-boss foe.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Shoot through walls/vehicles..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/executioners-shot.webp in the image generation.  Shoot through walls/vehicles. in Cybermancy has the description of:  Instantly remove non-boss foe.</v>
       </c>
       <c r="Z34" s="4" t="s">
         <v>1534</v>
@@ -11307,11 +10033,11 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>1644</v>
+        <v>1653</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/cluster-grenade.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Cluster Grenade.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/cluster-grenade.webp in the image generation. Cluster Grenade in Cybermancy has the description of: A multi-charge fragmentation device that detonates across several zones at once.</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>1589</v>
@@ -11349,13 +10075,12 @@
       <c r="S35" t="s">
         <v>1451</v>
       </c>
-      <c r="T35" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/fragment-split</v>
+      <c r="T35" t="s">
+        <v>1692</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/fragment-split.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Fragment Split in the image generation. Fragment Split in Cybermancy has the effect of:  Hit two separate zones.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/fragment-split.webp in the image generation. hitPoints in Cybermancy has the description of:  Hit two separate zones.</v>
       </c>
       <c r="V35" s="4" t="s">
         <v>1452</v>
@@ -11363,13 +10088,12 @@
       <c r="W35" t="s">
         <v>1535</v>
       </c>
-      <c r="X35" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/kill-zone</v>
+      <c r="X35" t="s">
+        <v>1736</v>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/kill-zone.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Kill Zone in the image generation. Kill Zone in Cybermancy has the effect of:  Full damage in all adjacent zones.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Hit two separate zones..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/kill-zone.webp in the image generation.  Hit two separate zones. in Cybermancy has the description of:  Full damage in all adjacent zones.</v>
       </c>
       <c r="Z35" s="4" t="s">
         <v>1536</v>
@@ -11383,11 +10107,11 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>1645</v>
+        <v>1654</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/emp-cascade.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for EMP Cascade.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/emp-cascade.webp in the image generation. EMP Cascade in Cybermancy has the description of: A cascading EMP charge that disables all systems across multiple networks simultaneously.</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>1590</v>
@@ -11425,13 +10149,12 @@
       <c r="S36" t="s">
         <v>1453</v>
       </c>
-      <c r="T36" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/system-overload</v>
+      <c r="T36" t="s">
+        <v>1693</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/system-overload.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by System Overload in the image generation. System Overload in Cybermancy has the effect of:  Devices take 2 rounds to recover.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/system-overload.webp in the image generation. hitPoints in Cybermancy has the description of:  Devices take 2 rounds to recover.</v>
       </c>
       <c r="V36" s="4" t="s">
         <v>1454</v>
@@ -11439,13 +10162,12 @@
       <c r="W36" t="s">
         <v>1537</v>
       </c>
-      <c r="X36" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/matrix-burnout</v>
+      <c r="X36" t="s">
+        <v>1737</v>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/matrix-burnout.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Matrix Burnout in the image generation. Matrix Burnout in Cybermancy has the effect of:  Deckers hit take HP damage directly.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Devices take 2 rounds to recover..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/matrix-burnout.webp in the image generation.  Devices take 2 rounds to recover. in Cybermancy has the description of:  Deckers hit take HP damage directly.</v>
       </c>
       <c r="Z36" s="4" t="s">
         <v>1538</v>
@@ -11459,11 +10181,11 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>1646</v>
+        <v>1655</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/legendary-monofilament-whip.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Legendary Monofilament Whip.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/legendary-monofilament-whip.webp in the image generation. Legendary Monofilament Whip in Cybermancy has the description of: The apex of weaponized filaments, capable of cutting through armor, steel, or reality itself.</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>1591</v>
@@ -11501,13 +10223,12 @@
       <c r="S37" t="s">
         <v>1455</v>
       </c>
-      <c r="T37" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/reality-cut</v>
+      <c r="T37" t="s">
+        <v>1694</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/reality-cut.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Reality Cut in the image generation. Reality Cut in Cybermancy has the effect of:  Can slice vehicles, turrets, drones.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/reality-cut.webp in the image generation. hitPoints in Cybermancy has the description of:  Can slice vehicles, turrets, drones.</v>
       </c>
       <c r="V37" s="4" t="s">
         <v>1456</v>
@@ -11515,13 +10236,12 @@
       <c r="W37" t="s">
         <v>1539</v>
       </c>
-      <c r="X37" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/sever-reality</v>
+      <c r="X37" t="s">
+        <v>1738</v>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/sever-reality.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Sever Reality in the image generation. Sever Reality in Cybermancy has the effect of:  Slice environment  create a permanent gap or hazard.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Can slice vehicles, turrets, drones..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/sever-reality.webp in the image generation.  Can slice vehicles, turrets, drones. in Cybermancy has the description of:  Slice environment  create a permanent gap or hazard.</v>
       </c>
       <c r="Z37" s="4" t="s">
         <v>1609</v>
@@ -11535,11 +10255,11 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>1647</v>
+        <v>1656</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/diamond-cyber-spurs.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Diamond Cyber Spurs.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/diamond-cyber-spurs.webp in the image generation. Diamond Cyber Spurs in Cybermancy has the description of: Mirror-finish diamond-tipped spurs designed for surgical precision and absolute silence.</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>1592</v>
@@ -11577,13 +10297,12 @@
       <c r="S38" t="s">
         <v>1457</v>
       </c>
-      <c r="T38" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/ghost-kill</v>
+      <c r="T38" t="s">
+        <v>1695</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/ghost-kill.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Ghost Kill in the image generation. Ghost Kill in Cybermancy has the effect of:  Cannot be tracked by sensors.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/ghost-kill.webp in the image generation. hitPoints in Cybermancy has the description of:  Cannot be tracked by sensors.</v>
       </c>
       <c r="V38" s="4" t="s">
         <v>1458</v>
@@ -11591,13 +10310,12 @@
       <c r="W38" t="s">
         <v>1540</v>
       </c>
-      <c r="X38" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/spinal-sever</v>
+      <c r="X38" t="s">
+        <v>1739</v>
       </c>
       <c r="Y38" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/spinal-sever.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Spinal Sever in the image generation. Spinal Sever in Cybermancy has the effect of:  Target permanently disabled unless cybernetically healed.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Cannot be tracked by sensors..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/spinal-sever.webp in the image generation.  Cannot be tracked by sensors. in Cybermancy has the description of:  Target permanently disabled unless cybernetically healed.</v>
       </c>
       <c r="Z38" s="4" t="s">
         <v>1541</v>
@@ -11611,11 +10329,11 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>1648</v>
+        <v>1657</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/thunder-baton.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Thunder Baton.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/thunder-baton.webp in the image generation. Thunder Baton in Cybermancy has the description of: Electrified shock weapon tuned for area suppression, discharging arcs of blinding light and sound.</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>1593</v>
@@ -11653,13 +10371,12 @@
       <c r="S39" t="s">
         <v>1459</v>
       </c>
-      <c r="T39" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/overdrive</v>
+      <c r="T39" t="s">
+        <v>1696</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/overdrive.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Overdrive in the image generation. Overdrive in Cybermancy has the effect of:  Once per rest, stun all enemies in Close range.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/overdrive.webp in the image generation. hitPoints in Cybermancy has the description of:  Once per rest, stun all enemies in Close range.</v>
       </c>
       <c r="V39" s="4" t="s">
         <v>1460</v>
@@ -11667,13 +10384,12 @@
       <c r="W39" t="s">
         <v>1542</v>
       </c>
-      <c r="X39" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/emp-surge</v>
+      <c r="X39" t="s">
+        <v>1740</v>
       </c>
       <c r="Y39" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/emp-surge.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by EMP Surge in the image generation. EMP Surge in Cybermancy has the effect of:  Wipe out all small electronics in scene.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Once per rest, stun all enemies in Close range..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/emp-surge.webp in the image generation.  Once per rest, stun all enemies in Close range. in Cybermancy has the description of:  Wipe out all small electronics in scene.</v>
       </c>
       <c r="Z39" s="4" t="s">
         <v>1543</v>
@@ -11687,11 +10403,11 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>1649</v>
+        <v>1658</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/nano-vibro-blade.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Nano Vibro-Blade.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/nano-vibro-blade.webp in the image generation. Nano Vibro-Blade in Cybermancy has the description of: A nano-edged weapon that self-sharpens at the molecular level, slicing even through armor plating.</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>1594</v>
@@ -11729,13 +10445,12 @@
       <c r="S40" t="s">
         <v>1461</v>
       </c>
-      <c r="T40" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/self-sharpening</v>
+      <c r="T40" t="s">
+        <v>1697</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/self-sharpening.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Self-Sharpening in the image generation. Self-Sharpening in Cybermancy has the effect of:  Ignore all armor values.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/self-sharpening.webp in the image generation. hitPoints in Cybermancy has the description of:  Ignore all armor values.</v>
       </c>
       <c r="V40" s="4" t="s">
         <v>1462</v>
@@ -11743,13 +10458,12 @@
       <c r="W40" t="s">
         <v>1544</v>
       </c>
-      <c r="X40" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/critical-dissection</v>
+      <c r="X40" t="s">
+        <v>1741</v>
       </c>
       <c r="Y40" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/critical-dissection.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Critical Dissection in the image generation. Critical Dissection in Cybermancy has the effect of:  Narratively kill or disable any single non-boss foe.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Ignore all armor values..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/critical-dissection.webp in the image generation.  Ignore all armor values. in Cybermancy has the description of:  Narratively kill or disable any single non-boss foe.</v>
       </c>
       <c r="Z40" s="4" t="s">
         <v>1545</v>
@@ -11763,11 +10477,11 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>1650</v>
+        <v>1659</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/smartpistol-omega.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Smartpistol Omega.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/smartpistol-omega.webp in the image generation. Smartpistol Omega in Cybermancy has the description of: An AI-driven sidearm that learns its wielder’s habits and compensates perfectly in combat.</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>1595</v>
@@ -11805,13 +10519,12 @@
       <c r="S41" t="s">
         <v>1463</v>
       </c>
-      <c r="T41" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/ai-assist</v>
+      <c r="T41" t="s">
+        <v>1698</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/ai-assist.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by AI Assist in the image generation. AI Assist in Cybermancy has the effect of:  Advantage on all ranged rolls.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/ai-assist.webp in the image generation. hitPoints in Cybermancy has the description of:  Advantage on all ranged rolls.</v>
       </c>
       <c r="V41" s="4" t="s">
         <v>1464</v>
@@ -11819,13 +10532,12 @@
       <c r="W41" t="s">
         <v>1546</v>
       </c>
-      <c r="X41" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/neural-kill</v>
+      <c r="X41" t="s">
+        <v>1742</v>
       </c>
       <c r="Y41" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/neural-kill.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Neural Kill in the image generation. Neural Kill in Cybermancy has the effect of:  Bullet bypasses physical armor; deals Stress + HP.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Advantage on all ranged rolls..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/neural-kill.webp in the image generation.  Advantage on all ranged rolls. in Cybermancy has the description of:  Bullet bypasses physical armor; deals Stress + HP.</v>
       </c>
       <c r="Z41" s="4" t="s">
         <v>1547</v>
@@ -11839,11 +10551,11 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>1651</v>
+        <v>1660</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/prototype-smg.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Prototype SMG.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/prototype-smg.webp in the image generation. Prototype SMG in Cybermancy has the description of: Experimental gyro-balanced SMG capable of recoil-free sustained bursts.</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>1596</v>
@@ -11881,13 +10593,12 @@
       <c r="S42" t="s">
         <v>1465</v>
       </c>
-      <c r="T42" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/gyrostabilized</v>
+      <c r="T42" t="s">
+        <v>1699</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/gyrostabilized.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Gyrostabilized in the image generation. Gyrostabilized in Cybermancy has the effect of:  Fire with no recoil penalty.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/gyrostabilized.webp in the image generation. hitPoints in Cybermancy has the description of:  Fire with no recoil penalty.</v>
       </c>
       <c r="V42" s="4" t="s">
         <v>1466</v>
@@ -11895,13 +10606,12 @@
       <c r="W42" t="s">
         <v>1548</v>
       </c>
-      <c r="X42" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/critical-spray</v>
+      <c r="X42" t="s">
+        <v>1743</v>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/critical-spray.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Critical Spray in the image generation. Critical Spray in Cybermancy has the effect of:  Hit all enemies in Close range automatically.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Fire with no recoil penalty..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/critical-spray.webp in the image generation.  Fire with no recoil penalty. in Cybermancy has the description of:  Hit all enemies in Close range automatically.</v>
       </c>
       <c r="Z42" s="4" t="s">
         <v>1549</v>
@@ -11915,11 +10625,11 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>1652</v>
+        <v>1661</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/gauss-rifle.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Gauss Rifle.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/gauss-rifle.webp in the image generation. Gauss Rifle in Cybermancy has the description of: Magnetic accelerator weapon firing hyper-velocity projectiles that punch through anything solid.</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>1597</v>
@@ -11957,13 +10667,12 @@
       <c r="S43" t="s">
         <v>1467</v>
       </c>
-      <c r="T43" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/rail-shot</v>
+      <c r="T43" t="s">
+        <v>1700</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/rail-shot.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Rail Shot in the image generation. Rail Shot in Cybermancy has the effect of:  Spend Stress to deal double damage dice.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/rail-shot.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend Stress to deal double damage dice.</v>
       </c>
       <c r="V43" s="4" t="s">
         <v>1468</v>
@@ -11971,13 +10680,12 @@
       <c r="W43" t="s">
         <v>1550</v>
       </c>
-      <c r="X43" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/hyper-pierce</v>
+      <c r="X43" t="s">
+        <v>1744</v>
       </c>
       <c r="Y43" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/hyper-pierce.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Hyper-Pierce in the image generation. Hyper-Pierce in Cybermancy has the effect of:  Shot tears through multiple enemies/vehicles in a line.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Spend Stress to deal double damage dice..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/hyper-pierce.webp in the image generation.  Spend Stress to deal double damage dice. in Cybermancy has the description of:  Shot tears through multiple enemies/vehicles in a line.</v>
       </c>
       <c r="Z43" s="4" t="s">
         <v>1551</v>
@@ -11991,11 +10699,11 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>1653</v>
+        <v>1662</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/plasma-shotgun.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Plasma Shotgun.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/plasma-shotgun.webp in the image generation. Plasma Shotgun in Cybermancy has the description of: Fires superheated plasma shells that vaporize targets and ignite the surrounding area.</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>1598</v>
@@ -12033,13 +10741,12 @@
       <c r="S44" t="s">
         <v>1469</v>
       </c>
-      <c r="T44" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/meltdown</v>
+      <c r="T44" t="s">
+        <v>1701</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/meltdown.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Meltdown in the image generation. Meltdown in Cybermancy has the effect of:  Spend Hope to add 1d8 burn damage.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/meltdown.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend Hope to add 1d8 burn damage.</v>
       </c>
       <c r="V44" s="4" t="s">
         <v>1470</v>
@@ -12047,13 +10754,12 @@
       <c r="W44" t="s">
         <v>1552</v>
       </c>
-      <c r="X44" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/critical-inferno</v>
+      <c r="X44" t="s">
+        <v>1745</v>
       </c>
       <c r="Y44" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/critical-inferno.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Critical Inferno in the image generation. Critical Inferno in Cybermancy has the effect of:  All targets in blast zone catch fire.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Spend Hope to add 1d8 burn damage..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/critical-inferno.webp in the image generation.  Spend Hope to add 1d8 burn damage. in Cybermancy has the description of:  All targets in blast zone catch fire.</v>
       </c>
       <c r="Z44" s="4" t="s">
         <v>1553</v>
@@ -12067,11 +10773,11 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>1654</v>
+        <v>1663</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/orbital-sniper-rifle.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Orbital Sniper Rifle.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/orbital-sniper-rifle.webp in the image generation. Orbital Sniper Rifle in Cybermancy has the description of: A satellite-linked rifle capable of marking and calling down orbital strikes.</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>1599</v>
@@ -12109,13 +10815,12 @@
       <c r="S45" t="s">
         <v>1471</v>
       </c>
-      <c r="T45" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/satellite-link</v>
+      <c r="T45" t="s">
+        <v>1702</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/satellite-link.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Satellite Link in the image generation. Satellite Link in Cybermancy has the effect of:  Call in orbital fire once per rest.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/satellite-link.webp in the image generation. hitPoints in Cybermancy has the description of:  Call in orbital fire once per rest.</v>
       </c>
       <c r="V45" s="4" t="s">
         <v>1472</v>
@@ -12123,13 +10828,12 @@
       <c r="W45" t="s">
         <v>1607</v>
       </c>
-      <c r="X45" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/heavens-lance</v>
+      <c r="X45" t="s">
+        <v>1746</v>
       </c>
       <c r="Y45" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/heavens-lance.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Heavens Lance in the image generation. Heavens Lance in Cybermancy has the effect of:  Obliterate target zone, GM narrates consequences.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Call in orbital fire once per rest..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/heavens-lance.webp in the image generation.  Call in orbital fire once per rest. in Cybermancy has the description of:  Obliterate target zone, GM narrates consequences.</v>
       </c>
       <c r="Z45" s="4" t="s">
         <v>1608</v>
@@ -12143,11 +10847,11 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>1655</v>
+        <v>1664</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/annihilation-grenade.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for Annihilation Grenade.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/annihilation-grenade.webp in the image generation. Annihilation Grenade in Cybermancy has the description of: Compact tactical nuke delivering utter destruction in a small, precise radius.</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>1600</v>
@@ -12185,13 +10889,12 @@
       <c r="S46" t="s">
         <v>1473</v>
       </c>
-      <c r="T46" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/final-boom</v>
+      <c r="T46" t="s">
+        <v>1703</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/final-boom.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Final Boom in the image generation. Final Boom in Cybermancy has the effect of:  Single-use, but massive radius.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/final-boom.webp in the image generation. hitPoints in Cybermancy has the description of:  Single-use, but massive radius.</v>
       </c>
       <c r="V46" s="4" t="s">
         <v>1474</v>
@@ -12199,13 +10902,12 @@
       <c r="W46" t="s">
         <v>1554</v>
       </c>
-      <c r="X46" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/tactical-nuke-(micro)</v>
+      <c r="X46" t="s">
+        <v>1748</v>
       </c>
       <c r="Y46" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/tactical-nuke-(micro).png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Tactical Nuke (Micro) in the image generation. Tactical Nuke (Micro) in Cybermancy has the effect of:  Entire area wiped  citywide consequences.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Single-use, but massive radius..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/tactical-nuke-micro.webp in the image generation.  Single-use, but massive radius. in Cybermancy has the description of:  Entire area wiped  citywide consequences.</v>
       </c>
       <c r="Z46" s="4" t="s">
         <v>1610</v>
@@ -12219,11 +10921,11 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>1656</v>
+        <v>1665</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="7"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons/emp-singularity.png in the size recommended by Foundry VTT for icons</v>
+        <f t="shared" si="0"/>
+        <v>Cybermancy image generator thread: generate an image for EMP Singularity.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons/emp-singularity.webp in the image generation. EMP Singularity in Cybermancy has the description of: A massive EMP charge that disables all systems across multiple networks simultaneously within Very Far range</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>1601</v>
@@ -12261,13 +10963,12 @@
       <c r="S47" t="s">
         <v>1475</v>
       </c>
-      <c r="T47" t="str">
-        <f t="shared" si="6"/>
-        <v>modules/cybermancy/assets/icons/weapons-feature/blackout</v>
+      <c r="T47" t="s">
+        <v>1704</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="1"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/weapons-feature/blackout.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by Blackout in the image generation. Blackout in Cybermancy has the effect of:  Kill power grid in 1 km radius once per rest.</v>
+        <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/blackout.webp in the image generation. hitPoints in Cybermancy has the description of:  Kill power grid in 1 km radius once per rest.</v>
       </c>
       <c r="V47" s="4" t="s">
         <v>1476</v>
@@ -12275,13 +10976,12 @@
       <c r="W47" t="s">
         <v>1555</v>
       </c>
-      <c r="X47" t="str">
-        <f t="shared" si="4"/>
-        <v>modules/cybermancy/assets/icons/features/system-collapse</v>
+      <c r="X47" t="s">
+        <v>1747</v>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="5"/>
-        <v>Cybermancy image generator thread: generate an image for modules/cybermancy/assets/icons/features/system-collapse.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by System Collapse in the image generation. System Collapse in Cybermancy has the effect of:  Entire Matrix zone crashes beyond repair.</v>
+        <f t="shared" si="2"/>
+        <v>Cybermancy image generator thread: generate an image for  Kill power grid in 1 km radius once per rest..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/system-collapse.webp in the image generation.  Kill power grid in 1 km radius once per rest. in Cybermancy has the description of:  Entire Matrix zone crashes beyond repair.</v>
       </c>
       <c r="Z47" s="4" t="s">
         <v>1556</v>
@@ -12355,6 +11055,715 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6272441A-4F60-45C1-9446-40428F7AE6AD}">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="66.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.54296875" customWidth="1"/>
+    <col min="6" max="6" width="5.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7265625" customWidth="1"/>
+    <col min="12" max="12" width="26.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"Create an image for Cybermancy for " &amp; A2 &amp; " which has this description: " &amp;D2</f>
+        <v>Create an image for Cybermancy for Leather Jacket which has this description: Streetwear with hidden Kevlar panels—light protection that doesn't slow you down.</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">"Create an image for Cybermancy for " &amp; A3 &amp; " which has this description: " &amp;D3</f>
+        <v>Create an image for Cybermancy for Kevlar Vest which has this description: Soft ballistic vest worn under clothes; basic insurance against small arms.</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Riot Shield which has this description: Polycarbonate shield for crowd control and breach work.</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Hazmat Suit which has this description: Sealed suit against toxins and biohazards; clumsy but lifesaving.</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Chameleon Hoodie which has this description: Active-fabric hoodie that shifts patterns to blend with urban clutter.</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Armored Coat which has this description: Reinforced long-coat with ceramic plating sewn into the lining.</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Tactical Vest which has this description: Modular plate carrier with hard inserts and gear webbing.</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Ballistic Shield which has this description: Heavy composite shield used by breach teams; excellent cover.</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Reactive Weave Suit which has this description: Micro-actuated fibers stiffen on impact, dispersing kinetic force.</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Insulation Lining which has this description: Dielectric layers and ground straps mitigate electrical shocks.</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Combat Armor which has this description: Full-body tactical armor with sealed joints and hardened plates.</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Stealth Weave Cloak which has this description: Light cloak with optical dampening and sound-baffling seams.</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Riot Exo-Frame which has this description: Powered brace that supports heavy shields and nonlethal ordnance.</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Ballistic Plate Carrier which has this description: High-cut plate carrier with side plates; optimized for mobility.</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Fire-Resistant Armor which has this description: Thermally insulated rig built for infernos and plasma splash.</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Powered Armor which has this description: Black-ops exosuit with servo assist, HUD, and full sealed systems.</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Mirror Cloak which has this description: Metamaterial cloak that bends light—nearly invisible when still.</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Kinetic Dampener Suit which has this description: Field projectors diffuse impacts before they land.</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Create an image for Cybermancy for Hazard Response Exosuit which has this description: Industrial exo rated for radiation, vacuum, and caustics.</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="9"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="9"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="9"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="9"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="9"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="9"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="9"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="9"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="9"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="9"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="9"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="9"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="9"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="9"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="9"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="9"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="9"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="9"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="9"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="9"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="9"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="9"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="9"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="9"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="9"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="4:12" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="9"/>
+      <c r="L46" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F46" xr:uid="{0C9D9134-F79D-4817-8CCF-3F076393413E}">
+      <formula1>1</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A0210F-6AD5-4290-AC2A-0367F956D048}">
   <dimension ref="A1:K49"/>
@@ -12790,7 +12199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E888BC-20E7-4294-8A2D-BD0A7B31655F}">
   <dimension ref="A1:E530"/>
   <sheetViews>
-    <sheetView topLeftCell="E104" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
@@ -21825,8 +21234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA33895-3184-47ED-9CD0-40CC7512F6C6}">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22093,11 +21502,259 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0C7A3E-12E3-44FA-897C-7CC00A9A6183}">
+  <dimension ref="A1:A62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://daggerheart.org/reference/armor" xr:uid="{F147647A-EB70-492A-84DB-1C058FA2124E}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://daggerheart.org/reference/armor" xr:uid="{EDBB53B6-9ECB-4A12-9D73-59FECFB9A65C}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://daggerheart.org/reference/armor" xr:uid="{B1606EC2-B133-4E0F-A4E7-22913F92D134}"/>
+    <hyperlink ref="A11" r:id="rId4" display="https://daggerheart.org/reference/armor" xr:uid="{C1293C84-89FD-4800-AD90-E363C5F041CD}"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://daggerheart.org/reference/armor" xr:uid="{690F5BDD-662D-4740-A446-51E8D403F6AB}"/>
+    <hyperlink ref="A17" r:id="rId6" display="https://daggerheart.org/reference/armor" xr:uid="{252648E7-2070-4610-8CC3-81A138F598C5}"/>
+    <hyperlink ref="A20" r:id="rId7" display="https://daggerheart.org/reference/armor" xr:uid="{AEDDBA81-99D0-4CDE-A40B-B9F895ABD68B}"/>
+    <hyperlink ref="A23" r:id="rId8" display="https://daggerheart.org/reference/armor" xr:uid="{C4836F0A-1EFA-4FF2-BAAA-EEDED497B60D}"/>
+    <hyperlink ref="A26" r:id="rId9" display="https://daggerheart.org/reference/armor" xr:uid="{B652903F-106B-4C75-BBE8-F4D9E0B75269}"/>
+    <hyperlink ref="A29" r:id="rId10" display="https://daggerheart.org/reference/armor" xr:uid="{F67E27AB-60FA-40FD-A6A0-8344DFE15D0D}"/>
+    <hyperlink ref="A32" r:id="rId11" display="https://daggerheart.org/reference/armor" xr:uid="{57DA5FD5-85CB-4FDC-BD33-CB4CB3209FA6}"/>
+    <hyperlink ref="A35" r:id="rId12" display="https://daggerheart.org/reference/armor" xr:uid="{57A8979D-7A1C-4086-A530-EDD2F74EEADB}"/>
+    <hyperlink ref="A38" r:id="rId13" display="https://daggerheart.org/reference/armor" xr:uid="{B4B10D12-ABB3-4839-B6BB-B671B122E9E2}"/>
+    <hyperlink ref="A41" r:id="rId14" display="https://daggerheart.org/reference/armor" xr:uid="{0D4C21E0-AF32-4A4B-AE56-4AE04E704BE5}"/>
+    <hyperlink ref="A44" r:id="rId15" display="https://daggerheart.org/reference/armor" xr:uid="{B0BF7542-1496-4CD6-87F8-9FEC7D588CC2}"/>
+    <hyperlink ref="A47" r:id="rId16" display="https://daggerheart.org/reference/armor" xr:uid="{6294F24C-E0D9-4768-9709-83DC928D980F}"/>
+    <hyperlink ref="A50" r:id="rId17" display="https://daggerheart.org/reference/armor" xr:uid="{CCEF5D0D-36A7-4BA1-968A-C84C9CED9E77}"/>
+    <hyperlink ref="A53" r:id="rId18" display="https://daggerheart.org/reference/armor" xr:uid="{637E6663-88D8-4EF5-B8C4-5BC1208B9791}"/>
+    <hyperlink ref="A56" r:id="rId19" display="https://daggerheart.org/reference/armor" xr:uid="{F0A17149-C087-4D9F-BD59-274716F524E9}"/>
+    <hyperlink ref="A59" r:id="rId20" display="https://daggerheart.org/reference/armor" xr:uid="{3FF81B5B-DEA8-45EB-AF6F-B4D8816D8A09}"/>
+    <hyperlink ref="A62" r:id="rId21" display="https://daggerheart.org/reference/armor" xr:uid="{CF8D3DD6-6D7E-4B44-8E66-9A29A89B0853}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8134B3E0-0F30-40E4-A4E1-00A26E5811E5}">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22109,21 +21766,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>1662</v>
+        <v>1615</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1663</v>
+        <v>1616</v>
       </c>
       <c r="C1" t="s">
-        <v>1664</v>
+        <v>1617</v>
       </c>
       <c r="D1" t="s">
-        <v>1665</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>1666</v>
+        <v>1619</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -22298,6 +21955,25 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A7A45E-962A-4DFC-A227-19018C14E467}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="e">
+        <f>CONCATENATE("Cybermancy image generator thread: generate an image for ",#REF!, ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp;#REF! &amp; " in the image generation. " &amp;#REF! &amp; " in Cybermancy has the effect of: " &amp; B1)</f>
+        <v>#REF!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pyCybermancy/cybermancy-object-list.xlsx
+++ b/pyCybermancy/cybermancy-object-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Daniel\role-gaming\Cybermancy module development\cybermancy\pyCybermancy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C6B61D-53CF-4077-BB41-F5E5CE391E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706202C2-B199-478F-886F-3F2811502F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="777" firstSheet="3" activeTab="6" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="777" firstSheet="3" activeTab="7" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Renamed DH Consumables" sheetId="11" r:id="rId3"/>
     <sheet name="Renamed DH Loot" sheetId="12" r:id="rId4"/>
     <sheet name="Cybernetics" sheetId="19" r:id="rId5"/>
-    <sheet name="Ammo" sheetId="22" r:id="rId6"/>
-    <sheet name="ICE" sheetId="23" r:id="rId7"/>
+    <sheet name="ICE" sheetId="23" r:id="rId6"/>
+    <sheet name="Ammo" sheetId="22" r:id="rId7"/>
     <sheet name="Weapon Mods" sheetId="21" r:id="rId8"/>
     <sheet name="Controlled Lists" sheetId="2" r:id="rId9"/>
     <sheet name="Domain cards" sheetId="6" r:id="rId10"/>
@@ -11938,42 +11938,12 @@
     <t>Data-Spike Rounds</t>
   </si>
   <si>
-    <t>Take a Reload action to apply this ammo to a &lt;strong&gt;shotgun&lt;/strong&gt; (only shotgun compatible) and place 2 tokens on this card. &lt;br&gt;&lt;br&gt; All subsequent attacks using that weapon create an EMP affect on the targeted drone or electronic construct, doing 2d8+3 physical damage.</t>
-  </si>
-  <si>
     <t>Breeching Shells</t>
   </si>
   <si>
-    <t>Take a Reload action to apply this ammo to any SmartLink™ enabled weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Spotlight an action to designate a target.  Discard 1 token for all subsequent attacks using that weapon against that target have +3 to hit. &lt;br&gt;&lt;br&gt; Smart Rounds cannot be retargeted or re-used.</t>
-  </si>
-  <si>
-    <t>Take a Reload action to apply this ammo to a &lt;strong&gt;shotgun&lt;/strong&gt; (only shotgun compatible) and place 2 tokens on this card. &lt;br&gt;&lt;br&gt; Discard 1 token for all subsequent attacks using that weapon.  Has the narrative effect of blasting open non-reinforced doors or punching holes through normal walls, but is very loud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets must Mark 1 Stress whenever the Mark an Armor to reduce damage. </t>
-  </si>
-  <si>
     <t>Toxic Rounds</t>
   </si>
   <si>
-    <t xml:space="preserve">Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets must Mark 1 Stress in addition to any Hit Points marked when taking damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets get the Burning condition when hit and must Mark 1 HitPoint whenever they take an action until the GM Spends 1 Fear to remove the Burning condition. </t>
-  </si>
-  <si>
-    <t>Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets that are hit cannot receive healing effects until the GM spends 1 Fear to remove this affect.</t>
-  </si>
-  <si>
-    <t>Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets that are hit must make an Instinct saving throw (12) are stunned and cannot act until the GM spends 1 Fear to remove the effect.</t>
-  </si>
-  <si>
-    <t>Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets that are hit receive -2 Evasion until the GM spends 1 Fear to remove the effect.</t>
-  </si>
-  <si>
-    <t>Take a Reload action to apply this ammo to a Sniper rifle and place 2 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  These rounds act as a data relay allowing a Netrunner to attempt to hack any Device within Very Close of the target point of the Data-Spike Round</t>
-  </si>
-  <si>
     <t>effect-palette</t>
   </si>
   <si>
@@ -12007,27 +11977,12 @@
     <t>subtype</t>
   </si>
   <si>
-    <t>This mod can be applied to just about any weapon (GM's discretion) to allow that weapon to become compatible with the SmartLink™ cybernetic system.</t>
-  </si>
-  <si>
-    <t>Increase the die increment whenever this weapon is fired (e.g. from a d4 to a d6).  If a Critical Failure is rolled while firing a weapon with this mod, the creature holding the weapon must Mark 2 Hit Points of damage and the weapon is destroyed.</t>
-  </si>
-  <si>
     <t>Laser sight</t>
   </si>
   <si>
     <t>Aim assist</t>
   </si>
   <si>
-    <t>Add +1 to all damage from this gun</t>
-  </si>
-  <si>
-    <t>Allow your gun to be fired 1 range increment further than normal, up to a max range of Very Long</t>
-  </si>
-  <si>
-    <t>Whenever you make an attack with this gun, you may Spend 1 Hope to make a second attack at -2</t>
-  </si>
-  <si>
     <t>weaponMod</t>
   </si>
   <si>
@@ -12052,24 +12007,15 @@
     <t>Gauss Coil Retrofit</t>
   </si>
   <si>
-    <t>+1 range tier and +1 armor penetration. Critical: pierce through to behind target. Slot: Receiver / Power.</t>
-  </si>
-  <si>
     <t>Holo-Displacer Camo</t>
   </si>
   <si>
-    <t>Once per Scene, force one attacker to roll at Disadvantage. Critical: decoy draws fire. Slot: External / Electronics.</t>
-  </si>
-  <si>
     <t>Smart Safety Override</t>
   </si>
   <si>
     <t>Reactive Shrapnel Shells</t>
   </si>
   <si>
-    <t>On hit, minor AoE splash. Critical: heavy AoE; creates hazard zone. Slot: Ammo.</t>
-  </si>
-  <si>
     <t>ballistic-enhancement-barrel</t>
   </si>
   <si>
@@ -12139,63 +12085,18 @@
     <t>prototype</t>
   </si>
   <si>
-    <t>Once per scene, when you are required to make a Reload action, you may perform that Reload as a free action</t>
-  </si>
-  <si>
-    <t>When resolving a successful attack with this weapon, if it is loaded with Armor piercing rounds, the target must mark 2 Stress to mark 1 Armor Slot</t>
-  </si>
-  <si>
-    <t>Attacks harder to detect; all enemies attempting to Perceive your attack roll at Disadvantage</t>
-  </si>
-  <si>
-    <t>Once per scene, perform the Reload action as a free action.</t>
-  </si>
-  <si>
-    <t>All enemies within Very Close must make an Instinct saving throw or be Shaken and have a -2 on their next attack action.</t>
-  </si>
-  <si>
-    <t>Once per scene, Spend 1 Hope to attack with advantage</t>
-  </si>
-  <si>
     <t>Bayonette</t>
   </si>
   <si>
-    <t>Add +d4 damage to Melee attacks made with this gun</t>
-  </si>
-  <si>
     <t>Tracer Rounds</t>
   </si>
   <si>
     <t>Tracker Rounds</t>
   </si>
   <si>
-    <t>Take a Reload action to apply this ammo to any rifle and place 2 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  These rounds inject a tracker into the body of the target if the target takes any Hit Points of damage.  The tracker can be detected within 3 miles.</t>
-  </si>
-  <si>
-    <t>Take a Reload action to apply this ammo to any rifle and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  When you target a creature with these rounds, the next ally to attack that target gains +2 on their attack.</t>
-  </si>
-  <si>
-    <t>Once per long rest, as a Reaction, Spend 1 Hope to make an attack on a creature targeting you before they make their attack</t>
-  </si>
-  <si>
-    <t>Take a Reload action to apply this ammo to a &lt;strong&gt;shotgun&lt;/strong&gt; (only shotgun compatible) and place 4 tokens on this card. &lt;br&gt;&lt;br&gt; All subsequent attacks using that weapon create a small blast zone around the target  upon a hit; all creatures within Very Close take 1d4 damage.</t>
-  </si>
-  <si>
-    <t>Reduce a range increment by 1 when target creatures at the limit of your gun's range</t>
-  </si>
-  <si>
-    <t>+1 on all attack rolls with this gun.</t>
-  </si>
-  <si>
-    <t>Once per scene, as a reaction, Spend 1 Hope to reroll one failed Agility or Finesse based attack.</t>
-  </si>
-  <si>
     <t>Foldable stock</t>
   </si>
   <si>
-    <t>When attached to a rifle, allows the gun to be concealed more easily.  -2 on a Perceive check for the prescence of the gun to be detected.</t>
-  </si>
-  <si>
     <t>theme</t>
   </si>
   <si>
@@ -12443,6 +12344,105 @@
   </si>
   <si>
     <t>original description</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to any SmartLink™ enabled weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Spotlight an action to designate a target.  Discard 1 token for all subsequent attacks using that weapon against that target have +3 to hit. &lt;br&gt;&lt;br&gt; Smart Rounds cannot be retargeted or re-used.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to a &lt;strong&gt;shotgun&lt;/strong&gt; (only shotgun compatible) and place 2 tokens on this card. &lt;br&gt;&lt;br&gt; All subsequent attacks using that weapon create an EMP affect on the targeted drone or electronic construct, doing 2d8+3 physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets must Mark 1 Stress in addition to any Hit Points marked when taking damage. </t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to a &lt;strong&gt;shotgun&lt;/strong&gt; (only shotgun compatible) and place 2 tokens on this card. &lt;br&gt;&lt;br&gt; Discard 1 token for all subsequent attacks using that weapon.  Has the narrative effect of blasting open non-reinforced doors or punching holes through normal walls, but is very loud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets get the Burning condition when hit and must Mark 1 HitPoint whenever they take an action until the GM Spends 1 Fear to remove the Burning condition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets must Mark 1 Stress whenever the Mark an Armor to reduce damage. </t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets that are hit cannot receive healing effects until the GM spends 1 Fear to remove this affect.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets that are hit must make an Instinct saving throw (12) are stunned and cannot act until the GM spends 1 Fear to remove the effect.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to any weapon and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  Targets that are hit receive -2 Evasion until the GM spends 1 Fear to remove the effect.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to a Sniper rifle and place 2 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  These rounds act as a data relay allowing a Netrunner to attempt to hack any Device within Very Close of the target point of the Data-Spike Round</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to any rifle and place 2 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  These rounds inject a tracker into the body of the target if the target takes any Hit Points of damage.  The tracker can be detected within 3 miles.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to any rifle and place 4 tokens on this card.  &lt;br&gt;&lt;br&gt;Discard 1 token for all subsequent attacks using that weapon.  When you target a creature with these rounds, the next ally to attack that target gains +2 on their attack.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Take a Reload action to apply this ammo to a &lt;strong&gt;shotgun&lt;/strong&gt; (only shotgun compatible) and place 4 tokens on this card. &lt;br&gt;&lt;br&gt; All subsequent attacks using that weapon create a small blast zone around the target  upon a hit; all creatures within Very Close take 1d4 damage.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;This mod can be applied to just about any weapon (GM's discretion) to allow that weapon to become compatible with the SmartLink™ cybernetic system.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Increase the die increment whenever this weapon is fired (e.g. from a d4 to a d6).  If a Critical Failure is rolled while firing a weapon with this mod, the creature holding the weapon must Mark 2 Hit Points of damage and the weapon is destroyed.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Add +1 to all damage from this gun</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Allow your gun to be fired 1 range increment further than normal, up to a max range of Very Long</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Reduce a range increment by 1 when target creatures at the limit of your gun's range</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Once per scene, perform the Reload action as a free action.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;+1 on all attack rolls with this gun.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Once per scene, when you are required to make a Reload action, you may perform that Reload as a free action</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;When resolving a successful attack with this weapon, if it is loaded with Armor piercing rounds, the target must mark 2 Stress to mark 1 Armor Slot</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Attacks harder to detect; all enemies attempting to Perceive your attack roll at Disadvantage</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;All enemies within Very Close must make an Instinct saving throw or be Shaken and have a -2 on their next attack action.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;When attached to a rifle, allows the gun to be concealed more easily.  -2 on a Perceive check for the prescence of the gun to be detected.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Add +d4 damage to Melee attacks made with this gun</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;+1 range tier and +1 armor penetration. Critical: pierce through to behind target. Slot: Receiver / Power.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Once per Scene, force one attacker to roll at Disadvantage. Critical: decoy draws fire. Slot: External / Electronics.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;On hit, minor AoE splash. Critical: heavy AoE; creates hazard zone. Slot: Ammo.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Whenever you make an attack with this gun, you may &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to make a second attack at -2</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Once per scene, as a reaction, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to reroll one failed Agility or Finesse based attack.</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Once per scene, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to attack with advantage</t>
+  </si>
+  <si>
+    <t>&lt;p class="Card-Feature"&gt;Once per long rest, as a Reaction, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to make an attack on a creature targeting you before they make their attack</t>
   </si>
 </sst>
 </file>
@@ -12989,7 +12989,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -13066,14 +13066,9 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -21582,11 +21577,11 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" t="str">
-        <f>SUBSTITUTE(LOWER(A2), " ", "-")</f>
+        <f t="shared" ref="P2:P33" si="3">SUBSTITUTE(LOWER(A2), " ", "-")</f>
         <v>quick-reload</v>
       </c>
       <c r="Q2" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E2 &amp; "/" &amp; P2 &amp; ".webp"</f>
+        <f t="shared" ref="Q2:Q33" si="4">"modules/cybermancy/assets/icons/domains/" &amp; E2 &amp; "/" &amp; P2 &amp; ".webp"</f>
         <v>modules/cybermancy/assets/icons/domains/bullet/quick-reload.webp</v>
       </c>
       <c r="R2" s="4" t="s">
@@ -21624,7 +21619,7 @@
         <v>2585</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I33" si="3">"&lt;i&gt;" &amp; J3 &amp; "&lt;/i&gt;" &amp; K3</f>
+        <f t="shared" ref="I3:I33" si="5">"&lt;i&gt;" &amp; J3 &amp; "&lt;/i&gt;" &amp; K3</f>
         <v>&lt;i&gt;You teach death politely.&lt;/i&gt;&lt;p class="Card-Feature"&gt;As a downtime action you train each of your allies to better use their guns.  Give each ally a &lt;b&gt;Bullet die&lt;/b&gt; appropriate to your Tier (Tier 1: d4, Tier 2: d6, Tier 3: d8, Tier 4:d10).  They may use this &lt;b&gt;Bullet die&lt;/b&gt; in the same way as your Class or Subclass</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -21645,11 +21640,11 @@
       </c>
       <c r="O3" s="4"/>
       <c r="P3" t="str">
-        <f>SUBSTITUTE(LOWER(A3), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>gun-trainer</v>
       </c>
       <c r="Q3" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E3 &amp; "/" &amp; P3 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/gun-trainer.webp</v>
       </c>
       <c r="R3" s="4" t="s">
@@ -21687,7 +21682,7 @@
         <v>2585</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Every gun tells a story.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Identify the weapon type and potential weaknesses or modifications of one visible gun within Far</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -21708,11 +21703,11 @@
       </c>
       <c r="O4" s="4"/>
       <c r="P4" t="str">
-        <f>SUBSTITUTE(LOWER(A4), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>assess-weapon</v>
       </c>
       <c r="Q4" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E4 &amp; "/" &amp; P4 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/assess-weapon.webp</v>
       </c>
       <c r="R4" s="4" t="s">
@@ -21750,7 +21745,7 @@
         <v>2585</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;One bullet, one breath.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to attack with advantage and deal +d4 damage.</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -21773,11 +21768,11 @@
         <v>3026</v>
       </c>
       <c r="P5" t="str">
-        <f>SUBSTITUTE(LOWER(A5), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>marksman</v>
       </c>
       <c r="Q5" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E5 &amp; "/" &amp; P5 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/marksman.webp</v>
       </c>
       <c r="R5" s="4" t="s">
@@ -21815,7 +21810,7 @@
         <v>2585</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;i&gt;Faster than the spotlight.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Scene, as a Reaction, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; when the GM spotlights an opponent to make a single ranged attack. </v>
       </c>
       <c r="J6" s="4" t="s">
@@ -21838,11 +21833,11 @@
         <v>3026</v>
       </c>
       <c r="P6" t="str">
-        <f>SUBSTITUTE(LOWER(A6), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>snapshot</v>
       </c>
       <c r="Q6" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E6 &amp; "/" &amp; P6 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/snapshot.webp</v>
       </c>
       <c r="R6" s="4" t="s">
@@ -21880,7 +21875,7 @@
         <v>2585</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Two shots, one heartbeat.&lt;/i&gt;&lt;p class="Card-Feature"&gt;After a successful attack on a target, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to apply the damage to a second target within Very Close range.</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -21903,11 +21898,11 @@
         <v>3026</v>
       </c>
       <c r="P7" t="str">
-        <f>SUBSTITUTE(LOWER(A7), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>quick-shot</v>
       </c>
       <c r="Q7" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E7 &amp; "/" &amp; P7 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/quick-shot.webp</v>
       </c>
       <c r="R7" s="4" t="s">
@@ -21945,7 +21940,7 @@
         <v>2585</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;The sound of inevitability.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Each time you make an Attack with a gun, you may attack 2 different targets within Close of eachother.  Each shot is at -2</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -21966,11 +21961,11 @@
       </c>
       <c r="O8" s="4"/>
       <c r="P8" t="str">
-        <f>SUBSTITUTE(LOWER(A8), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>rapid-fire</v>
       </c>
       <c r="Q8" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E8 &amp; "/" &amp; P8 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/rapid-fire.webp</v>
       </c>
       <c r="R8" s="4" t="s">
@@ -22008,7 +22003,7 @@
         <v>2585</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Sometimes subtlety isn’t loaded.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Make an Attack at Melee range with your gun at +2, then move to Close</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -22029,11 +22024,11 @@
       </c>
       <c r="O9" s="4"/>
       <c r="P9" t="str">
-        <f>SUBSTITUTE(LOWER(A9), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>pistol-whip</v>
       </c>
       <c r="Q9" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E9 &amp; "/" &amp; P9 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/pistol-whip.webp</v>
       </c>
       <c r="R9" s="4" t="s">
@@ -22071,7 +22066,7 @@
         <v>2585</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;The air itself becomes hostile.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Mark 2 Stress&lt;/strong&gt; and target one creature; all creatures within Very Close of it take -2 to actions and evasion.</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -22094,11 +22089,11 @@
         <v>3024</v>
       </c>
       <c r="P10" t="str">
-        <f>SUBSTITUTE(LOWER(A10), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>suppressing-fire</v>
       </c>
       <c r="Q10" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E10 &amp; "/" &amp; P10 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/suppressing-fire.webp</v>
       </c>
       <c r="R10" s="4" t="s">
@@ -22136,7 +22131,7 @@
         <v>2585</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Style points count double.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Spotlight an Action to put a token on this card.  Spotlight an Action to discard tokens for a specific effect depending on the number of tokens discard: &lt;p&gt; 1: Attack at Advantage &lt;p&gt; 2: Make 3 Attacks, each at +2 &lt;p&gt; 3: Automatically hit and d10+3 additional damage &lt;p&gt; Describe the cinematic effect of your shot. GM discretion</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -22157,11 +22152,11 @@
       </c>
       <c r="O11" s="4"/>
       <c r="P11" t="str">
-        <f>SUBSTITUTE(LOWER(A11), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>trick-shot</v>
       </c>
       <c r="Q11" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E11 &amp; "/" &amp; P11 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/trick-shot.webp</v>
       </c>
       <c r="R11" s="4" t="s">
@@ -22199,7 +22194,7 @@
         <v>2585</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Stillness is your superpower.&lt;/i&gt;&lt;p class="Card-Feature"&gt;If you have a scope mod on your gun, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to gain +2 to attack (in addition to the +1 bonus provided by the scope).</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -22222,11 +22217,11 @@
         <v>3026</v>
       </c>
       <c r="P12" t="str">
-        <f>SUBSTITUTE(LOWER(A12), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>sniper-shot</v>
       </c>
       <c r="Q12" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E12 &amp; "/" &amp; P12 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/sniper-shot.webp</v>
       </c>
       <c r="R12" s="4" t="s">
@@ -22264,7 +22259,7 @@
         <v>2585</v>
       </c>
       <c r="I13" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;i&gt;Bullets obey geometry, not walls.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to Attack at -2 a target with the Hidden condition by virtue of being behind cover.  </v>
       </c>
       <c r="J13" s="4" t="s">
@@ -22287,11 +22282,11 @@
         <v>3026</v>
       </c>
       <c r="P13" t="str">
-        <f>SUBSTITUTE(LOWER(A13), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>ricochet</v>
       </c>
       <c r="Q13" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E13 &amp; "/" &amp; P13 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/ricochet.webp</v>
       </c>
       <c r="R13" s="4" t="s">
@@ -22329,7 +22324,7 @@
         <v>2585</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;You’re never where they’re aiming.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per rest, Spend 2 Hope to gain +4 to evasion against one chosen target until your next action.</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -22352,11 +22347,11 @@
         <v>3027</v>
       </c>
       <c r="P14" t="str">
-        <f>SUBSTITUTE(LOWER(A14), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>bullet-time</v>
       </c>
       <c r="Q14" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E14 &amp; "/" &amp; P14 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/bullet-time.webp</v>
       </c>
       <c r="R14" s="4" t="s">
@@ -22394,7 +22389,7 @@
         <v>2585</v>
       </c>
       <c r="I15" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;The floor is your runway.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 3 Hope&lt;/strong&gt; to move up to Far in a straight line; Attack all creatures passed. Gun is emptied afterward and you must take an Action to reload before you can make another Attack action.</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -22417,11 +22412,11 @@
         <v>3034</v>
       </c>
       <c r="P15" t="str">
-        <f>SUBSTITUTE(LOWER(A15), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>knee-slide</v>
       </c>
       <c r="Q15" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E15 &amp; "/" &amp; P15 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/knee-slide.webp</v>
       </c>
       <c r="R15" s="4" t="s">
@@ -22459,7 +22454,7 @@
         <v>2585</v>
       </c>
       <c r="I16" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Pragmatism over pity.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Scene, &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; and grab a creature of your size or smaller within Very Close. Gain +2 Evasion until next your next Action.</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -22482,11 +22477,11 @@
         <v>3023</v>
       </c>
       <c r="P16" t="str">
-        <f>SUBSTITUTE(LOWER(A16), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>body-shield</v>
       </c>
       <c r="Q16" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E16 &amp; "/" &amp; P16 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/body-shield.webp</v>
       </c>
       <c r="R16" s="4" t="s">
@@ -22524,7 +22519,7 @@
         <v>2585</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Nothing moves without you noticing.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt;; make a Perception check at +3 to detect all armed entities within Far.</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -22547,11 +22542,11 @@
         <v>3026</v>
       </c>
       <c r="P17" t="str">
-        <f>SUBSTITUTE(LOWER(A17), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>situational-awareness</v>
       </c>
       <c r="Q17" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E17 &amp; "/" &amp; P17 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/situational-awareness.webp</v>
       </c>
       <c r="R17" s="4" t="s">
@@ -22589,7 +22584,7 @@
         <v>2585</v>
       </c>
       <c r="I18" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Your tools are extensions of your will.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Gain +1 mod slot for each firearm you own.</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -22610,11 +22605,11 @@
       </c>
       <c r="O18" s="4"/>
       <c r="P18" t="str">
-        <f>SUBSTITUTE(LOWER(A18), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>gunsmith</v>
       </c>
       <c r="Q18" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E18 &amp; "/" &amp; P18 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/gunsmith.webp</v>
       </c>
       <c r="R18" s="4" t="s">
@@ -22652,7 +22647,7 @@
         <v>2585</v>
       </c>
       <c r="I19" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Precision is compassion—end it cleanly.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per rest, &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; to make an Attack targeting a specific limb, device mod, weapon, etc. on a creature at -2 on the Attack roll.  On a successful attack roll, disable a targeted component for the Scene</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -22675,11 +22670,11 @@
         <v>3023</v>
       </c>
       <c r="P19" t="str">
-        <f>SUBSTITUTE(LOWER(A19), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>targeted-shot</v>
       </c>
       <c r="Q19" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E19 &amp; "/" &amp; P19 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/targeted-shot.webp</v>
       </c>
       <c r="R19" s="4" t="s">
@@ -22717,7 +22712,7 @@
         <v>2585</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;The world is your arsenal.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Mark 2 Stress&lt;/strong&gt; spend at least 1 minute to create a d6 melee weapon.</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -22740,11 +22735,11 @@
         <v>3024</v>
       </c>
       <c r="P20" t="str">
-        <f>SUBSTITUTE(LOWER(A20), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>improvised-weapon</v>
       </c>
       <c r="Q20" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E20 &amp; "/" &amp; P20 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/improvised-weapon.webp</v>
       </c>
       <c r="R20" s="4" t="s">
@@ -22782,7 +22777,7 @@
         <v>2585</v>
       </c>
       <c r="I21" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;The streets remember your name.&lt;/i&gt;&lt;p class="Card-Feature"&gt;You have a contact for weapons. Weapon items cost less (GM discretion). Once per session, ask your Fixer information on any topic.</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -22803,11 +22798,11 @@
       </c>
       <c r="O21" s="4"/>
       <c r="P21" t="str">
-        <f>SUBSTITUTE(LOWER(A21), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>fixer</v>
       </c>
       <c r="Q21" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E21 &amp; "/" &amp; P21 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/fixer.webp</v>
       </c>
       <c r="R21" s="4" t="s">
@@ -22845,7 +22840,7 @@
         <v>2585</v>
       </c>
       <c r="I22" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Fear is the first bullet.&lt;/i&gt;&lt;p class="Card-Feature"&gt;With a visible gun, make Presence rolls at  +d4.  Once per Scene, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to re-roll a Presence roll.</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -22868,11 +22863,11 @@
         <v>3026</v>
       </c>
       <c r="P22" t="str">
-        <f>SUBSTITUTE(LOWER(A22), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>intimidation</v>
       </c>
       <c r="Q22" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E22 &amp; "/" &amp; P22 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/intimidation.webp</v>
       </c>
       <c r="R22" s="4" t="s">
@@ -22910,7 +22905,7 @@
         <v>2585</v>
       </c>
       <c r="I23" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Suppression by saturation.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Mark 2 Stress&lt;/strong&gt;Attack up to your Proficiency number of targets within Far range in a 45 degree cone.  Make 1 Attack roll at +2 against the first target.  Subtract 2 from that value for the second target and subtract 2 more for each subsequent target.  (So, 1 roll of the Destiny dice, but the value is applied to all targets, starting at +2 and going down by 2 for each target after the first. Gun is emptied afterward and you must take an Action to reload before you can make another Attack action.</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -22933,11 +22928,11 @@
         <v>3024</v>
       </c>
       <c r="P23" t="str">
-        <f>SUBSTITUTE(LOWER(A23), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>burst-fire</v>
       </c>
       <c r="Q23" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E23 &amp; "/" &amp; P23 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/burst-fire.webp</v>
       </c>
       <c r="R23" s="4" t="s">
@@ -22975,7 +22970,7 @@
         <v>2585</v>
       </c>
       <c r="I24" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Geometry is your ally.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Hit a target around a 45° corner with disadvantage.</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -22996,11 +22991,11 @@
       </c>
       <c r="O24" s="4"/>
       <c r="P24" t="str">
-        <f>SUBSTITUTE(LOWER(A24), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>shoot-around-corners</v>
       </c>
       <c r="Q24" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E24 &amp; "/" &amp; P24 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/shoot-around-corners.webp</v>
       </c>
       <c r="R24" s="4" t="s">
@@ -23038,7 +23033,7 @@
         <v>2585</v>
       </c>
       <c r="I25" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;Mercy jammed with the trigger.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Mark 4 Stress&lt;/strong&gt;Attack all targets within Very Far in a 90 degree cone.  Make 1 Attack roll at +2 against the first target, which must be at the left or right side of the cone, and all subsequent target is in the natural order sweeping through the cone.  Subtract 1 from that value for the second target and subtract 1 more for each subsequent target.  (So, 1 roll of the Destiny dice, but the value is applied to all targets, starting at +2 and going down by 1 for each target after the first). Gun is emptied afterward and you must take an Action to reload before you can make another Attack action.</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -23061,11 +23056,11 @@
         <v>3025</v>
       </c>
       <c r="P25" t="str">
-        <f>SUBSTITUTE(LOWER(A25), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>full-automatic</v>
       </c>
       <c r="Q25" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E25 &amp; "/" &amp; P25 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/bullet/full-automatic.webp</v>
       </c>
       <c r="R25" s="4" t="s">
@@ -23103,7 +23098,7 @@
         <v>2585</v>
       </c>
       <c r="I26" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;“Turns out, rushing a hack only impresses the ICE.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;If you take at least 1 minute to study a device before attempting to hack it, gain advantage on your next Spellcasting (Hacking) roll against that system this scene.</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -23124,11 +23119,11 @@
       </c>
       <c r="O26" s="4"/>
       <c r="P26" t="str">
-        <f>SUBSTITUTE(LOWER(A26), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>patience-young-padawan</v>
       </c>
       <c r="Q26" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E26 &amp; "/" &amp; P26 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/patience-young-padawan.webp</v>
       </c>
       <c r="S26" t="s">
@@ -23163,7 +23158,7 @@
         <v>2585</v>
       </c>
       <c r="I27" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;“For when you don’t have time to be subtle… or alive.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Scene, when you trigger an ICE countermeasure or trace feature, you can &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; to use your Reaction against the Device difficulty to avoid the effect, or &lt;strong&gt;Mark 2 Stress&lt;/strong&gt; to avoid it without a roll.</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -23186,11 +23181,11 @@
         <v>3023</v>
       </c>
       <c r="P27" t="str">
-        <f>SUBSTITUTE(LOWER(A27), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>quick-hack</v>
       </c>
       <c r="Q27" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E27 &amp; "/" &amp; P27 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/quick-hack.webp</v>
       </c>
       <c r="S27" t="s">
@@ -23225,7 +23220,7 @@
         <v>2585</v>
       </c>
       <c r="I28" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;“You’ve seen this circuit before — probably in the wreckage of your last run.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Long Rest, put tokens on this card equal to your Spellcasting (Hacking) to gain one of the following effect: +1 on next Hack action, +1 on Evasion as a Reaction, Gain 1 Hope, Clear 1 Stress</v>
       </c>
       <c r="J28" s="4" t="s">
@@ -23246,11 +23241,11 @@
       </c>
       <c r="O28" s="4"/>
       <c r="P28" t="str">
-        <f>SUBSTITUTE(LOWER(A28), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>field-experience</v>
       </c>
       <c r="Q28" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E28 &amp; "/" &amp; P28 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/field-experience.webp</v>
       </c>
       <c r="S28" t="s">
@@ -23285,7 +23280,7 @@
         <v>2585</v>
       </c>
       <c r="I29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;“Sometimes all you need is a better connection.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Scene, you can reroute local energy or data flow. Choose one ally within Close range; they gain +1 to their next roll that involves technology or reflexes.</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -23306,11 +23301,11 @@
       </c>
       <c r="O29" s="4"/>
       <c r="P29" t="str">
-        <f>SUBSTITUTE(LOWER(A29), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>signal-boost</v>
       </c>
       <c r="Q29" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E29 &amp; "/" &amp; P29 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/signal-boost.webp</v>
       </c>
       <c r="S29" t="s">
@@ -23345,7 +23340,7 @@
         <v>2585</v>
       </c>
       <c r="I30" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;“Flash ’em, crash ’em, and walk out glowing.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to use your Reaction to make a Device you have Infiltrated or Controlled successfully generate a distration.  The creature must spend 1 Fear to take their next Action and they have disadvantage if they attack with their next action.</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -23368,11 +23363,11 @@
         <v>3026</v>
       </c>
       <c r="P30" t="str">
-        <f>SUBSTITUTE(LOWER(A30), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>strobe-effect</v>
       </c>
       <c r="Q30" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E30 &amp; "/" &amp; P30 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/strobe-effect.webp</v>
       </c>
       <c r="S30" t="s">
@@ -23407,7 +23402,7 @@
         <v>2585</v>
       </c>
       <c r="I31" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;“Because root access is a state of mind.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt;to escalate your access level on a Device you are Hacking from Infiltration to Control.</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -23430,11 +23425,11 @@
         <v>3026</v>
       </c>
       <c r="P31" t="str">
-        <f>SUBSTITUTE(LOWER(A31), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>elevate-permission</v>
       </c>
       <c r="Q31" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E31 &amp; "/" &amp; P31 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/elevate-permission.webp</v>
       </c>
       <c r="S31" t="s">
@@ -23469,7 +23464,7 @@
         <v>2585</v>
       </c>
       <c r="I32" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;“Sometimes your best ally is a flickering echo of bad code.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Target 1 weapon within Far, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; and make a Spellcasting check (12).  On a success, any non-primative weapon malfunctions and requires an action to clear it, and thereafter has a -1 for any Action using it.</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -23492,11 +23487,11 @@
         <v>3026</v>
       </c>
       <c r="P32" t="str">
-        <f>SUBSTITUTE(LOWER(A32), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>ghost-signal</v>
       </c>
       <c r="Q32" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E32 &amp; "/" &amp; P32 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/ghost-signal.webp</v>
       </c>
       <c r="S32" t="s">
@@ -23531,7 +23526,7 @@
         <v>2585</v>
       </c>
       <c r="I33" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;i&gt;“The perfect invisibility cloak smells faintly of ozone.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to emit an electromagnetic haze that blurs surveillance and scanners. For one Scene, creatures roll with Disadvantage to detect you or your team.</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -23554,11 +23549,11 @@
         <v>3026</v>
       </c>
       <c r="P33" t="str">
-        <f>SUBSTITUTE(LOWER(A33), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>static-veil</v>
       </c>
       <c r="Q33" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E33 &amp; "/" &amp; P33 &amp; ".webp"</f>
+        <f t="shared" si="4"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/static-veil.webp</v>
       </c>
       <c r="S33" t="s">
@@ -23573,11 +23568,11 @@
         <v>2584</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:C65" si="4">Q34</f>
+        <f t="shared" ref="C34:C65" si="6">Q34</f>
         <v>modules/cybermancy/assets/icons/domains/circuit/overload.webp</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D65" si="5">I34</f>
+        <f t="shared" ref="D34:D65" si="7">I34</f>
         <v>&lt;i&gt;“Push it past the redline — what’s the worst that could happen?”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Make a Spellcasting roll (15) to make a device you Control explode causing all Adversaries within Very Close of the Device to take 2d6 damage, and all within Close take 1d6</v>
       </c>
       <c r="E34" t="s">
@@ -23593,7 +23588,7 @@
         <v>2585</v>
       </c>
       <c r="I34" s="4" t="str">
-        <f t="shared" ref="I34:I65" si="6">"&lt;i&gt;" &amp; J34 &amp; "&lt;/i&gt;" &amp; K34</f>
+        <f t="shared" ref="I34:I65" si="8">"&lt;i&gt;" &amp; J34 &amp; "&lt;/i&gt;" &amp; K34</f>
         <v>&lt;i&gt;“Push it past the redline — what’s the worst that could happen?”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Make a Spellcasting roll (15) to make a device you Control explode causing all Adversaries within Very Close of the Device to take 2d6 damage, and all within Close take 1d6</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -23603,7 +23598,7 @@
         <v>2966</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" ref="L34:L65" si="7">A34</f>
+        <f t="shared" ref="L34:L65" si="9">A34</f>
         <v>Overload</v>
       </c>
       <c r="M34" s="4" t="s">
@@ -23614,11 +23609,11 @@
       </c>
       <c r="O34" s="4"/>
       <c r="P34" t="str">
-        <f>SUBSTITUTE(LOWER(A34), " ", "-")</f>
+        <f t="shared" ref="P34:P65" si="10">SUBSTITUTE(LOWER(A34), " ", "-")</f>
         <v>overload</v>
       </c>
       <c r="Q34" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E34 &amp; "/" &amp; P34 &amp; ".webp"</f>
+        <f t="shared" ref="Q34:Q65" si="11">"modules/cybermancy/assets/icons/domains/" &amp; E34 &amp; "/" &amp; P34 &amp; ".webp"</f>
         <v>modules/cybermancy/assets/icons/domains/circuit/overload.webp</v>
       </c>
       <c r="S34" t="s">
@@ -23633,11 +23628,11 @@
         <v>2584</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/deep-search.webp</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“The Grid whispers, if you know how to listen.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 2 Hope&lt;/strong&gt; to know something about an creature.  As the GM up to 3 yes/no questions.</v>
       </c>
       <c r="E35" t="s">
@@ -23653,7 +23648,7 @@
         <v>2585</v>
       </c>
       <c r="I35" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“The Grid whispers, if you know how to listen.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 2 Hope&lt;/strong&gt; to know something about an creature.  As the GM up to 3 yes/no questions.</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -23663,7 +23658,7 @@
         <v>2967</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Deep search</v>
       </c>
       <c r="M35" s="4" t="s">
@@ -23676,11 +23671,11 @@
         <v>3027</v>
       </c>
       <c r="P35" t="str">
-        <f>SUBSTITUTE(LOWER(A35), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>deep-search</v>
       </c>
       <c r="Q35" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E35 &amp; "/" &amp; P35 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/deep-search.webp</v>
       </c>
       <c r="S35" t="s">
@@ -23695,11 +23690,11 @@
         <v>2584</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/all-quiet-here,-how-are-you?.webp</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“If at first you don’t succeed, reboot and lie about it.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Mark Stress (up to your Proficiency) to lower the System Alert one level per Stress marked.</v>
       </c>
       <c r="E36" t="s">
@@ -23715,7 +23710,7 @@
         <v>2585</v>
       </c>
       <c r="I36" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“If at first you don’t succeed, reboot and lie about it.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Mark Stress (up to your Proficiency) to lower the System Alert one level per Stress marked.</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -23725,7 +23720,7 @@
         <v>2968</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>All quiet here, how are you?</v>
       </c>
       <c r="M36" s="4" t="s">
@@ -23738,11 +23733,11 @@
         <v>3023</v>
       </c>
       <c r="P36" t="str">
-        <f>SUBSTITUTE(LOWER(A36), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>all-quiet-here,-how-are-you?</v>
       </c>
       <c r="Q36" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E36 &amp; "/" &amp; P36 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/all-quiet-here,-how-are-you?.webp</v>
       </c>
       <c r="S36" t="s">
@@ -23757,11 +23752,11 @@
         <v>2584</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/neural-sync.webp</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“Two heads, one neural network.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to instantly share sensory data with one ally within Far range. You both gain +1 to rolls using shared perception for one Scene.</v>
       </c>
       <c r="E37" t="s">
@@ -23777,7 +23772,7 @@
         <v>2585</v>
       </c>
       <c r="I37" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“Two heads, one neural network.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to instantly share sensory data with one ally within Far range. You both gain +1 to rolls using shared perception for one Scene.</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -23787,7 +23782,7 @@
         <v>2969</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Neural Sync</v>
       </c>
       <c r="M37" s="4" t="s">
@@ -23800,11 +23795,11 @@
         <v>3026</v>
       </c>
       <c r="P37" t="str">
-        <f>SUBSTITUTE(LOWER(A37), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>neural-sync</v>
       </c>
       <c r="Q37" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E37 &amp; "/" &amp; P37 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/neural-sync.webp</v>
       </c>
       <c r="S37" t="s">
@@ -23819,11 +23814,11 @@
         <v>2584</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/synchronized-uplink.webp</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“When the team shares your mind, chaos becomes choreography.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;At the beginning of the session, place a number of tokens on this card equal to your Spellcasting Trait.  Make a Spellcasting roll and target any creature you can see or detect within Very Far; on a success, send them a transmission (e.g. "they ran down the hall!").  They will believe the information and act accordingly ... usually</v>
       </c>
       <c r="E38" t="s">
@@ -23839,7 +23834,7 @@
         <v>2585</v>
       </c>
       <c r="I38" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“When the team shares your mind, chaos becomes choreography.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;At the beginning of the session, place a number of tokens on this card equal to your Spellcasting Trait.  Make a Spellcasting roll and target any creature you can see or detect within Very Far; on a success, send them a transmission (e.g. "they ran down the hall!").  They will believe the information and act accordingly ... usually</v>
       </c>
       <c r="J38" s="4" t="s">
@@ -23849,7 +23844,7 @@
         <v>2970</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Synchronized Uplink</v>
       </c>
       <c r="M38" s="4" t="s">
@@ -23862,11 +23857,11 @@
         <v>3024</v>
       </c>
       <c r="P38" t="str">
-        <f>SUBSTITUTE(LOWER(A38), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>synchronized-uplink</v>
       </c>
       <c r="Q38" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E38 &amp; "/" &amp; P38 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/synchronized-uplink.webp</v>
       </c>
       <c r="S38" t="s">
@@ -23881,11 +23876,11 @@
         <v>2584</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/digital-recon.webp</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“Your paranoia finally pays dividends.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Before entering an Environment, make a Spellcasting (Hacking) roll (13), to gain information about the security stance of the target (what Tier levels of ICE are used, how many levels to the security, what System Alert responses are possible, etc.).  On a failure, all Devices in the Enviroment have a Difficulty +1.</v>
       </c>
       <c r="E39" t="s">
@@ -23901,7 +23896,7 @@
         <v>2585</v>
       </c>
       <c r="I39" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“Your paranoia finally pays dividends.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Before entering an Environment, make a Spellcasting (Hacking) roll (13), to gain information about the security stance of the target (what Tier levels of ICE are used, how many levels to the security, what System Alert responses are possible, etc.).  On a failure, all Devices in the Enviroment have a Difficulty +1.</v>
       </c>
       <c r="J39" s="4" t="s">
@@ -23911,7 +23906,7 @@
         <v>2971</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Digital Recon</v>
       </c>
       <c r="M39" s="4" t="s">
@@ -23922,11 +23917,11 @@
       </c>
       <c r="O39" s="4"/>
       <c r="P39" t="str">
-        <f>SUBSTITUTE(LOWER(A39), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>digital-recon</v>
       </c>
       <c r="Q39" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E39 &amp; "/" &amp; P39 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/digital-recon.webp</v>
       </c>
       <c r="S39" t="s">
@@ -23941,11 +23936,11 @@
         <v>2584</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/short-circuit.webp</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“Sometimes the best fix is a hard crash.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per rest, target any mechanical Adversaries (Drones, robots, etc.) within Far and make a Spellcasting roll against the Adversaries's Difficulty.  On a success, the target loses its next round and takes d8+2 damage</v>
       </c>
       <c r="E40" t="s">
@@ -23961,7 +23956,7 @@
         <v>2585</v>
       </c>
       <c r="I40" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“Sometimes the best fix is a hard crash.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per rest, target any mechanical Adversaries (Drones, robots, etc.) within Far and make a Spellcasting roll against the Adversaries's Difficulty.  On a success, the target loses its next round and takes d8+2 damage</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -23971,7 +23966,7 @@
         <v>3029</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Short Circuit</v>
       </c>
       <c r="M40" s="4" t="s">
@@ -23982,11 +23977,11 @@
       </c>
       <c r="O40" s="4"/>
       <c r="P40" t="str">
-        <f>SUBSTITUTE(LOWER(A40), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>short-circuit</v>
       </c>
       <c r="Q40" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E40 &amp; "/" &amp; P40 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/short-circuit.webp</v>
       </c>
       <c r="S40" t="s">
@@ -24001,11 +23996,11 @@
         <v>2584</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/cybernetics-syndrome.webp</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“When code and soul sync, reality gets a patch update.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Your Digital Awareness can now detect cybernetics within individuals up to your Tier level.  You can &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to make a Spellcasting roll against a cybernetically enhanced individual within Far.  On a success, place a number of tokens on thie card equal to your Spellcasting Abiliity level.  Take an Action to apply one of the following effects: 1) Visual hallucinations, 2) Audio hallucinations, 3) &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; to give them disadvantage on their next Action, 4) -4 Evasion until they take an Action to remove the effect.</v>
       </c>
       <c r="E41" t="s">
@@ -24021,7 +24016,7 @@
         <v>2585</v>
       </c>
       <c r="I41" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“When code and soul sync, reality gets a patch update.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Your Digital Awareness can now detect cybernetics within individuals up to your Tier level.  You can &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to make a Spellcasting roll against a cybernetically enhanced individual within Far.  On a success, place a number of tokens on thie card equal to your Spellcasting Abiliity level.  Take an Action to apply one of the following effects: 1) Visual hallucinations, 2) Audio hallucinations, 3) &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; to give them disadvantage on their next Action, 4) -4 Evasion until they take an Action to remove the effect.</v>
       </c>
       <c r="J41" s="4" t="s">
@@ -24031,7 +24026,7 @@
         <v>2972</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Cybernetics syndrome</v>
       </c>
       <c r="M41" s="4" t="s">
@@ -24044,11 +24039,11 @@
         <v>3026</v>
       </c>
       <c r="P41" t="str">
-        <f>SUBSTITUTE(LOWER(A41), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>cybernetics-syndrome</v>
       </c>
       <c r="Q41" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E41 &amp; "/" &amp; P41 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/cybernetics-syndrome.webp</v>
       </c>
       <c r="S41" t="s">
@@ -24063,11 +24058,11 @@
         <v>2584</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/smartwire-reflex.webp</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“You’re half machine — might as well let it drive.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Scene, you may reroll one failed Agility, Spellcasting or Finesse roll as your implants auto-correct your motion.</v>
       </c>
       <c r="E42" t="s">
@@ -24083,7 +24078,7 @@
         <v>2585</v>
       </c>
       <c r="I42" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“You’re half machine — might as well let it drive.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Scene, you may reroll one failed Agility, Spellcasting or Finesse roll as your implants auto-correct your motion.</v>
       </c>
       <c r="J42" s="4" t="s">
@@ -24093,7 +24088,7 @@
         <v>2973</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Smartwire Reflex</v>
       </c>
       <c r="M42" s="4" t="s">
@@ -24104,11 +24099,11 @@
       </c>
       <c r="O42" s="4"/>
       <c r="P42" t="str">
-        <f>SUBSTITUTE(LOWER(A42), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>smartwire-reflex</v>
       </c>
       <c r="Q42" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E42 &amp; "/" &amp; P42 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/smartwire-reflex.webp</v>
       </c>
       <c r="S42" t="s">
@@ -24123,11 +24118,11 @@
         <v>2584</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/ghost-protocol.webp</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“Being off the grid never felt so literal.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to temporarily erase your digital and heat signatures. Until the end of the Scene, you cannot be tracked by sensors or cameras, and Devices or creatures targeting you have a -2 to hit.</v>
       </c>
       <c r="E43" t="s">
@@ -24143,7 +24138,7 @@
         <v>2585</v>
       </c>
       <c r="I43" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“Being off the grid never felt so literal.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to temporarily erase your digital and heat signatures. Until the end of the Scene, you cannot be tracked by sensors or cameras, and Devices or creatures targeting you have a -2 to hit.</v>
       </c>
       <c r="J43" s="4" t="s">
@@ -24153,7 +24148,7 @@
         <v>2974</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Ghost Protocol</v>
       </c>
       <c r="M43" s="4" t="s">
@@ -24166,11 +24161,11 @@
         <v>3026</v>
       </c>
       <c r="P43" t="str">
-        <f>SUBSTITUTE(LOWER(A43), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>ghost-protocol</v>
       </c>
       <c r="Q43" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E43 &amp; "/" &amp; P43 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/ghost-protocol.webp</v>
       </c>
       <c r="S43" t="s">
@@ -24185,11 +24180,11 @@
         <v>2584</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/creative-coding.webp</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“If at first you don’t succeed, reboot and lie about it.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per long rest, add a new Digital Feature to a Device that it didn't originally have (GM's discretion)</v>
       </c>
       <c r="E44" t="s">
@@ -24205,7 +24200,7 @@
         <v>2585</v>
       </c>
       <c r="I44" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“If at first you don’t succeed, reboot and lie about it.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per long rest, add a new Digital Feature to a Device that it didn't originally have (GM's discretion)</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -24215,7 +24210,7 @@
         <v>3030</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Creative coding</v>
       </c>
       <c r="M44" s="4" t="s">
@@ -24226,11 +24221,11 @@
       </c>
       <c r="O44" s="4"/>
       <c r="P44" t="str">
-        <f>SUBSTITUTE(LOWER(A44), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>creative-coding</v>
       </c>
       <c r="Q44" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E44 &amp; "/" &amp; P44 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/creative-coding.webp</v>
       </c>
       <c r="S44" t="s">
@@ -24245,11 +24240,11 @@
         <v>2584</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/feedback-spike.webp</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“Return to sender.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;As a Reaction, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; when taking damage from a digital or ranged source to reflect part of it back — attacker marks 2 Stress.</v>
       </c>
       <c r="E45" t="s">
@@ -24265,7 +24260,7 @@
         <v>2585</v>
       </c>
       <c r="I45" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“Return to sender.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;As a Reaction, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; when taking damage from a digital or ranged source to reflect part of it back — attacker marks 2 Stress.</v>
       </c>
       <c r="J45" s="4" t="s">
@@ -24275,7 +24270,7 @@
         <v>3031</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Feedback Spike</v>
       </c>
       <c r="M45" s="4" t="s">
@@ -24288,11 +24283,11 @@
         <v>3026</v>
       </c>
       <c r="P45" t="str">
-        <f>SUBSTITUTE(LOWER(A45), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>feedback-spike</v>
       </c>
       <c r="Q45" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E45 &amp; "/" &amp; P45 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/feedback-spike.webp</v>
       </c>
       <c r="S45" t="s">
@@ -24307,11 +24302,11 @@
         <v>2584</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/matrix-mind.webp</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;"It's full of stars… !"&lt;/i&gt;&lt;p class="Card-Feature"&gt;When 4 or more domain cards in your loadout  are from Circuit, gain the following effects: +1 to your Spellcasting (Hacking) rolls, once per rest you can switch the result of your Hope and Fear dice</v>
       </c>
       <c r="E46" t="s">
@@ -24327,7 +24322,7 @@
         <v>2585</v>
       </c>
       <c r="I46" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;"It's full of stars… !"&lt;/i&gt;&lt;p class="Card-Feature"&gt;When 4 or more domain cards in your loadout  are from Circuit, gain the following effects: +1 to your Spellcasting (Hacking) rolls, once per rest you can switch the result of your Hope and Fear dice</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -24337,7 +24332,7 @@
         <v>2975</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Matrix mind</v>
       </c>
       <c r="M46" s="4" t="s">
@@ -24348,11 +24343,11 @@
       </c>
       <c r="O46" s="4"/>
       <c r="P46" t="str">
-        <f>SUBSTITUTE(LOWER(A46), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>matrix-mind</v>
       </c>
       <c r="Q46" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E46 &amp; "/" &amp; P46 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/matrix-mind.webp</v>
       </c>
       <c r="S46" t="s">
@@ -24367,11 +24362,11 @@
         <v>2584</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/cyberware-malfunction.webp</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“Every brain’s got a port — some just need a gentle knock.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Your Digital Awareness can now detect cybernetics within individuals.  &lt;strong&gt;Spend 2 Hope&lt;/strong&gt; and make a Spellcasting roll against their Difficulty, to do d10+3 damage</v>
       </c>
       <c r="E47" t="s">
@@ -24387,7 +24382,7 @@
         <v>2585</v>
       </c>
       <c r="I47" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“Every brain’s got a port — some just need a gentle knock.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Your Digital Awareness can now detect cybernetics within individuals.  &lt;strong&gt;Spend 2 Hope&lt;/strong&gt; and make a Spellcasting roll against their Difficulty, to do d10+3 damage</v>
       </c>
       <c r="J47" s="4" t="s">
@@ -24397,7 +24392,7 @@
         <v>2976</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Cyberware Malfunction</v>
       </c>
       <c r="M47" s="4" t="s">
@@ -24410,11 +24405,11 @@
         <v>3027</v>
       </c>
       <c r="P47" t="str">
-        <f>SUBSTITUTE(LOWER(A47), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>cyberware-malfunction</v>
       </c>
       <c r="Q47" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E47 &amp; "/" &amp; P47 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/cyberware-malfunction.webp</v>
       </c>
       <c r="S47" t="s">
@@ -24429,11 +24424,11 @@
         <v>2584</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/reality-patch.webp</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“If you can code it, you can unbreak it.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to temporarily stabilize or rewrite corrupted digital space. Remove one ongoing Environment Digital effect.</v>
       </c>
       <c r="E48" t="s">
@@ -24449,7 +24444,7 @@
         <v>2585</v>
       </c>
       <c r="I48" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“If you can code it, you can unbreak it.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to temporarily stabilize or rewrite corrupted digital space. Remove one ongoing Environment Digital effect.</v>
       </c>
       <c r="J48" s="4" t="s">
@@ -24459,7 +24454,7 @@
         <v>2977</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Reality Patch</v>
       </c>
       <c r="M48" s="4" t="s">
@@ -24472,11 +24467,11 @@
         <v>3026</v>
       </c>
       <c r="P48" t="str">
-        <f>SUBSTITUTE(LOWER(A48), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>reality-patch</v>
       </c>
       <c r="Q48" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E48 &amp; "/" &amp; P48 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/reality-patch.webp</v>
       </c>
       <c r="S48" t="s">
@@ -24491,11 +24486,11 @@
         <v>2584</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/deep-fake.webp</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;“The universe called — it wants its encryption key back.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Spend up to 5 Hope to make up something about a character or adversary and (GM descretion) it becomes true.  The more Hope spent, the more outlanding the thing made up can be.</v>
       </c>
       <c r="E49" t="s">
@@ -24511,7 +24506,7 @@
         <v>2585</v>
       </c>
       <c r="I49" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;“The universe called — it wants its encryption key back.”&lt;/i&gt;&lt;p class="Card-Feature"&gt;Spend up to 5 Hope to make up something about a character or adversary and (GM descretion) it becomes true.  The more Hope spent, the more outlanding the thing made up can be.</v>
       </c>
       <c r="J49" s="4" t="s">
@@ -24521,7 +24516,7 @@
         <v>2978</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Deep fake</v>
       </c>
       <c r="M49" s="4" t="s">
@@ -24534,11 +24529,11 @@
         <v>3026</v>
       </c>
       <c r="P49" t="str">
-        <f>SUBSTITUTE(LOWER(A49), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>deep-fake</v>
       </c>
       <c r="Q49" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E49 &amp; "/" &amp; P49 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/circuit/deep-fake.webp</v>
       </c>
       <c r="S49" t="s">
@@ -24553,11 +24548,11 @@
         <v>2584</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/patch-job.webp</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;Duct tape, hope, and brilliance.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per rest, &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; to restore 2 HP to your &lt;b&gt;Primary Drone&lt;/b&gt;.</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -24573,7 +24568,7 @@
         <v>2585</v>
       </c>
       <c r="I50" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;Duct tape, hope, and brilliance.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per rest, &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; to restore 2 HP to your &lt;b&gt;Primary Drone&lt;/b&gt;.</v>
       </c>
       <c r="J50" s="4" t="s">
@@ -24583,7 +24578,7 @@
         <v>3000</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Patch Job</v>
       </c>
       <c r="M50" s="4" t="s">
@@ -24596,11 +24591,11 @@
         <v>3023</v>
       </c>
       <c r="P50" t="str">
-        <f>SUBSTITUTE(LOWER(A50), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>patch-job</v>
       </c>
       <c r="Q50" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E50 &amp; "/" &amp; P50 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/patch-job.webp</v>
       </c>
       <c r="R50" s="4" t="s">
@@ -24618,11 +24613,11 @@
         <v>2584</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/explosive-detonation.webp</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;Precision demolition by proxy.&lt;/i&gt;&lt;p class="Card-Feature"&gt;At the start of the Session, place tokens on this card equal to your proficiency level.  Take an Action to Spend one token to detonate an explosion within Far range. Target takes d8+2 damage; all others within Very Close of the target take d6. &lt;strong&gt;Mark 2 Stress&lt;/strong&gt; to refresh this card with tokens</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -24638,7 +24633,7 @@
         <v>2585</v>
       </c>
       <c r="I51" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;Precision demolition by proxy.&lt;/i&gt;&lt;p class="Card-Feature"&gt;At the start of the Session, place tokens on this card equal to your proficiency level.  Take an Action to Spend one token to detonate an explosion within Far range. Target takes d8+2 damage; all others within Very Close of the target take d6. &lt;strong&gt;Mark 2 Stress&lt;/strong&gt; to refresh this card with tokens</v>
       </c>
       <c r="J51" s="4" t="s">
@@ -24648,7 +24643,7 @@
         <v>3037</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Explosive Detonation</v>
       </c>
       <c r="M51" s="4" t="s">
@@ -24661,11 +24656,11 @@
         <v>3024</v>
       </c>
       <c r="P51" t="str">
-        <f>SUBSTITUTE(LOWER(A51), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>explosive-detonation</v>
       </c>
       <c r="Q51" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E51 &amp; "/" &amp; P51 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/explosive-detonation.webp</v>
       </c>
       <c r="R51" s="4" t="s">
@@ -24683,11 +24678,11 @@
         <v>2584</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/drone-control.webp</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;Precision through proxies.&lt;/i&gt;&lt;p class="Card-Feature"&gt;As an Action, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; for your &lt;b&gt;Primary Drone&lt;/b&gt; to attack at +2.</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -24703,7 +24698,7 @@
         <v>2585</v>
       </c>
       <c r="I52" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;Precision through proxies.&lt;/i&gt;&lt;p class="Card-Feature"&gt;As an Action, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; for your &lt;b&gt;Primary Drone&lt;/b&gt; to attack at +2.</v>
       </c>
       <c r="J52" s="4" t="s">
@@ -24713,7 +24708,7 @@
         <v>3001</v>
       </c>
       <c r="L52" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Drone Control</v>
       </c>
       <c r="M52" s="4" t="s">
@@ -24726,11 +24721,11 @@
         <v>3026</v>
       </c>
       <c r="P52" t="str">
-        <f>SUBSTITUTE(LOWER(A52), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>drone-control</v>
       </c>
       <c r="Q52" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E52 &amp; "/" &amp; P52 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/drone-control.webp</v>
       </c>
       <c r="R52" s="4" t="s">
@@ -24748,11 +24743,11 @@
         <v>2584</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/drone-maneuver.webp</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;Dodge by remote instinct.&lt;/i&gt;&lt;p class="Card-Feature"&gt;As a Reaction, &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; to give your &lt;b&gt;Primary Drone&lt;/b&gt; +2 Evasion for one attack before results are determined.</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -24768,7 +24763,7 @@
         <v>2585</v>
       </c>
       <c r="I53" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;Dodge by remote instinct.&lt;/i&gt;&lt;p class="Card-Feature"&gt;As a Reaction, &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; to give your &lt;b&gt;Primary Drone&lt;/b&gt; +2 Evasion for one attack before results are determined.</v>
       </c>
       <c r="J53" s="4" t="s">
@@ -24778,7 +24773,7 @@
         <v>3002</v>
       </c>
       <c r="L53" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Drone Maneuver</v>
       </c>
       <c r="M53" s="4" t="s">
@@ -24791,11 +24786,11 @@
         <v>3023</v>
       </c>
       <c r="P53" t="str">
-        <f>SUBSTITUTE(LOWER(A53), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>drone-maneuver</v>
       </c>
       <c r="Q53" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E53 &amp; "/" &amp; P53 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/drone-maneuver.webp</v>
       </c>
       <c r="R53" s="4" t="s">
@@ -24813,11 +24808,11 @@
         <v>2584</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/drone-swarm.webp</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;You are never outnumbered.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per long rest, place tokens on this card equal to your proficiency level.  As a Reaction, spend 1 token to have one of the following effects to 1 target creatures &lt;ol&gt;&lt;li&gt;Harass. (-1 all rolls), &lt;li&gt;Suppress (-1 evasion), &lt;li&gt;Assist (+1 evasion)&lt;/ol&gt;. Discard all remaining tokens at the end of the Scene.</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -24833,7 +24828,7 @@
         <v>2585</v>
       </c>
       <c r="I54" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;You are never outnumbered.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per long rest, place tokens on this card equal to your proficiency level.  As a Reaction, spend 1 token to have one of the following effects to 1 target creatures &lt;ol&gt;&lt;li&gt;Harass. (-1 all rolls), &lt;li&gt;Suppress (-1 evasion), &lt;li&gt;Assist (+1 evasion)&lt;/ol&gt;. Discard all remaining tokens at the end of the Scene.</v>
       </c>
       <c r="J54" s="4" t="s">
@@ -24843,7 +24838,7 @@
         <v>3004</v>
       </c>
       <c r="L54" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Drone Swarm</v>
       </c>
       <c r="M54" s="4" t="s">
@@ -24854,11 +24849,11 @@
       </c>
       <c r="O54" s="4"/>
       <c r="P54" t="str">
-        <f>SUBSTITUTE(LOWER(A54), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>drone-swarm</v>
       </c>
       <c r="Q54" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E54 &amp; "/" &amp; P54 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/drone-swarm.webp</v>
       </c>
       <c r="R54" s="4" t="s">
@@ -24876,11 +24871,11 @@
         <v>2584</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/armorer.webp</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;Armor is just skin for machines.&lt;/i&gt;&lt;p class="Card-Feature"&gt;During downtime, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to repair up to 3 armor slots for yourself or an ally.</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -24896,7 +24891,7 @@
         <v>2585</v>
       </c>
       <c r="I55" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;Armor is just skin for machines.&lt;/i&gt;&lt;p class="Card-Feature"&gt;During downtime, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to repair up to 3 armor slots for yourself or an ally.</v>
       </c>
       <c r="J55" s="4" t="s">
@@ -24906,7 +24901,7 @@
         <v>3005</v>
       </c>
       <c r="L55" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Armorer</v>
       </c>
       <c r="M55" s="4" t="s">
@@ -24919,11 +24914,11 @@
         <v>3026</v>
       </c>
       <c r="P55" t="str">
-        <f>SUBSTITUTE(LOWER(A55), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>armorer</v>
       </c>
       <c r="Q55" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E55 &amp; "/" &amp; P55 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/armorer.webp</v>
       </c>
       <c r="R55" s="4" t="s">
@@ -24941,11 +24936,11 @@
         <v>2584</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/improvised-mod.webp</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;Improvise, adapt, overclock.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per long rest, &lt;strong&gt;Spend 2 Hope&lt;/strong&gt; to add a temporary extra mod to your &lt;b&gt;Primary Drone&lt;/b&gt; for the current scene.  At the end of the Scene, remove 1 mod.</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -24961,7 +24956,7 @@
         <v>2585</v>
       </c>
       <c r="I56" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;Improvise, adapt, overclock.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per long rest, &lt;strong&gt;Spend 2 Hope&lt;/strong&gt; to add a temporary extra mod to your &lt;b&gt;Primary Drone&lt;/b&gt; for the current scene.  At the end of the Scene, remove 1 mod.</v>
       </c>
       <c r="J56" s="4" t="s">
@@ -24971,7 +24966,7 @@
         <v>3003</v>
       </c>
       <c r="L56" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Improvised Mod</v>
       </c>
       <c r="M56" s="4" t="s">
@@ -24984,11 +24979,11 @@
         <v>3027</v>
       </c>
       <c r="P56" t="str">
-        <f>SUBSTITUTE(LOWER(A56), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>improvised-mod</v>
       </c>
       <c r="Q56" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E56 &amp; "/" &amp; P56 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/improvised-mod.webp</v>
       </c>
       <c r="R56" s="4" t="s">
@@ -25006,11 +25001,11 @@
         <v>2584</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/getaway-vehicle.webp</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;Drive fast, live smarter.&lt;/i&gt;&lt;p class="Card-Feature"&gt;You own a vehicle large enough for your team - describe the vehicle on your character sheet. While driving this vehicle, gain +2 to Driving checks. On a critical roll, you may perform a cinematic driving maneuver with your vehicle (GM discretion), and adjust your Chase Die by and additional -1 to +1</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -25026,7 +25021,7 @@
         <v>2585</v>
       </c>
       <c r="I57" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;Drive fast, live smarter.&lt;/i&gt;&lt;p class="Card-Feature"&gt;You own a vehicle large enough for your team - describe the vehicle on your character sheet. While driving this vehicle, gain +2 to Driving checks. On a critical roll, you may perform a cinematic driving maneuver with your vehicle (GM discretion), and adjust your Chase Die by and additional -1 to +1</v>
       </c>
       <c r="J57" s="4" t="s">
@@ -25036,7 +25031,7 @@
         <v>3006</v>
       </c>
       <c r="L57" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Getaway Vehicle</v>
       </c>
       <c r="M57" s="4" t="s">
@@ -25047,11 +25042,11 @@
       </c>
       <c r="O57" s="4"/>
       <c r="P57" t="str">
-        <f>SUBSTITUTE(LOWER(A57), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>getaway-vehicle</v>
       </c>
       <c r="Q57" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E57 &amp; "/" &amp; P57 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/getaway-vehicle.webp</v>
       </c>
       <c r="R57" s="4" t="s">
@@ -25069,11 +25064,11 @@
         <v>2584</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/air-support.webp</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;The sky belongs to you.&lt;/i&gt;&lt;p class="Card-Feature"&gt;One per long rest, you launch and control drones that provide tactical overwatch. Spotlight an Action to shift the drones between Offensive mode and Defensive mode: &lt;p&gt;&lt;b&gt;Defensive mode&lt;/b&gt;: You have +2 Evasion and all allies have +1 Evasion&lt;/p&gt;&lt;b&gt;Offensive mode&lt;/b&gt;: You have +2 to your attacks and all allies have +1 to their attacks</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -25089,7 +25084,7 @@
         <v>2585</v>
       </c>
       <c r="I58" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;The sky belongs to you.&lt;/i&gt;&lt;p class="Card-Feature"&gt;One per long rest, you launch and control drones that provide tactical overwatch. Spotlight an Action to shift the drones between Offensive mode and Defensive mode: &lt;p&gt;&lt;b&gt;Defensive mode&lt;/b&gt;: You have +2 Evasion and all allies have +1 Evasion&lt;/p&gt;&lt;b&gt;Offensive mode&lt;/b&gt;: You have +2 to your attacks and all allies have +1 to their attacks</v>
       </c>
       <c r="J58" s="4" t="s">
@@ -25099,7 +25094,7 @@
         <v>3007</v>
       </c>
       <c r="L58" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Air Support</v>
       </c>
       <c r="M58" s="4" t="s">
@@ -25110,11 +25105,11 @@
       </c>
       <c r="O58" s="4"/>
       <c r="P58" t="str">
-        <f>SUBSTITUTE(LOWER(A58), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>air-support</v>
       </c>
       <c r="Q58" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E58 &amp; "/" &amp; P58 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/air-support.webp</v>
       </c>
       <c r="R58" s="4" t="s">
@@ -25132,11 +25127,11 @@
         <v>2584</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/plant-tracker.webp</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;They can run, but they can’t hide.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Mark 2 Stress&lt;/strong&gt; to plant a tracker on a creature or device within Very Close. Roll Finesse vs target’s difficulty to avoid detection.</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -25152,7 +25147,7 @@
         <v>2585</v>
       </c>
       <c r="I59" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;They can run, but they can’t hide.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Mark 2 Stress&lt;/strong&gt; to plant a tracker on a creature or device within Very Close. Roll Finesse vs target’s difficulty to avoid detection.</v>
       </c>
       <c r="J59" s="4" t="s">
@@ -25162,7 +25157,7 @@
         <v>3008</v>
       </c>
       <c r="L59" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Plant Tracker</v>
       </c>
       <c r="M59" s="4" t="s">
@@ -25175,11 +25170,11 @@
         <v>3024</v>
       </c>
       <c r="P59" t="str">
-        <f>SUBSTITUTE(LOWER(A59), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>plant-tracker</v>
       </c>
       <c r="Q59" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E59 &amp; "/" &amp; P59 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/plant-tracker.webp</v>
       </c>
       <c r="R59" s="4" t="s">
@@ -25197,11 +25192,11 @@
         <v>2584</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/project-manager.webp</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;Leadership through logistics.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per rest, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; before a Group Action to grant +2 to the roll.</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -25217,7 +25212,7 @@
         <v>2585</v>
       </c>
       <c r="I60" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;Leadership through logistics.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per rest, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; before a Group Action to grant +2 to the roll.</v>
       </c>
       <c r="J60" s="4" t="s">
@@ -25227,7 +25222,7 @@
         <v>3009</v>
       </c>
       <c r="L60" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Project Manager</v>
       </c>
       <c r="M60" s="4" t="s">
@@ -25240,11 +25235,11 @@
         <v>3026</v>
       </c>
       <c r="P60" t="str">
-        <f>SUBSTITUTE(LOWER(A60), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>project-manager</v>
       </c>
       <c r="Q60" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E60 &amp; "/" &amp; P60 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/project-manager.webp</v>
       </c>
       <c r="R60" s="4" t="s">
@@ -25262,11 +25257,11 @@
         <v>2584</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/expert-driver.webp</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;Speed racer's got nothing on you!&lt;/i&gt;&lt;p class="Card-Feature"&gt;All Driving checks are +2.  Each time you are Spotlighted while Driving, you may also take an Attack Action.</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -25282,7 +25277,7 @@
         <v>2585</v>
       </c>
       <c r="I61" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;Speed racer's got nothing on you!&lt;/i&gt;&lt;p class="Card-Feature"&gt;All Driving checks are +2.  Each time you are Spotlighted while Driving, you may also take an Attack Action.</v>
       </c>
       <c r="J61" t="s">
@@ -25292,7 +25287,7 @@
         <v>3013</v>
       </c>
       <c r="L61" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Expert Driver</v>
       </c>
       <c r="M61" s="4" t="s">
@@ -25303,11 +25298,11 @@
       </c>
       <c r="O61" s="4"/>
       <c r="P61" t="str">
-        <f>SUBSTITUTE(LOWER(A61), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>expert-driver</v>
       </c>
       <c r="Q61" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E61 &amp; "/" &amp; P61 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/expert-driver.webp</v>
       </c>
       <c r="S61" t="s">
@@ -25322,11 +25317,11 @@
         <v>2584</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/stealth-drone.webp</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">&lt;i&gt;Your eyes are everywhere.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Scene, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to launch a tiny &lt;b&gt;Stealth Drone&lt;/b&gt; within Very Far.  The drone provide audio within Very Close and visual signal.  When you take an Action, you can reposition the drone anywhere within Very Far.  creatures within Very Close can take an action to make an &lt;b&gt;Instinct&lt;/b&gt; roll (Difficulty 15) to detect the drone, and if detected destroy the drone.   </v>
       </c>
       <c r="E62" s="4" t="s">
@@ -25342,7 +25337,7 @@
         <v>2585</v>
       </c>
       <c r="I62" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">&lt;i&gt;Your eyes are everywhere.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Scene, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; to launch a tiny &lt;b&gt;Stealth Drone&lt;/b&gt; within Very Far.  The drone provide audio within Very Close and visual signal.  When you take an Action, you can reposition the drone anywhere within Very Far.  creatures within Very Close can take an action to make an &lt;b&gt;Instinct&lt;/b&gt; roll (Difficulty 15) to detect the drone, and if detected destroy the drone.   </v>
       </c>
       <c r="J62" s="4" t="s">
@@ -25352,7 +25347,7 @@
         <v>2999</v>
       </c>
       <c r="L62" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Stealth Drone</v>
       </c>
       <c r="M62" s="4" t="s">
@@ -25365,11 +25360,11 @@
         <v>3026</v>
       </c>
       <c r="P62" t="str">
-        <f>SUBSTITUTE(LOWER(A62), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>stealth-drone</v>
       </c>
       <c r="Q62" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E62 &amp; "/" &amp; P62 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/stealth-drone.webp</v>
       </c>
       <c r="R62" s="4" t="s">
@@ -25387,11 +25382,11 @@
         <v>2584</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/quick-change.webp</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;The right tool for the wrong moment.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Scene, &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; to replace one module on your &lt;b&gt;Primary Drone&lt;/b&gt; instantly.</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -25407,7 +25402,7 @@
         <v>2585</v>
       </c>
       <c r="I63" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;The right tool for the wrong moment.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per Scene, &lt;strong&gt;Mark 1 Stress&lt;/strong&gt; to replace one module on your &lt;b&gt;Primary Drone&lt;/b&gt; instantly.</v>
       </c>
       <c r="J63" s="4" t="s">
@@ -25417,7 +25412,7 @@
         <v>3010</v>
       </c>
       <c r="L63" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Quick Change</v>
       </c>
       <c r="M63" s="4" t="s">
@@ -25430,11 +25425,11 @@
         <v>3023</v>
       </c>
       <c r="P63" t="str">
-        <f>SUBSTITUTE(LOWER(A63), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>quick-change</v>
       </c>
       <c r="Q63" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E63 &amp; "/" &amp; P63 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/quick-change.webp</v>
       </c>
       <c r="R63" s="4" t="s">
@@ -25452,11 +25447,11 @@
         <v>2584</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/improvise-equipment.webp</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;If you can imagine it, you can build it.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per rest, &lt;strong&gt;Mark 2 Stress&lt;/strong&gt; to create a device you need. Describe construction and function (GM discretion).</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -25472,7 +25467,7 @@
         <v>2585</v>
       </c>
       <c r="I64" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;If you can imagine it, you can build it.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per rest, &lt;strong&gt;Mark 2 Stress&lt;/strong&gt; to create a device you need. Describe construction and function (GM discretion).</v>
       </c>
       <c r="J64" s="4" t="s">
@@ -25482,7 +25477,7 @@
         <v>3011</v>
       </c>
       <c r="L64" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Improvise Equipment</v>
       </c>
       <c r="M64" s="4" t="s">
@@ -25495,11 +25490,11 @@
         <v>3024</v>
       </c>
       <c r="P64" t="str">
-        <f>SUBSTITUTE(LOWER(A64), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>improvise-equipment</v>
       </c>
       <c r="Q64" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E64 &amp; "/" &amp; P64 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/improvise-equipment.webp</v>
       </c>
       <c r="R64" s="4" t="s">
@@ -25517,11 +25512,11 @@
         <v>2584</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>modules/cybermancy/assets/icons/domains/maker/assess-equipment.webp</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>&lt;i&gt;Every circuit tells a secret.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; after 10 minutes of inspection to ask the GM 3 yes/no questions about the device.</v>
       </c>
       <c r="E65" s="4" t="s">
@@ -25537,7 +25532,7 @@
         <v>2585</v>
       </c>
       <c r="I65" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>&lt;i&gt;Every circuit tells a secret.&lt;/i&gt;&lt;p class="Card-Feature"&gt;&lt;strong&gt;Spend 1 Hope&lt;/strong&gt; after 10 minutes of inspection to ask the GM 3 yes/no questions about the device.</v>
       </c>
       <c r="J65" s="4" t="s">
@@ -25547,7 +25542,7 @@
         <v>3012</v>
       </c>
       <c r="L65" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Assess Equipment</v>
       </c>
       <c r="M65" s="4" t="s">
@@ -25560,11 +25555,11 @@
         <v>3026</v>
       </c>
       <c r="P65" t="str">
-        <f>SUBSTITUTE(LOWER(A65), " ", "-")</f>
+        <f t="shared" si="10"/>
         <v>assess-equipment</v>
       </c>
       <c r="Q65" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E65 &amp; "/" &amp; P65 &amp; ".webp"</f>
+        <f t="shared" si="11"/>
         <v>modules/cybermancy/assets/icons/domains/maker/assess-equipment.webp</v>
       </c>
       <c r="R65" s="4" t="s">
@@ -25582,11 +25577,11 @@
         <v>2584</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C74" si="8">Q66</f>
+        <f t="shared" ref="C66:C74" si="12">Q66</f>
         <v>modules/cybermancy/assets/icons/domains/maker/power-boost.webp</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D74" si="9">I66</f>
+        <f t="shared" ref="D66:D74" si="13">I66</f>
         <v>&lt;i&gt;Overclocked aggression.&lt;/i&gt;&lt;p class="Card-Feature"&gt;As an Action, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; for your &lt;b&gt;Primary Drone&lt;/b&gt; to attack with advantage; add dH extra damage on success depending on your Tier (1:d4, 2:d6, 3:d8, 4:d10)</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -25602,7 +25597,7 @@
         <v>2585</v>
       </c>
       <c r="I66" s="4" t="str">
-        <f t="shared" ref="I66:I74" si="10">"&lt;i&gt;" &amp; J66 &amp; "&lt;/i&gt;" &amp; K66</f>
+        <f t="shared" ref="I66:I74" si="14">"&lt;i&gt;" &amp; J66 &amp; "&lt;/i&gt;" &amp; K66</f>
         <v>&lt;i&gt;Overclocked aggression.&lt;/i&gt;&lt;p class="Card-Feature"&gt;As an Action, &lt;strong&gt;Spend 1 Hope&lt;/strong&gt; for your &lt;b&gt;Primary Drone&lt;/b&gt; to attack with advantage; add dH extra damage on success depending on your Tier (1:d4, 2:d6, 3:d8, 4:d10)</v>
       </c>
       <c r="J66" s="4" t="s">
@@ -25612,7 +25607,7 @@
         <v>3038</v>
       </c>
       <c r="L66" s="4" t="str">
-        <f t="shared" ref="L66:L74" si="11">A66</f>
+        <f t="shared" ref="L66:L74" si="15">A66</f>
         <v>Power Boost</v>
       </c>
       <c r="M66" s="4" t="s">
@@ -25625,11 +25620,11 @@
         <v>3026</v>
       </c>
       <c r="P66" t="str">
-        <f>SUBSTITUTE(LOWER(A66), " ", "-")</f>
+        <f t="shared" ref="P66:P74" si="16">SUBSTITUTE(LOWER(A66), " ", "-")</f>
         <v>power-boost</v>
       </c>
       <c r="Q66" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E66 &amp; "/" &amp; P66 &amp; ".webp"</f>
+        <f t="shared" ref="Q66:Q97" si="17">"modules/cybermancy/assets/icons/domains/" &amp; E66 &amp; "/" &amp; P66 &amp; ".webp"</f>
         <v>modules/cybermancy/assets/icons/domains/maker/power-boost.webp</v>
       </c>
       <c r="R66" s="4" t="s">
@@ -25647,11 +25642,11 @@
         <v>2584</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>modules/cybermancy/assets/icons/domains/maker/fixer.webp</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>&lt;i&gt;You know who to call.&lt;/i&gt;&lt;p class="Card-Feature"&gt;You have a contact for materials. Non-weapon items cost less (GM discretion). Once per session, ask your Fixer information on any topic.</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -25667,7 +25662,7 @@
         <v>2585</v>
       </c>
       <c r="I67" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>&lt;i&gt;You know who to call.&lt;/i&gt;&lt;p class="Card-Feature"&gt;You have a contact for materials. Non-weapon items cost less (GM discretion). Once per session, ask your Fixer information on any topic.</v>
       </c>
       <c r="J67" s="4" t="s">
@@ -25677,7 +25672,7 @@
         <v>3014</v>
       </c>
       <c r="L67" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Fixer</v>
       </c>
       <c r="M67" s="4" t="s">
@@ -25688,11 +25683,11 @@
       </c>
       <c r="O67" s="4"/>
       <c r="P67" t="str">
-        <f>SUBSTITUTE(LOWER(A67), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>fixer</v>
       </c>
       <c r="Q67" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E67 &amp; "/" &amp; P67 &amp; ".webp"</f>
+        <f t="shared" si="17"/>
         <v>modules/cybermancy/assets/icons/domains/maker/fixer.webp</v>
       </c>
       <c r="R67" s="4" t="s">
@@ -25710,11 +25705,11 @@
         <v>2584</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>modules/cybermancy/assets/icons/domains/maker/flying-drone.webp</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>&lt;i&gt;The sky hums with your genius.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Your &lt;b&gt;Primary Drone&lt;/b&gt; gains flight, +4 Evasion, and may carry 3 weapons.</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -25730,7 +25725,7 @@
         <v>2585</v>
       </c>
       <c r="I68" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>&lt;i&gt;The sky hums with your genius.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Your &lt;b&gt;Primary Drone&lt;/b&gt; gains flight, +4 Evasion, and may carry 3 weapons.</v>
       </c>
       <c r="J68" s="4" t="s">
@@ -25740,7 +25735,7 @@
         <v>3015</v>
       </c>
       <c r="L68" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Flying Drone</v>
       </c>
       <c r="M68" s="4" t="s">
@@ -25751,11 +25746,11 @@
       </c>
       <c r="O68" s="4"/>
       <c r="P68" t="str">
-        <f>SUBSTITUTE(LOWER(A68), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>flying-drone</v>
       </c>
       <c r="Q68" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E68 &amp; "/" &amp; P68 &amp; ".webp"</f>
+        <f t="shared" si="17"/>
         <v>modules/cybermancy/assets/icons/domains/maker/flying-drone.webp</v>
       </c>
       <c r="R68" s="4" t="s">
@@ -25773,11 +25768,11 @@
         <v>2584</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>modules/cybermancy/assets/icons/domains/maker/multitalented.webp</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>&lt;i&gt;Expertise knows no boundaries.&lt;/i&gt;&lt;p class="Card-Feature"&gt;You may add one Domain card from Circuit, Codex, or Bullet to your loadout of Level 4 or less.</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -25793,7 +25788,7 @@
         <v>2585</v>
       </c>
       <c r="I69" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>&lt;i&gt;Expertise knows no boundaries.&lt;/i&gt;&lt;p class="Card-Feature"&gt;You may add one Domain card from Circuit, Codex, or Bullet to your loadout of Level 4 or less.</v>
       </c>
       <c r="J69" s="4" t="s">
@@ -25803,7 +25798,7 @@
         <v>3016</v>
       </c>
       <c r="L69" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Multitalented</v>
       </c>
       <c r="M69" s="4" t="s">
@@ -25814,11 +25809,11 @@
       </c>
       <c r="O69" s="4"/>
       <c r="P69" t="str">
-        <f>SUBSTITUTE(LOWER(A69), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>multitalented</v>
       </c>
       <c r="Q69" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E69 &amp; "/" &amp; P69 &amp; ".webp"</f>
+        <f t="shared" si="17"/>
         <v>modules/cybermancy/assets/icons/domains/maker/multitalented.webp</v>
       </c>
       <c r="R69" s="4" t="s">
@@ -25836,11 +25831,11 @@
         <v>2584</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>modules/cybermancy/assets/icons/domains/maker/good-maintenance.webp</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>&lt;i&gt;A well-oiled machine never quits.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Your weapons and &lt;b&gt;Primary Drone&lt;/b&gt; cannot malfunction except through magical effects.</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -25856,7 +25851,7 @@
         <v>2585</v>
       </c>
       <c r="I70" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>&lt;i&gt;A well-oiled machine never quits.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Your weapons and &lt;b&gt;Primary Drone&lt;/b&gt; cannot malfunction except through magical effects.</v>
       </c>
       <c r="J70" s="4" t="s">
@@ -25866,7 +25861,7 @@
         <v>3017</v>
       </c>
       <c r="L70" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Good Maintenance</v>
       </c>
       <c r="M70" s="4" t="s">
@@ -25877,11 +25872,11 @@
       </c>
       <c r="O70" s="4"/>
       <c r="P70" t="str">
-        <f>SUBSTITUTE(LOWER(A70), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>good-maintenance</v>
       </c>
       <c r="Q70" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E70 &amp; "/" &amp; P70 &amp; ".webp"</f>
+        <f t="shared" si="17"/>
         <v>modules/cybermancy/assets/icons/domains/maker/good-maintenance.webp</v>
       </c>
       <c r="R70" s="4" t="s">
@@ -25899,11 +25894,11 @@
         <v>2584</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>modules/cybermancy/assets/icons/domains/maker/urban-assault-vehicle.webp</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">&lt;i&gt;War van supremacy.&lt;/i&gt;&lt;p class="Card-Feature"&gt;You own a large, heavily equipped vehicle large enough for your team plus 4 extra creatures - describe the vehicle on your character sheet. While driving this vehicle, gain +4 to Driving checks. On a critical success of a Driving roll, you may perform a cinematic driving maneuver with your vehicle (GM discretion).  </v>
       </c>
       <c r="E71" s="4" t="s">
@@ -25919,7 +25914,7 @@
         <v>2585</v>
       </c>
       <c r="I71" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;i&gt;War van supremacy.&lt;/i&gt;&lt;p class="Card-Feature"&gt;You own a large, heavily equipped vehicle large enough for your team plus 4 extra creatures - describe the vehicle on your character sheet. While driving this vehicle, gain +4 to Driving checks. On a critical success of a Driving roll, you may perform a cinematic driving maneuver with your vehicle (GM discretion).  </v>
       </c>
       <c r="J71" s="4" t="s">
@@ -25929,7 +25924,7 @@
         <v>3018</v>
       </c>
       <c r="L71" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Urban Assault Vehicle</v>
       </c>
       <c r="M71" s="4" t="s">
@@ -25940,11 +25935,11 @@
       </c>
       <c r="O71" s="4"/>
       <c r="P71" t="str">
-        <f>SUBSTITUTE(LOWER(A71), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>urban-assault-vehicle</v>
       </c>
       <c r="Q71" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E71 &amp; "/" &amp; P71 &amp; ".webp"</f>
+        <f t="shared" si="17"/>
         <v>modules/cybermancy/assets/icons/domains/maker/urban-assault-vehicle.webp</v>
       </c>
       <c r="R71" s="4" t="s">
@@ -25962,11 +25957,11 @@
         <v>2584</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>modules/cybermancy/assets/icons/domains/maker/engineer-solution.webp</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>&lt;i&gt;Innovation given form.&lt;/i&gt;&lt;p class="Card-Feature"&gt;With one day of prep, you can construct nearly any practical device needed (GM discretion).</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -25982,7 +25977,7 @@
         <v>2585</v>
       </c>
       <c r="I72" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>&lt;i&gt;Innovation given form.&lt;/i&gt;&lt;p class="Card-Feature"&gt;With one day of prep, you can construct nearly any practical device needed (GM discretion).</v>
       </c>
       <c r="J72" s="4" t="s">
@@ -25992,7 +25987,7 @@
         <v>3019</v>
       </c>
       <c r="L72" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Engineer Solution</v>
       </c>
       <c r="M72" s="4" t="s">
@@ -26003,11 +25998,11 @@
       </c>
       <c r="O72" s="4"/>
       <c r="P72" t="str">
-        <f>SUBSTITUTE(LOWER(A72), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>engineer-solution</v>
       </c>
       <c r="Q72" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E72 &amp; "/" &amp; P72 &amp; ".webp"</f>
+        <f t="shared" si="17"/>
         <v>modules/cybermancy/assets/icons/domains/maker/engineer-solution.webp</v>
       </c>
       <c r="R72" s="4" t="s">
@@ -26025,11 +26020,11 @@
         <v>2584</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>modules/cybermancy/assets/icons/domains/maker/analyst.webp</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>&lt;i&gt;Knowledge is the best weapon.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per session, &lt;strong&gt;Spend 2 Hope&lt;/strong&gt; to ask the GM 3 yes/no questions about a material, structure, or device.</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -26045,7 +26040,7 @@
         <v>2585</v>
       </c>
       <c r="I73" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>&lt;i&gt;Knowledge is the best weapon.&lt;/i&gt;&lt;p class="Card-Feature"&gt;Once per session, &lt;strong&gt;Spend 2 Hope&lt;/strong&gt; to ask the GM 3 yes/no questions about a material, structure, or device.</v>
       </c>
       <c r="J73" s="4" t="s">
@@ -26055,7 +26050,7 @@
         <v>3020</v>
       </c>
       <c r="L73" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Analyst</v>
       </c>
       <c r="M73" s="4" t="s">
@@ -26068,11 +26063,11 @@
         <v>3027</v>
       </c>
       <c r="P73" t="str">
-        <f>SUBSTITUTE(LOWER(A73), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>analyst</v>
       </c>
       <c r="Q73" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E73 &amp; "/" &amp; P73 &amp; ".webp"</f>
+        <f t="shared" si="17"/>
         <v>modules/cybermancy/assets/icons/domains/maker/analyst.webp</v>
       </c>
       <c r="R73" s="4" t="s">
@@ -26090,11 +26085,11 @@
         <v>2584</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>modules/cybermancy/assets/icons/domains/maker/chinook.webp</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>&lt;i&gt;Airlift on demand.&lt;/i&gt;&lt;p class="Card-Feature"&gt;While active, your &lt;b&gt;Primary Drone&lt;/b&gt; can carry you and one ally. While equipped, it may only carry one weapon and has -2 Evasion.</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -26110,7 +26105,7 @@
         <v>2585</v>
       </c>
       <c r="I74" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>&lt;i&gt;Airlift on demand.&lt;/i&gt;&lt;p class="Card-Feature"&gt;While active, your &lt;b&gt;Primary Drone&lt;/b&gt; can carry you and one ally. While equipped, it may only carry one weapon and has -2 Evasion.</v>
       </c>
       <c r="J74" s="4" t="s">
@@ -26120,7 +26115,7 @@
         <v>3021</v>
       </c>
       <c r="L74" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Chinook</v>
       </c>
       <c r="M74" s="4" t="s">
@@ -26131,11 +26126,11 @@
       </c>
       <c r="O74" s="4"/>
       <c r="P74" t="str">
-        <f>SUBSTITUTE(LOWER(A74), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>chinook</v>
       </c>
       <c r="Q74" t="str">
-        <f>"modules/cybermancy/assets/icons/domains/" &amp; E74 &amp; "/" &amp; P74 &amp; ".webp"</f>
+        <f t="shared" si="17"/>
         <v>modules/cybermancy/assets/icons/domains/maker/chinook.webp</v>
       </c>
       <c r="R74" s="4" t="s">
@@ -26153,11 +26148,11 @@
         <v>2584</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:C89" si="12">P76</f>
+        <f t="shared" ref="C76:C89" si="18">P76</f>
         <v>0</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" ref="D76:D89" si="13">I76</f>
+        <f t="shared" ref="D76:D89" si="19">I76</f>
         <v>&lt;i&gt;Ability&lt;/i&gt;&lt;p&gt;Spend 1 Hope to flood an creature’s systems or mindware with data. Target rolls a Fear test or becomes Dazed for one round.</v>
       </c>
       <c r="E76" t="s">
@@ -26199,11 +26194,11 @@
         <v>2584</v>
       </c>
       <c r="C77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>&lt;i&gt;Reaction&lt;/i&gt;&lt;p&gt;Once per Scene, when you would take electric, energy, or sonic damage, reduce it by half and deal 1d8 to all creatures in Close range.</v>
       </c>
       <c r="E77" t="s">
@@ -26245,11 +26240,11 @@
         <v>2584</v>
       </c>
       <c r="C78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>&lt;i&gt;Passive&lt;/i&gt;&lt;p&gt;Once per Long Rest, when you would fail a Knowledge or Instinct roll, you can instantly rerun the mental algorithm and reroll it with advantage.</v>
       </c>
       <c r="E78" t="s">
@@ -26288,11 +26283,11 @@
         <v>2584</v>
       </c>
       <c r="C79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E79" t="s">
@@ -26309,11 +26304,11 @@
         <v>2584</v>
       </c>
       <c r="C80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E80" t="s">
@@ -26336,11 +26331,11 @@
         <v>2584</v>
       </c>
       <c r="C81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E81" t="s">
@@ -26361,11 +26356,11 @@
         <v>2584</v>
       </c>
       <c r="C82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E82" t="s">
@@ -26381,11 +26376,11 @@
         <v>2584</v>
       </c>
       <c r="C83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E83" t="s">
@@ -26405,11 +26400,11 @@
         <v>2584</v>
       </c>
       <c r="C84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E84" t="s">
@@ -26429,11 +26424,11 @@
         <v>2584</v>
       </c>
       <c r="C85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E85" t="s">
@@ -26453,11 +26448,11 @@
         <v>2584</v>
       </c>
       <c r="C86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E86" t="s">
@@ -26475,11 +26470,11 @@
         <v>2584</v>
       </c>
       <c r="C87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E87" t="s">
@@ -26496,11 +26491,11 @@
         <v>2584</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>modules/cybermancy/assets/icons/domains/drone-harness.png</v>
       </c>
       <c r="D88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -26549,11 +26544,11 @@
         <v>2584</v>
       </c>
       <c r="C89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E89" t="s">
@@ -42182,7 +42177,7 @@
       <c r="B3" t="s">
         <v>1227</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="25" t="s">
         <v>3529</v>
       </c>
       <c r="D3" t="s">
@@ -42244,7 +42239,7 @@
       <c r="B4" t="s">
         <v>1227</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>3530</v>
       </c>
       <c r="D4" t="s">
@@ -48042,11 +48037,933 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A122F37-BC43-48BE-AB13-E3113803BE91}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="52.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="30.08984375" customWidth="1"/>
+    <col min="6" max="6" width="55.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3419</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>2950</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>2953</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>3641</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>3645</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>3651</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>3692</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3754</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="str">
+        <f>LOWER(SUBSTITUTE(A2, " ", "-"))</f>
+        <v>black-ice</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"modules/cybermancy/assets/icons/ice/" &amp; E2 &amp; ".webp"</f>
+        <v>modules/cybermancy/assets/icons/ice/black-ice.webp</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3693</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3643</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3695</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E21" si="0">LOWER(SUBSTITUTE(A3, " ", "-"))</f>
+        <v>tar-pit</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F21" si="1">"modules/cybermancy/assets/icons/ice/" &amp; E3 &amp; ".webp"</f>
+        <v>modules/cybermancy/assets/icons/ice/tar-pit.webp</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3696</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3642</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>brainstorm</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/brainstorm.webp</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3698</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3644</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3699</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>data-hound</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/data-hound.webp</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3700</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3642</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3701</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>mirror-maze</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/mirror-maze.webp</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3702</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3644</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3703</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3759</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>kraken-ice</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/kraken-ice.webp</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3704</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3643</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3705</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3760</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>siren</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/siren.webp</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3706</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3642</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3707</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3761</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>firewall-hydra</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/firewall-hydra.webp</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3708</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3642</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3709</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>sleaze-gate</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/sleaze-gate.webp</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3710</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3644</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3711</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3763</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>grinder</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/grinder.webp</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3712</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3642</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3713</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3764</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>zero-mirror</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/zero-mirror.webp</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3714</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3642</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3715</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>frostline</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/frostline.webp</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3716</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3642</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3717</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>daemon-host</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/daemon-host.webp</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3718</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3643</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3719</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>scrambler-field</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/scrambler-field.webp</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3720</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3644</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3721</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3768</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>eclipse-wall</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/eclipse-wall.webp</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3722</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3642</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3723</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3769</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>soulcatcher</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/soulcatcher.webp</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3724</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3643</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3725</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3770</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>overseer-protocol</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/overseer-protocol.webp</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3726</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3642</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3727</v>
+      </c>
+      <c r="M18" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>ash-cloud</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/ash-cloud.webp</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3728</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3644</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3729</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3772</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>neural-ripper</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/neural-ripper.webp</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3730</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3643</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3731</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>heaven’s-gate</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/ice/heaven’s-gate.webp</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3732</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3687</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3694</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3733</v>
+      </c>
+      <c r="M21" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AFC9BA-A28C-4118-8289-DF8F8614B9DC}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:K14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48089,13 +49006,13 @@
         <v>2953</v>
       </c>
       <c r="I1" s="29" t="s">
+        <v>3641</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>3645</v>
+      </c>
+      <c r="K1" s="26" t="s">
         <v>3651</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>3655</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>3661</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -48103,10 +49020,10 @@
         <v>3634</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3641</v>
+        <v>3775</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -48126,10 +49043,10 @@
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="J2" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K2" t="s">
         <v>3635</v>
@@ -48137,73 +49054,73 @@
     </row>
     <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3657</v>
+        <v>3647</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3639</v>
+        <v>3776</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E13" si="0">LOWER(SUBSTITUTE(A3, " ", "-"))</f>
+        <f>LOWER(SUBSTITUTE(A3, " ", "-"))</f>
         <v>emp-shells</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F14" si="1">"modules/cybermancy/assets/icons/consumables/ammo/" &amp; E3 &amp; ".webp"</f>
+        <f t="shared" ref="F3:F14" si="0">"modules/cybermancy/assets/icons/consumables/ammo/" &amp; E3 &amp; ".webp"</f>
         <v>modules/cybermancy/assets/icons/consumables/ammo/emp-shells.webp</v>
       </c>
       <c r="G3" t="s">
-        <v>3657</v>
+        <v>3647</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="J3" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K3" t="s">
         <v>3635</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3644</v>
+        <v>3640</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3645</v>
+        <v>3777</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="str">
+        <f>LOWER(SUBSTITUTE(A4, " ", "-"))</f>
+        <v>toxic-rounds</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>toxic-rounds</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/toxic-rounds.webp</v>
       </c>
       <c r="G4" t="s">
-        <v>3644</v>
+        <v>3640</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>3654</v>
+        <v>3644</v>
       </c>
       <c r="J4" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K4" t="s">
         <v>3635</v>
@@ -48211,36 +49128,36 @@
     </row>
     <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3642</v>
+        <v>3778</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="str">
+        <f>LOWER(SUBSTITUTE(A5, " ", "-"))</f>
+        <v>breeching-shells</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>breeching-shells</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/breeching-shells.webp</v>
       </c>
       <c r="G5" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="H5" t="s">
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="J5" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K5" t="s">
         <v>3635</v>
@@ -48251,20 +49168,20 @@
         <v>3636</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3646</v>
+        <v>3779</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="str">
+        <f>LOWER(SUBSTITUTE(A6, " ", "-"))</f>
+        <v>thermobaric-rounds</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>thermobaric-rounds</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/thermobaric-rounds.webp</v>
       </c>
       <c r="G6" t="s">
@@ -48274,47 +49191,47 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="J6" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K6" t="s">
         <v>3635</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3658</v>
+        <v>3648</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3643</v>
+        <v>3780</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="str">
+        <f>LOWER(SUBSTITUTE(A7, " ", "-"))</f>
+        <v>armor-piercing-rounds</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>armor-piercing-rounds</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/armor-piercing-rounds.webp</v>
       </c>
       <c r="G7" t="s">
-        <v>3658</v>
+        <v>3648</v>
       </c>
       <c r="H7" t="s">
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>3654</v>
+        <v>3644</v>
       </c>
       <c r="J7" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K7" t="s">
         <v>3635</v>
@@ -48322,36 +49239,36 @@
     </row>
     <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>3659</v>
+        <v>3649</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3647</v>
+        <v>3781</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="str">
+        <f>LOWER(SUBSTITUTE(A8, " ", "-"))</f>
+        <v>nanite-rounds</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>nanite-rounds</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/nanite-rounds.webp</v>
       </c>
       <c r="G8" t="s">
-        <v>3659</v>
+        <v>3649</v>
       </c>
       <c r="H8" t="s">
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="J8" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K8" t="s">
         <v>3635</v>
@@ -48359,60 +49276,60 @@
     </row>
     <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3660</v>
+        <v>3650</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3648</v>
+        <v>3782</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="str">
+        <f>LOWER(SUBSTITUTE(A9, " ", "-"))</f>
+        <v>sonic-rounds</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>sonic-rounds</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/sonic-rounds.webp</v>
       </c>
       <c r="G9" t="s">
-        <v>3660</v>
+        <v>3650</v>
       </c>
       <c r="H9" t="s">
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="J9" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K9" t="s">
         <v>3635</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3637</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>3649</v>
+        <v>3783</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="str">
+        <f>LOWER(SUBSTITUTE(A10, " ", "-"))</f>
+        <v>cryo-slugs</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>cryo-slugs</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/cryo-slugs.webp</v>
       </c>
       <c r="G10" t="s">
@@ -48422,10 +49339,10 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="J10" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K10" t="s">
         <v>3635</v>
@@ -48436,20 +49353,20 @@
         <v>3638</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3650</v>
+        <v>3784</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="str">
+        <f>LOWER(SUBSTITUTE(A11, " ", "-"))</f>
+        <v>data-spike-rounds</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>data-spike-rounds</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/data-spike-rounds.webp</v>
       </c>
       <c r="G11" t="s">
@@ -48459,10 +49376,10 @@
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="J11" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K11" t="s">
         <v>3635</v>
@@ -48470,36 +49387,36 @@
     </row>
     <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>3715</v>
+        <v>3690</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>3716</v>
+        <v>3785</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="str">
+        <f>LOWER(SUBSTITUTE(A12, " ", "-"))</f>
+        <v>tracker-rounds</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>tracker-rounds</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/tracker-rounds.webp</v>
       </c>
       <c r="G12" t="s">
-        <v>3715</v>
+        <v>3690</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="J12" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K12" t="s">
         <v>3635</v>
@@ -48507,36 +49424,36 @@
     </row>
     <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3714</v>
+        <v>3689</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>3717</v>
+        <v>3786</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="str">
+        <f>LOWER(SUBSTITUTE(A13, " ", "-"))</f>
+        <v>tracer-rounds</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>tracer-rounds</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/tracer-rounds.webp</v>
       </c>
       <c r="G13" t="s">
-        <v>3714</v>
+        <v>3689</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="J13" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K13" t="s">
         <v>3635</v>
@@ -48544,961 +49461,39 @@
     </row>
     <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>3681</v>
+        <v>3664</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>1225</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>3719</v>
+        <v>3787</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ref="E14" si="2">LOWER(SUBSTITUTE(A14, " ", "-"))</f>
+        <f t="shared" ref="E14" si="1">LOWER(SUBSTITUTE(A14, " ", "-"))</f>
         <v>reactive-shrapnel-shells</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/consumables/ammo/reactive-shrapnel-shells.webp</v>
       </c>
       <c r="G14" t="s">
-        <v>3681</v>
+        <v>3664</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="J14" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="K14" t="s">
         <v>3635</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A122F37-BC43-48BE-AB13-E3113803BE91}">
-  <dimension ref="A1:M21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="52.36328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="30.08984375" customWidth="1"/>
-    <col min="6" max="6" width="55.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3419</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>2950</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>2953</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>3651</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>3655</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>3661</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>3725</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>3807</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3787</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="str">
-        <f>LOWER(SUBSTITUTE(A2, " ", "-"))</f>
-        <v>black-ice</v>
-      </c>
-      <c r="F2" t="str">
-        <f>"modules/cybermancy/assets/icons/ice/" &amp; E2 &amp; ".webp"</f>
-        <v>modules/cybermancy/assets/icons/ice/black-ice.webp</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3726</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3653</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3728</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3729</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3788</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E21" si="0">LOWER(SUBSTITUTE(A3, " ", "-"))</f>
-        <v>tar-pit</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F21" si="1">"modules/cybermancy/assets/icons/ice/" &amp; E3 &amp; ".webp"</f>
-        <v>modules/cybermancy/assets/icons/ice/tar-pit.webp</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3729</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3652</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3730</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3731</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3789</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>brainstorm</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/brainstorm.webp</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3731</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3654</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3732</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3790</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>data-hound</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/data-hound.webp</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3733</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" t="s">
-        <v>3652</v>
-      </c>
-      <c r="J5" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L5" t="s">
-        <v>3734</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3791</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>mirror-maze</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/mirror-maze.webp</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3735</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3654</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L6" t="s">
-        <v>3736</v>
-      </c>
-      <c r="M6" t="s">
-        <v>3771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3737</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>kraken-ice</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/kraken-ice.webp</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3737</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3653</v>
-      </c>
-      <c r="J7" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K7" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L7" t="s">
-        <v>3738</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>3739</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3793</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>siren</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/siren.webp</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3739</v>
-      </c>
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3652</v>
-      </c>
-      <c r="J8" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K8" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L8" t="s">
-        <v>3740</v>
-      </c>
-      <c r="M8" t="s">
-        <v>3773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3741</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3794</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>firewall-hydra</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/firewall-hydra.webp</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3741</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>3652</v>
-      </c>
-      <c r="J9" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K9" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L9" t="s">
-        <v>3742</v>
-      </c>
-      <c r="M9" t="s">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3743</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3795</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>sleaze-gate</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/sleaze-gate.webp</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3743</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>3654</v>
-      </c>
-      <c r="J10" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K10" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L10" t="s">
-        <v>3744</v>
-      </c>
-      <c r="M10" t="s">
-        <v>3775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>3745</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3796</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>grinder</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/grinder.webp</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3745</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" t="s">
-        <v>3652</v>
-      </c>
-      <c r="J11" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L11" t="s">
-        <v>3746</v>
-      </c>
-      <c r="M11" t="s">
-        <v>3776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>3747</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>zero-mirror</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/zero-mirror.webp</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3747</v>
-      </c>
-      <c r="H12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" t="s">
-        <v>3652</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L12" t="s">
-        <v>3748</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3749</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>3798</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>frostline</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/frostline.webp</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3749</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s">
-        <v>3652</v>
-      </c>
-      <c r="J13" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L13" t="s">
-        <v>3750</v>
-      </c>
-      <c r="M13" t="s">
-        <v>3778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>3751</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3799</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>daemon-host</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/daemon-host.webp</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3751</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>3653</v>
-      </c>
-      <c r="J14" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K14" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L14" t="s">
-        <v>3752</v>
-      </c>
-      <c r="M14" t="s">
-        <v>3779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>3753</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3800</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>scrambler-field</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/scrambler-field.webp</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3753</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" t="s">
-        <v>3654</v>
-      </c>
-      <c r="J15" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K15" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L15" t="s">
-        <v>3754</v>
-      </c>
-      <c r="M15" t="s">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>3755</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>3801</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>eclipse-wall</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/eclipse-wall.webp</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3755</v>
-      </c>
-      <c r="H16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" t="s">
-        <v>3652</v>
-      </c>
-      <c r="J16" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K16" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L16" t="s">
-        <v>3756</v>
-      </c>
-      <c r="M16" t="s">
-        <v>3781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>3757</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>3802</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>soulcatcher</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/soulcatcher.webp</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3757</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>3653</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K17" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L17" t="s">
-        <v>3758</v>
-      </c>
-      <c r="M17" t="s">
-        <v>3782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>3759</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>3803</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>overseer-protocol</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/overseer-protocol.webp</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3759</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>3652</v>
-      </c>
-      <c r="J18" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K18" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L18" t="s">
-        <v>3760</v>
-      </c>
-      <c r="M18" t="s">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>3761</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>3804</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>ash-cloud</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/ash-cloud.webp</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3761</v>
-      </c>
-      <c r="H19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" t="s">
-        <v>3654</v>
-      </c>
-      <c r="J19" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K19" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L19" t="s">
-        <v>3762</v>
-      </c>
-      <c r="M19" t="s">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>3763</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>3805</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>neural-ripper</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/neural-ripper.webp</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3763</v>
-      </c>
-      <c r="H20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" t="s">
-        <v>3653</v>
-      </c>
-      <c r="J20" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L20" t="s">
-        <v>3764</v>
-      </c>
-      <c r="M20" t="s">
-        <v>3785</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>3765</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>3806</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>heaven’s-gate</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>modules/cybermancy/assets/icons/ice/heaven’s-gate.webp</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3765</v>
-      </c>
-      <c r="H21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" t="s">
-        <v>3705</v>
-      </c>
-      <c r="J21" t="s">
-        <v>3727</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3727</v>
-      </c>
-      <c r="L21" t="s">
-        <v>3766</v>
-      </c>
-      <c r="M21" t="s">
-        <v>3786</v>
       </c>
     </row>
   </sheetData>
@@ -49510,8 +49505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A461A024-869F-452E-8FA7-6850F3F5966C}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49544,613 +49539,613 @@
         <v>2</v>
       </c>
       <c r="G1" s="29" t="s">
+        <v>3641</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>3645</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>3651</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>3655</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>3661</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>3704</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="A2" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B2" t="s">
         <v>1227</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3662</v>
+        <v>3788</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>3702</v>
+        <v>3684</v>
       </c>
       <c r="F2" t="str">
         <f>"modules/cybermancy/assets/icons/mods/" &amp; E2 &amp; ".webp"</f>
         <v>modules/cybermancy/assets/icons/mods/smartlink.webp</v>
       </c>
       <c r="G2" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" t="s">
         <v>3088</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" t="s">
         <v>1227</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3663</v>
+        <v>3789</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>3683</v>
+        <v>3665</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F21" si="0">"modules/cybermancy/assets/icons/mods/" &amp; E3 &amp; ".webp"</f>
         <v>modules/cybermancy/assets/icons/mods/ballistic-enhancement-barrel.webp</v>
       </c>
       <c r="G3" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3665</v>
-      </c>
-      <c r="B4" s="33" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B4" t="s">
         <v>1227</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3666</v>
+        <v>3790</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>3684</v>
+        <v>3666</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/aim-assist.webp</v>
       </c>
       <c r="G4" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+      <c r="A5" t="s">
         <v>3092</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" t="s">
         <v>1227</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3667</v>
+        <v>3791</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>3685</v>
+        <v>3667</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/ballistic-servo-sight.webp</v>
       </c>
       <c r="G5" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+      <c r="A6" t="s">
         <v>3095</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" t="s">
         <v>1227</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3668</v>
+        <v>3804</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>3686</v>
+        <v>3668</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/shock-damping-frame.webp</v>
       </c>
       <c r="G6" t="s">
-        <v>3654</v>
+        <v>3644</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
-        <v>3703</v>
-      </c>
-      <c r="B7" s="33" t="s">
+      <c r="A7" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B7" t="s">
         <v>1227</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3720</v>
+        <v>3792</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>3687</v>
+        <v>3669</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/telescopic-sight-mki.webp</v>
       </c>
       <c r="G7" t="s">
-        <v>3654</v>
+        <v>3644</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
+      <c r="A8" t="s">
         <v>3089</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" t="s">
         <v>1227</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3709</v>
+        <v>3793</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>3688</v>
+        <v>3670</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/reactive-ammo-loader.webp</v>
       </c>
       <c r="G8" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
-        <v>3664</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="A9" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B9" t="s">
         <v>1227</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>3721</v>
+      <c r="C9" s="32" t="s">
+        <v>3794</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>3689</v>
+        <v>3671</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/laser-sight.webp</v>
       </c>
       <c r="G9" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3670</v>
-      </c>
-      <c r="B10" s="33" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B10" t="s">
         <v>1227</v>
       </c>
       <c r="C10" t="s">
-        <v>3722</v>
+        <v>3805</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>3690</v>
+        <v>3672</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/gyro-stabilizer.webp</v>
       </c>
       <c r="G10" t="s">
-        <v>3654</v>
+        <v>3644</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>3671</v>
-      </c>
-      <c r="B11" s="33" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B11" t="s">
         <v>1227</v>
       </c>
       <c r="C11" t="s">
-        <v>3706</v>
+        <v>3795</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>3691</v>
+        <v>3673</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/caseless-high-cap-mag.webp</v>
       </c>
       <c r="G11" t="s">
-        <v>3654</v>
+        <v>3644</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>3672</v>
-      </c>
-      <c r="B12" s="33" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B12" t="s">
         <v>1227</v>
       </c>
       <c r="C12" t="s">
-        <v>3707</v>
+        <v>3796</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>3692</v>
+        <v>3674</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/armor-piercing-slug-rail.webp</v>
       </c>
       <c r="G12" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3673</v>
-      </c>
-      <c r="B13" s="33" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B13" t="s">
         <v>1227</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>3708</v>
+      <c r="C13" t="s">
+        <v>3797</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>3693</v>
+        <v>3675</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/subsonic-suppressor.webp</v>
       </c>
       <c r="G13" t="s">
-        <v>3654</v>
+        <v>3644</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>3674</v>
-      </c>
-      <c r="B14" s="33" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B14" t="s">
         <v>1227</v>
       </c>
       <c r="C14" t="s">
-        <v>3710</v>
+        <v>3798</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>3694</v>
+        <v>3676</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/flash-diverter-(strobe-muzzle).webp</v>
       </c>
       <c r="G14" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>3723</v>
-      </c>
-      <c r="B15" s="33" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B15" t="s">
         <v>1227</v>
       </c>
       <c r="C15" t="s">
-        <v>3724</v>
+        <v>3799</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>3695</v>
+        <v>3677</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/recoildamp-armature.webp</v>
       </c>
       <c r="G15" t="s">
-        <v>3654</v>
+        <v>3644</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>3712</v>
-      </c>
-      <c r="B16" s="33" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B16" t="s">
         <v>1227</v>
       </c>
       <c r="C16" t="s">
-        <v>3713</v>
+        <v>3800</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>3696</v>
+        <v>3678</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/monofilament-edge-adapter.webp</v>
       </c>
       <c r="G16" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>3675</v>
-      </c>
-      <c r="B17" s="33" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B17" t="s">
         <v>1227</v>
       </c>
       <c r="C17" t="s">
-        <v>3711</v>
+        <v>3806</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>3697</v>
+        <v>3679</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/adaptive-ballistics-computer.webp</v>
       </c>
       <c r="G17" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>3676</v>
-      </c>
-      <c r="B18" s="33" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B18" t="s">
         <v>1227</v>
       </c>
       <c r="C18" t="s">
-        <v>3677</v>
+        <v>3801</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>3698</v>
+        <v>3680</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/gauss-coil-retrofit.webp</v>
       </c>
       <c r="G18" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>3678</v>
-      </c>
-      <c r="B19" s="33" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B19" t="s">
         <v>1227</v>
       </c>
       <c r="C19" t="s">
-        <v>3679</v>
+        <v>3802</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>3699</v>
+        <v>3681</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/holo-displacer-camo.webp</v>
       </c>
       <c r="G19" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>3680</v>
-      </c>
-      <c r="B20" s="33" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B20" t="s">
         <v>1227</v>
       </c>
       <c r="C20" t="s">
-        <v>3718</v>
+        <v>3807</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>3700</v>
+        <v>3682</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/smart-safety-override.webp</v>
       </c>
       <c r="G20" t="s">
-        <v>3654</v>
+        <v>3644</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>3681</v>
-      </c>
-      <c r="B21" s="33" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B21" t="s">
         <v>1227</v>
       </c>
       <c r="C21" t="s">
-        <v>3682</v>
+        <v>3803</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>3701</v>
+        <v>3683</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/mods/reactive-shrapnel-shells.webp</v>
       </c>
       <c r="G21" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>3669</v>
+        <v>3654</v>
       </c>
     </row>
   </sheetData>

--- a/pyCybermancy/cybermancy-object-list.xlsx
+++ b/pyCybermancy/cybermancy-object-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Daniel\role-gaming\Cybermancy module development\cybermancy\pyCybermancy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD9A12B-EDF6-41CD-8C93-49F4443F0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E31AA1-0D61-4947-ABD8-26CBFCE73139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="20565" windowWidth="29040" windowHeight="15720" tabRatio="777" firstSheet="2" activeTab="11" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="777" firstSheet="2" activeTab="13" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="7" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7962" uniqueCount="3901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7989" uniqueCount="3921">
   <si>
     <t>name</t>
   </si>
@@ -12733,6 +12733,66 @@
   </si>
   <si>
     <t>Your Primary Drone gains the ability to deploy a linear barrier.  Any creature can gain the Hidden condition by crouching down behind the barrier, but the drone may now gain the Hidden condition from its own portable barrier.</t>
+  </si>
+  <si>
+    <t>attack.name</t>
+  </si>
+  <si>
+    <t>attack.damage</t>
+  </si>
+  <si>
+    <t>experienceName</t>
+  </si>
+  <si>
+    <t>experienceBonus</t>
+  </si>
+  <si>
+    <t>attack.img</t>
+  </si>
+  <si>
+    <t>Choir of Glass knifer</t>
+  </si>
+  <si>
+    <t>Carries a shard knife, low-end AR visor, and a pocket speaker that emits disorienting tones.</t>
+  </si>
+  <si>
+    <t>harass, intimidate, threaten, convert</t>
+  </si>
+  <si>
+    <t>Stab</t>
+  </si>
+  <si>
+    <t>1d6+1</t>
+  </si>
+  <si>
+    <t>Religious argument</t>
+  </si>
+  <si>
+    <t>adversary</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>system.description</t>
+  </si>
+  <si>
+    <t>system.tier</t>
+  </si>
+  <si>
+    <t>system.motivesAndTactics</t>
+  </si>
+  <si>
+    <t>system.notes</t>
+  </si>
+  <si>
+    <t>system.difficulty</t>
+  </si>
+  <si>
+    <t>system.damageThresholds.majorThreshold</t>
+  </si>
+  <si>
+    <t>system.damageThresholds.severeThreshold</t>
   </si>
 </sst>
 </file>
@@ -27304,7 +27364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505CFBCA-2C2D-462D-87B0-C470CF4E2D4D}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD51"/>
     </sheetView>
   </sheetViews>
@@ -30003,12 +30063,137 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3452830-8D2F-4382-81BA-07482F749090}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="8" max="8" width="30.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3919</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3901</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3902</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3905</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LOWER(SUBSTITUTE(A2, " ", "-"))</f>
+        <v>choir-of-glass-knifer</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3907</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3913</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3908</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3909</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3910</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>LOWER(SUBSTITUTE(O2," ", "-"))</f>
+        <v>stab</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3911</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/pyCybermancy/cybermancy-object-list.xlsx
+++ b/pyCybermancy/cybermancy-object-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Daniel\role-gaming\Cybermancy module development\cybermancy\pyCybermancy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E31AA1-0D61-4947-ABD8-26CBFCE73139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA226C7-0DA7-4AD4-8A03-5AE2EA52530F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="777" firstSheet="2" activeTab="13" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
+    <workbookView xWindow="57480" yWindow="20565" windowWidth="29040" windowHeight="15720" tabRatio="777" firstSheet="2" activeTab="13" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="7" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7989" uniqueCount="3921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8033" uniqueCount="3956">
   <si>
     <t>name</t>
   </si>
@@ -12735,21 +12735,12 @@
     <t>Your Primary Drone gains the ability to deploy a linear barrier.  Any creature can gain the Hidden condition by crouching down behind the barrier, but the drone may now gain the Hidden condition from its own portable barrier.</t>
   </si>
   <si>
-    <t>attack.name</t>
-  </si>
-  <si>
-    <t>attack.damage</t>
-  </si>
-  <si>
     <t>experienceName</t>
   </si>
   <si>
     <t>experienceBonus</t>
   </si>
   <si>
-    <t>attack.img</t>
-  </si>
-  <si>
     <t>Choir of Glass knifer</t>
   </si>
   <si>
@@ -12774,25 +12765,139 @@
     <t>standard</t>
   </si>
   <si>
-    <t>system.description</t>
-  </si>
-  <si>
-    <t>system.tier</t>
-  </si>
-  <si>
-    <t>system.motivesAndTactics</t>
-  </si>
-  <si>
-    <t>system.notes</t>
-  </si>
-  <si>
-    <t>system.difficulty</t>
-  </si>
-  <si>
-    <t>system.damageThresholds.majorThreshold</t>
-  </si>
-  <si>
-    <t>system.damageThresholds.severeThreshold</t>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>motivesAndTactics</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>majorThreshold</t>
+  </si>
+  <si>
+    <t>severeThreshold</t>
+  </si>
+  <si>
+    <t>He slashes at you with a glass knife</t>
+  </si>
+  <si>
+    <t>attackBonus</t>
+  </si>
+  <si>
+    <t>attackName</t>
+  </si>
+  <si>
+    <t>attackDescription</t>
+  </si>
+  <si>
+    <t>attackDamage</t>
+  </si>
+  <si>
+    <t>attackRange</t>
+  </si>
+  <si>
+    <t>attackImg</t>
+  </si>
+  <si>
+    <t>systemType</t>
+  </si>
+  <si>
+    <t>Glassmask Lookout</t>
+  </si>
+  <si>
+    <t>Rave Enforcer</t>
+  </si>
+  <si>
+    <t>Echo Runner</t>
+  </si>
+  <si>
+    <t>Pattern-Touched Beggar</t>
+  </si>
+  <si>
+    <t>skulk</t>
+  </si>
+  <si>
+    <t>bruiser</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>ranged</t>
+  </si>
+  <si>
+    <t>hide, flank, divide, profit, escape</t>
+  </si>
+  <si>
+    <t>Wears a cracked, reflective faceplate that hides identity and displays looping memetic patterns. Uses a cheap pistol and a signal whistle tied to Abraxas-pattern frequencies.</t>
+  </si>
+  <si>
+    <t>Implanted subdermal LEDs pulse with hypnotic rhythm. Swings a reinforced baton synchronized to their internal beat-generator.</t>
+  </si>
+  <si>
+    <t>Constant noise maker in combat.  Drops a beat and then beats on you</t>
+  </si>
+  <si>
+    <t>Unpredictable, mumbling fragments of pattern phrases. Carries improvised weapons. Presence causes mild psychic static in their vicinity.</t>
+  </si>
+  <si>
+    <t>confuse, disorient, convert, suborn</t>
+  </si>
+  <si>
+    <t>intimidate, bully, steal, protect</t>
+  </si>
+  <si>
+    <t>harass, confuse, dance, mobility, escape</t>
+  </si>
+  <si>
+    <t>Heavy Pistol</t>
+  </si>
+  <si>
+    <t>Crowbar</t>
+  </si>
+  <si>
+    <t>Sonic Blast</t>
+  </si>
+  <si>
+    <t>Psychic Distrubance</t>
+  </si>
+  <si>
+    <t>Shots fired!</t>
+  </si>
+  <si>
+    <t>This is not what the crowbar was meant for!</t>
+  </si>
+  <si>
+    <t>A disorienting rush of sound</t>
+  </si>
+  <si>
+    <t>Your brain is squeezed from the inside</t>
+  </si>
+  <si>
+    <t>1d6+2</t>
+  </si>
+  <si>
+    <t>1d8</t>
+  </si>
+  <si>
+    <t>1d10+3</t>
+  </si>
+  <si>
+    <t>1d4+2</t>
+  </si>
+  <si>
+    <t>Backstab</t>
+  </si>
+  <si>
+    <t>Unveiled Threats</t>
+  </si>
+  <si>
+    <t>Cacophony</t>
+  </si>
+  <si>
+    <t>Resonance Knowledge</t>
   </si>
 </sst>
 </file>
@@ -30063,20 +30168,21 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3452830-8D2F-4382-81BA-07482F749090}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
     <col min="3" max="3" width="19.90625" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" customWidth="1"/>
     <col min="8" max="8" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30087,19 +30193,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3914</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2945</v>
+        <v>3923</v>
       </c>
       <c r="F1" t="s">
-        <v>3915</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>3917</v>
+        <v>3911</v>
       </c>
       <c r="H1" t="s">
-        <v>3916</v>
+        <v>3912</v>
       </c>
       <c r="I1" t="s">
         <v>25</v>
@@ -30108,93 +30214,362 @@
         <v>42</v>
       </c>
       <c r="K1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3914</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="O1" t="s">
         <v>3918</v>
       </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>3919</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>3920</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="T1" t="s">
         <v>3901</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>3902</v>
       </c>
-      <c r="Q1" t="s">
-        <v>3905</v>
-      </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3903</v>
       </c>
-      <c r="S1" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3906</v>
-      </c>
       <c r="B2" t="s">
-        <v>3912</v>
+        <v>3909</v>
       </c>
       <c r="C2" t="str">
         <f>LOWER(SUBSTITUTE(A2, " ", "-"))</f>
         <v>choir-of-glass-knifer</v>
       </c>
       <c r="D2" t="s">
-        <v>3907</v>
+        <v>3904</v>
       </c>
       <c r="E2" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>3908</v>
+        <v>3905</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="P2" t="s">
-        <v>3910</v>
-      </c>
-      <c r="Q2" t="str">
+        <v>3916</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3948</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="str">
         <f>LOWER(SUBSTITUTE(O2," ", "-"))</f>
         <v>stab</v>
       </c>
-      <c r="R2" t="s">
-        <v>3911</v>
-      </c>
-      <c r="S2">
+      <c r="T2" t="s">
+        <v>3908</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3909</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="0">LOWER(SUBSTITUTE(A3, " ", "-"))</f>
+        <v>glassmask-lookout</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3933</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3928</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3932</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3940</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3944</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3949</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S6" si="1">LOWER(SUBSTITUTE(O3," ", "-"))</f>
+        <v>heavy-pistol</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3952</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3909</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>rave-enforcer</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3934</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3929</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3938</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
         <v>3</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3941</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3945</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3950</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="1"/>
+        <v>crowbar</v>
+      </c>
+      <c r="T4" t="s">
+        <v>3953</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3909</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>echo-runner</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3935</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3930</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3939</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3942</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3946</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3951</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
+        <v>sonic-blast</v>
+      </c>
+      <c r="T5" t="s">
+        <v>3954</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3909</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>pattern-touched-beggar</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3936</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3931</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3937</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3943</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3947</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3907</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
+        <v>psychic-distrubance</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3955</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/pyCybermancy/cybermancy-object-list.xlsx
+++ b/pyCybermancy/cybermancy-object-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Daniel\role-gaming\Cybermancy module development\cybermancy\pyCybermancy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA226C7-0DA7-4AD4-8A03-5AE2EA52530F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3488F3EC-4825-4C6F-ADA1-64C5A0ACBAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="20565" windowWidth="29040" windowHeight="15720" tabRatio="777" firstSheet="2" activeTab="13" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
+    <workbookView xWindow="57495" yWindow="20685" windowWidth="16665" windowHeight="15585" tabRatio="777" activeTab="8" xr2:uid="{15A82952-0862-46EA-9957-B8D36A030377}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="7" r:id="rId1"/>
@@ -21,19 +21,21 @@
     <sheet name="ICE" sheetId="23" r:id="rId6"/>
     <sheet name="Ammo" sheetId="22" r:id="rId7"/>
     <sheet name="Weapon Mods" sheetId="21" r:id="rId8"/>
-    <sheet name="Drone Mods" sheetId="24" r:id="rId9"/>
-    <sheet name="Controlled Lists" sheetId="2" r:id="rId10"/>
-    <sheet name="Domain cards" sheetId="6" r:id="rId11"/>
-    <sheet name="Class and Subclass features" sheetId="15" r:id="rId12"/>
-    <sheet name="ICE Features" sheetId="14" r:id="rId13"/>
-    <sheet name="Adversaries" sheetId="13" r:id="rId14"/>
-    <sheet name="Actions and Effects" sheetId="3" r:id="rId15"/>
-    <sheet name="Foundry VTT Effects list" sheetId="20" r:id="rId16"/>
-    <sheet name="Weapon Features" sheetId="4" r:id="rId17"/>
-    <sheet name="Armor Features" sheetId="9" r:id="rId18"/>
+    <sheet name="Device Access levels" sheetId="25" r:id="rId9"/>
+    <sheet name="Drone Mods" sheetId="24" r:id="rId10"/>
+    <sheet name="Controlled Lists" sheetId="2" r:id="rId11"/>
+    <sheet name="Domain cards" sheetId="6" r:id="rId12"/>
+    <sheet name="Class and Subclass features" sheetId="15" r:id="rId13"/>
+    <sheet name="ICE Features" sheetId="14" r:id="rId14"/>
+    <sheet name="Adversaries" sheetId="13" r:id="rId15"/>
+    <sheet name="Actions and Effects" sheetId="3" r:id="rId16"/>
+    <sheet name="Foundry VTT Effects list" sheetId="20" r:id="rId17"/>
+    <sheet name="Weapon Features" sheetId="4" r:id="rId18"/>
+    <sheet name="Armor Features" sheetId="9" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Domain cards'!$A$1:$S$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Domain cards'!$A$1:$S$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Drone Mods'!$A$1:$G$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8033" uniqueCount="3956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="4006">
   <si>
     <t>name</t>
   </si>
@@ -12898,6 +12900,179 @@
   </si>
   <si>
     <t>Resonance Knowledge</t>
+  </si>
+  <si>
+    <t>itemLoadout</t>
+  </si>
+  <si>
+    <t>item Loadout</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Project Image</t>
+  </si>
+  <si>
+    <t>Create an AR image up to 10'x10'. Any observer can percieve that it is AR with a Difficulty check of this device</t>
+  </si>
+  <si>
+    <t>Access logs</t>
+  </si>
+  <si>
+    <t>Access how this device was used recently</t>
+  </si>
+  <si>
+    <t>Enable or Disable</t>
+  </si>
+  <si>
+    <t>Turn the device on or off</t>
+  </si>
+  <si>
+    <t>Device access level</t>
+  </si>
+  <si>
+    <t>Normal access level</t>
+  </si>
+  <si>
+    <t>Infiltration</t>
+  </si>
+  <si>
+    <t>Blinding Flash</t>
+  </si>
+  <si>
+    <t>Any creature facing this device must make a Reaction check agains this device's Difficulty or be blinded</t>
+  </si>
+  <si>
+    <t>Detonate</t>
+  </si>
+  <si>
+    <t>d4 damage to all creatures within Very Close. Make a Reaction check against this device's Difficulty to take half damage.</t>
+  </si>
+  <si>
+    <t>Access protected files</t>
+  </si>
+  <si>
+    <t>Access all files on the device</t>
+  </si>
+  <si>
+    <t>Root access</t>
+  </si>
+  <si>
+    <t>Gain +1 on Infiltration or Control of other devices in the Scene</t>
+  </si>
+  <si>
+    <t>Access unprotected files</t>
+  </si>
+  <si>
+    <t>Access any unprotected files on the device</t>
+  </si>
+  <si>
+    <t>Install backdoor</t>
+  </si>
+  <si>
+    <t>Automatic success at any future attempt to take Control on this device until next Long Rest</t>
+  </si>
+  <si>
+    <t>Lock / unlock</t>
+  </si>
+  <si>
+    <t>Lock or unlock the door that this device is attached to</t>
+  </si>
+  <si>
+    <t>Change passcode</t>
+  </si>
+  <si>
+    <t>Change the passcode until your next Long Rest</t>
+  </si>
+  <si>
+    <t>Booby trap</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Next person that attempts to use this device receives an electric shock doing d8 direct damage and rendering them </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vulnerable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> until the GM spends 1 Fear</t>
+    </r>
+  </si>
+  <si>
+    <t>Set volume</t>
+  </si>
+  <si>
+    <t>Change the level of noise generated by the beacon</t>
+  </si>
+  <si>
+    <t>Set illumination</t>
+  </si>
+  <si>
+    <t>Change the level of light emitted by the beacon</t>
+  </si>
+  <si>
+    <t>Reprogram sound</t>
+  </si>
+  <si>
+    <t>Cause the beacon to emit a new repetative sound at any volume level. The sound illusion can be perceived with a difficulty check equal to the Difficulty of the device</t>
+  </si>
+  <si>
+    <t>Send message</t>
+  </si>
+  <si>
+    <t>Cause the device to emit a message to all subscribed devices and personnel</t>
+  </si>
+  <si>
+    <t>Sniff network traffc</t>
+  </si>
+  <si>
+    <t>Monitor network traffic passing through this device. Make a Spellcasting (Hacking) check to determine the level and depth of information accessed</t>
+  </si>
+  <si>
+    <t>Reroute network traffic</t>
+  </si>
+  <si>
+    <t>Take control of the network traffic passing through this node. Describe the effect you wish to have - Spend 1 Hope and make a Spellcasting (Hacking) check to determine the quality of the outcome</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Alter data</t>
+  </si>
+  <si>
+    <t>Describe the data you wish to alter - Spend 1 Hope and make a Spellcasting (Hacking) check to determine the quality of the outcome</t>
+  </si>
+  <si>
+    <t>Monitor data</t>
+  </si>
+  <si>
+    <t>Monitor the data being generated by this device</t>
+  </si>
+  <si>
+    <t>Control device</t>
+  </si>
+  <si>
+    <t>You can spotlight an action to make this device do anything within its capabilites. Spend 1 Hope and make a Spellcasting (Hacking) check to determine the quality of the outcome</t>
   </si>
 </sst>
 </file>
@@ -13587,13 +13762,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -13635,13 +13810,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -13683,13 +13858,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -13731,13 +13906,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -13779,13 +13954,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -13827,13 +14002,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -13875,13 +14050,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -13923,13 +14098,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -13971,13 +14146,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14019,13 +14194,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14067,13 +14242,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14115,13 +14290,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14163,13 +14338,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14211,13 +14386,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14259,13 +14434,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14307,13 +14482,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14355,13 +14530,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14403,13 +14578,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14451,13 +14626,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14499,13 +14674,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14547,13 +14722,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14595,13 +14770,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14643,13 +14818,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14691,13 +14866,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14739,13 +14914,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14787,13 +14962,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14835,13 +15010,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14883,13 +15058,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14931,13 +15106,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -14979,13 +15154,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -15027,13 +15202,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -15075,13 +15250,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -15123,13 +15298,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -18326,42 +18501,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72752D74-2A44-49A3-AA77-657858ABC6FB}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.26953125" customWidth="1"/>
-    <col min="5" max="5" width="60.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="47.26953125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="60.81640625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.08984375" customWidth="1"/>
-    <col min="20" max="20" width="58.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="58.54296875" customWidth="1"/>
-    <col min="22" max="22" width="30.90625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="18.54296875" customWidth="1"/>
-    <col min="24" max="24" width="57.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="57.36328125" customWidth="1"/>
-    <col min="26" max="26" width="20.90625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.08984375" customWidth="1"/>
+    <col min="21" max="21" width="58.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="58.54296875" customWidth="1"/>
+    <col min="23" max="23" width="30.90625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="18.54296875" customWidth="1"/>
+    <col min="25" max="25" width="57.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="57.36328125" customWidth="1"/>
+    <col min="27" max="27" width="20.90625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -18387,58 +18563,61 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>3956</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1613</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1612</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1395</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1614</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1786</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -18465,39 +18644,42 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="U2" t="str">
-        <f>CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; R2 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; T2 &amp; " in the image generation. " &amp; R2 &amp; " in Cybermancy has the description of: " &amp; V2)</f>
+      <c r="V2" t="str">
+        <f>CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; S2 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; U2 &amp; " in the image generation. " &amp; S2 &amp; " in Cybermancy has the description of: " &amp; W2)</f>
         <v xml:space="preserve">Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by  in the image generation. hitPoints in Cybermancy has the description of: </v>
       </c>
-      <c r="Y2" t="str">
-        <f>CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; V2 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; X2 &amp; " in the image generation. " &amp; V2 &amp; " in Cybermancy has the description of: " &amp; Z2)</f>
+      <c r="Z2" t="str">
+        <f>CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; W2 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; Y2 &amp; " in the image generation. " &amp; W2 &amp; " in Cybermancy has the description of: " &amp; AA2)</f>
         <v xml:space="preserve">Cybermancy image generator thread: generate an image for .png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by  in the image generation.  in Cybermancy has the description of: </v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1276</v>
       </c>
@@ -18524,54 +18706,57 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>1353</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>1355</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>1321</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>24</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>25</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>1397</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>1661</v>
       </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3:U47" si="1">CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; R3 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; T3 &amp; " in the image generation. " &amp; R3 &amp; " in Cybermancy has the description of: " &amp; V3)</f>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V47" si="1">CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; S3 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; U3 &amp; " in the image generation. " &amp; S3 &amp; " in Cybermancy has the description of: " &amp; W3)</f>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/lethal-edge.webp in the image generation. hitPoints in Cybermancy has the description of:  On a Hope win, deal Severe damage if the Fear die shows 8-12.</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>1398</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>1477</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>1700</v>
       </c>
-      <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y47" si="2">CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; V3 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; X3 &amp; " in the image generation. " &amp; V3 &amp; " in Cybermancy has the description of: " &amp; Z3)</f>
+      <c r="Z3" t="str">
+        <f t="shared" ref="Z3:Z47" si="2">CONCATENATE("Cybermancy image generator thread: generate an image for " &amp; W3 &amp;  ".png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by " &amp; Y3 &amp; " in the image generation. " &amp; W3 &amp; " in Cybermancy has the description of: " &amp; AA3)</f>
         <v>Cybermancy image generator thread: generate an image for  On a Hope win, deal Severe damage if the Fear die shows 8-12..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/slice-in-two.webp in the image generation.  On a Hope win, deal Severe damage if the Fear die shows 8-12. in Cybermancy has the description of:  Sever or disable a limb, item, or piece of cover.</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1277</v>
       </c>
@@ -18598,57 +18783,60 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>1267</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>1356</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>1331</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>24</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>25</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>1399</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>1662</v>
       </c>
-      <c r="U4" t="str">
+      <c r="V4" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/concealed.webp in the image generation. hitPoints in Cybermancy has the description of:  Can be hidden; gain advantage on your first attack each scene.</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>1479</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>1701</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="Z4" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Can be hidden; gain advantage on your first attack each scene..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/ambush-kill.webp in the image generation.  Can be hidden; gain advantage on your first attack each scene. in Cybermancy has the description of:  If striking from surprise, escalate Fear consequences for target.</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1278</v>
       </c>
@@ -18675,54 +18863,57 @@
         <v>27</v>
       </c>
       <c r="I5" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>1351</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>1357</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>1322</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>24</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>25</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>1401</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>1663</v>
       </c>
-      <c r="U5" t="str">
+      <c r="V5" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/stunning.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend a Hope on a successful hit to inflict Dazed for one round.</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>1481</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>1702</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="Z5" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Spend a Hope on a successful hit to inflict Dazed for one round..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/knockout.webp in the image generation.  Spend a Hope on a successful hit to inflict Dazed for one round. in Cybermancy has the description of:  Target is stunned or unconscious for one scene beat.</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1279</v>
       </c>
@@ -18749,54 +18940,57 @@
         <v>27</v>
       </c>
       <c r="I6" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>21</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>1358</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>1323</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>24</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>25</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>1403</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>1664</v>
       </c>
-      <c r="U6" t="str">
+      <c r="V6" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/piercing.webp in the image generation. hitPoints in Cybermancy has the description of:  Ignores armor on a Hope critical.</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>1483</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>1703</v>
       </c>
-      <c r="Y6" t="str">
+      <c r="Z6" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Ignores armor on a Hope critical..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/silent-kill.webp in the image generation.  Ignores armor on a Hope critical. in Cybermancy has the description of:  Disable one target silently with no alert escalation.</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1280</v>
       </c>
@@ -18823,54 +19017,57 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>1352</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>1355</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>1324</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>24</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>25</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>1405</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>1665</v>
       </c>
-      <c r="U7" t="str">
+      <c r="V7" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/smartlink.webp in the image generation. hitPoints in Cybermancy has the description of:  Once per scene, reroll one attack die if linked to cyberware/gear.</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>1485</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>1704</v>
       </c>
-      <c r="Y7" t="str">
+      <c r="Z7" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Once per scene, reroll one attack die if linked to cyberware/gear..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/pinpoint.webp in the image generation.  Once per scene, reroll one attack die if linked to cyberware/gear. in Cybermancy has the description of:  Crit ignores cover; disable weapon/armor.</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="AA7" s="4" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1281</v>
       </c>
@@ -18897,54 +19094,57 @@
         <v>18</v>
       </c>
       <c r="I8" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>1351</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>1358</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>1325</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>24</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>25</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>1407</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>1666</v>
       </c>
-      <c r="U8" t="str">
+      <c r="V8" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/burst-fire.webp in the image generation. hitPoints in Cybermancy has the description of:  Mark 1 Stress to attack an additional target in Close range.</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>1487</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>1705</v>
       </c>
-      <c r="Y8" t="str">
+      <c r="Z8" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Mark 1 Stress to attack an additional target in Close range..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/spray-down.webp in the image generation.  Mark 1 Stress to attack an additional target in Close range. in Cybermancy has the description of:  Hit all targets in Very Close range with collateral fire.</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1282</v>
       </c>
@@ -18971,54 +19171,57 @@
         <v>18</v>
       </c>
       <c r="I9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>1352</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>22</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>1326</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>24</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>25</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>1409</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>1667</v>
       </c>
-      <c r="U9" t="str">
+      <c r="V9" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/suppressive-fire.webp in the image generation. hitPoints in Cybermancy has the description of:  On a Hope win, target must mark 1 Stress to act next turn.</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>1410</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>1489</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>1706</v>
       </c>
-      <c r="Y9" t="str">
+      <c r="Z9" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  On a Hope win, target must mark 1 Stress to act next turn..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/shredding-burst.webp in the image generation.  On a Hope win, target must mark 1 Stress to act next turn. in Cybermancy has the description of:  Force enemy into cover, reducing their next attack roll.</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1283</v>
       </c>
@@ -19045,54 +19248,57 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>1351</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>1356</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>1327</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>24</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>25</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>1411</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>1668</v>
       </c>
-      <c r="U10" t="str">
+      <c r="V10" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/scatter.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend a Hope to attack all targets in Very Close range.</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>1491</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>1707</v>
       </c>
-      <c r="Y10" t="str">
+      <c r="Z10" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Spend a Hope to attack all targets in Very Close range..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/point-blank-devastation.webp in the image generation.  Spend a Hope to attack all targets in Very Close range. in Cybermancy has the description of:  Knock back and lose next action.</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1284</v>
       </c>
@@ -19119,54 +19325,57 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>1354</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>1359</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>1328</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>24</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>25</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>1413</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>1669</v>
       </c>
-      <c r="U11" t="str">
+      <c r="V11" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/scoped.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend a round aiming to gain advantage on next shot.</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>1414</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>1493</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>1708</v>
       </c>
-      <c r="Y11" t="str">
+      <c r="Z11" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Spend a round aiming to gain advantage on next shot..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/through-and-through.webp in the image generation.  Spend a round aiming to gain advantage on next shot. in Cybermancy has the description of:  Bullet passes through to a second target in line.</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1285</v>
       </c>
@@ -19193,54 +19402,57 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>1351</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>1358</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>1329</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>24</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>25</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>1415</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>1670</v>
       </c>
-      <c r="U12" t="str">
+      <c r="V12" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/quick-draw.webp in the image generation. hitPoints in Cybermancy has the description of:  May be used as a reaction against melee attackers.</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>1495</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>1709</v>
       </c>
-      <c r="Y12" t="str">
+      <c r="Z12" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  May be used as a reaction against melee attackers..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/pinning-strike.webp in the image generation.  May be used as a reaction against melee attackers. in Cybermancy has the description of:  Pin targets limb, weapon, or clothing, restricting movement.</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1286</v>
       </c>
@@ -19267,54 +19479,57 @@
         <v>27</v>
       </c>
       <c r="I13" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J13" t="s">
         <v>20</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>1352</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>22</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>1330</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>24</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>25</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>1417</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>1671</v>
       </c>
-      <c r="U13" t="str">
+      <c r="V13" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/explosive.webp in the image generation. hitPoints in Cybermancy has the description of:  On Hope win, half damage to all in Close range.</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>1496</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>1710</v>
       </c>
-      <c r="Y13" t="str">
+      <c r="Z13" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  On Hope win, half damage to all in Close range..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/shrapnel-storm.webp in the image generation.  On Hope win, half damage to all in Close range. in Cybermancy has the description of:  All enemies in area take full damage and mark 1 Stress.</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1287</v>
       </c>
@@ -19341,54 +19556,57 @@
         <v>27</v>
       </c>
       <c r="I14" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>1352</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>1359</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>1331</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>24</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>25</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>1419</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>1672</v>
       </c>
-      <c r="U14" t="str">
+      <c r="V14" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/disruptive.webp in the image generation. hitPoints in Cybermancy has the description of:  On hit, drones/tech in range must succeed or shut down 1 round.</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>1498</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>1711</v>
       </c>
-      <c r="Y14" t="str">
+      <c r="Z14" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  On hit, drones/tech in range must succeed or shut down 1 round..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/total-system-crash.webp in the image generation.  On hit, drones/tech in range must succeed or shut down 1 round. in Cybermancy has the description of:  All devices in area disabled until end of scene.</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="AA14" s="4" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1288</v>
       </c>
@@ -19415,54 +19633,57 @@
         <v>27</v>
       </c>
       <c r="I15" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>1353</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>1355</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>1332</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>24</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>25</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>1397</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>1673</v>
       </c>
-      <c r="U15" t="str">
+      <c r="V15" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/lethal-edge.webp in the image generation. hitPoints in Cybermancy has the description of:  On a Hope win, upgrade one damage die to max value.</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>1500</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>1712</v>
       </c>
-      <c r="Y15" t="str">
+      <c r="Z15" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  On a Hope win, upgrade one damage die to max value..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/severance.webp in the image generation.  On a Hope win, upgrade one damage die to max value. in Cybermancy has the description of:  Cut through armor, restraints, or environmental barriers.</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1289</v>
       </c>
@@ -19489,54 +19710,57 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J16" t="s">
         <v>20</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>21</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>1356</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>1328</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>24</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>25</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>1399</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>1674</v>
       </c>
-      <c r="U16" t="str">
+      <c r="V16" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/concealed.webp in the image generation. hitPoints in Cybermancy has the description of:  Cannot be detected by casual scans.</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>1422</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>1502</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>1713</v>
       </c>
-      <c r="Y16" t="str">
+      <c r="Z16" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Cannot be detected by casual scans..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/spinal-strike.webp in the image generation.  Cannot be detected by casual scans. in Cybermancy has the description of:  Target is paralyzed for 1 round.</v>
       </c>
-      <c r="Z16" s="4" t="s">
+      <c r="AA16" s="4" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1290</v>
       </c>
@@ -19563,54 +19787,57 @@
         <v>27</v>
       </c>
       <c r="I17" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J17" t="s">
         <v>20</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>1351</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>1357</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>1326</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>24</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>25</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>1423</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>1675</v>
       </c>
-      <c r="U17" t="str">
+      <c r="V17" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/arc-charge.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend 1 Stress to arc lightning to another Very Close target.</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>1504</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>1714</v>
       </c>
-      <c r="Y17" t="str">
+      <c r="Z17" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Spend 1 Stress to arc lightning to another Very Close target..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/overload.webp in the image generation.  Spend 1 Stress to arc lightning to another Very Close target. in Cybermancy has the description of:  Targets nervous system locks up; they drop gear.</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="AA17" s="4" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1291</v>
       </c>
@@ -19637,54 +19864,57 @@
         <v>27</v>
       </c>
       <c r="I18" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J18" t="s">
         <v>20</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>21</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>1358</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>1333</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>24</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>25</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>1403</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>1676</v>
       </c>
-      <c r="U18" t="str">
+      <c r="V18" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/piercing.webp in the image generation. hitPoints in Cybermancy has the description of:  Ignores 1 level of armor.</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>1425</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>1602</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>1715</v>
       </c>
-      <c r="Y18" t="str">
+      <c r="Z18" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Ignores 1 level of armor..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/assassins-cut.webp in the image generation.  Ignores 1 level of armor. in Cybermancy has the description of:  Severe damage ignoring defenses.</v>
       </c>
-      <c r="Z18" s="4" t="s">
+      <c r="AA18" s="4" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1292</v>
       </c>
@@ -19711,54 +19941,57 @@
         <v>27</v>
       </c>
       <c r="I19" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J19" t="s">
         <v>20</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>1352</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>1355</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>1334</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>24</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>25</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>1405</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>1677</v>
       </c>
-      <c r="U19" t="str">
+      <c r="V19" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/smartlink.webp in the image generation. hitPoints in Cybermancy has the description of:  Auto-correct; reroll a miss once per scene.</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>1506</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>1716</v>
       </c>
-      <c r="Y19" t="str">
+      <c r="Z19" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Auto-correct; reroll a miss once per scene..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/eye-shot.webp in the image generation.  Auto-correct; reroll a miss once per scene. in Cybermancy has the description of:  Disable optics or key sensors.</v>
       </c>
-      <c r="Z19" s="4" t="s">
+      <c r="AA19" s="4" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1293</v>
       </c>
@@ -19785,54 +20018,57 @@
         <v>18</v>
       </c>
       <c r="I20" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J20" t="s">
         <v>20</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>1351</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>1358</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>1335</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>24</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>25</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>1407</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>1666</v>
       </c>
-      <c r="U20" t="str">
+      <c r="V20" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/burst-fire.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend Hope to hit two targets in Close range.</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>1508</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>1717</v>
       </c>
-      <c r="Y20" t="str">
+      <c r="Z20" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Spend Hope to hit two targets in Close range..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/crowd-control.webp in the image generation.  Spend Hope to hit two targets in Close range. in Cybermancy has the description of:  Panic/disrupt all enemies in Very Close range.</v>
       </c>
-      <c r="Z20" s="4" t="s">
+      <c r="AA20" s="4" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1294</v>
       </c>
@@ -19859,54 +20095,57 @@
         <v>18</v>
       </c>
       <c r="I21" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J21" t="s">
         <v>20</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>1352</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>22</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>1336</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>24</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>25</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>1409</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>1667</v>
       </c>
-      <c r="U21" t="str">
+      <c r="V21" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/suppressive-fire.webp in the image generation. hitPoints in Cybermancy has the description of:  On Hope win, all enemies in line of fire mark Stress.</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>1510</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>1718</v>
       </c>
-      <c r="Y21" t="str">
+      <c r="Z21" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  On Hope win, all enemies in line of fire mark Stress..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/armor-break.webp in the image generation.  On Hope win, all enemies in line of fire mark Stress. in Cybermancy has the description of:  Ignore armor; bullets chew through cover.</v>
       </c>
-      <c r="Z21" s="4" t="s">
+      <c r="AA21" s="4" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1295</v>
       </c>
@@ -19933,54 +20172,57 @@
         <v>18</v>
       </c>
       <c r="I22" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J22" t="s">
         <v>20</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>1351</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>1356</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>1337</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>24</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>25</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>1429</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>1678</v>
       </c>
-      <c r="U22" t="str">
+      <c r="V22" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/wide-scatter.webp in the image generation. hitPoints in Cybermancy has the description of:  Attack all targets in Very Close range once per scene.</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="W22" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>1512</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>1719</v>
       </c>
-      <c r="Y22" t="str">
+      <c r="Z22" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Attack all targets in Very Close range once per scene..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/bone-shaker.webp in the image generation.  Attack all targets in Very Close range once per scene. in Cybermancy has the description of:  Target knocked prone and loses next turn.</v>
       </c>
-      <c r="Z22" s="4" t="s">
+      <c r="AA22" s="4" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1296</v>
       </c>
@@ -20007,54 +20249,57 @@
         <v>18</v>
       </c>
       <c r="I23" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J23" t="s">
         <v>20</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>1354</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>1359</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>1336</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>24</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>25</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>1413</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>1669</v>
       </c>
-      <c r="U23" t="str">
+      <c r="V23" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/scoped.webp in the image generation. hitPoints in Cybermancy has the description of:  Aim for advantage; crit chance rises if aiming 1 round.</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>1493</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>1708</v>
       </c>
-      <c r="Y23" t="str">
+      <c r="Z23" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Aim for advantage; crit chance rises if aiming 1 round..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/through-and-through.webp in the image generation.  Aim for advantage; crit chance rises if aiming 1 round. in Cybermancy has the description of:  Shot penetrates multiple targets.</v>
       </c>
-      <c r="Z23" s="4" t="s">
+      <c r="AA23" s="4" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1297</v>
       </c>
@@ -20081,54 +20326,57 @@
         <v>27</v>
       </c>
       <c r="I24" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J24" t="s">
         <v>20</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>1352</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>22</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>1337</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>24</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>25</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>1417</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>1671</v>
       </c>
-      <c r="U24" t="str">
+      <c r="V24" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/explosive.webp in the image generation. hitPoints in Cybermancy has the description of:  Half damage to adjacent zones.</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="W24" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>1515</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>1720</v>
       </c>
-      <c r="Y24" t="str">
+      <c r="Z24" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Half damage to adjacent zones..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/massive-detonation.webp in the image generation.  Half damage to adjacent zones. in Cybermancy has the description of:  Full damage in wider zone (Far).</v>
       </c>
-      <c r="Z24" s="4" t="s">
+      <c r="AA24" s="4" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1298</v>
       </c>
@@ -20155,54 +20403,57 @@
         <v>27</v>
       </c>
       <c r="I25" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J25" t="s">
         <v>20</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>1352</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>1359</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>1321</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>24</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>25</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>1419</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>1672</v>
       </c>
-      <c r="U25" t="str">
+      <c r="V25" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/disruptive.webp in the image generation. hitPoints in Cybermancy has the description of:  Drones/tech roll at Disadvantage.</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="W25" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>1517</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>1721</v>
       </c>
-      <c r="Y25" t="str">
+      <c r="Z25" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Drones/tech roll at Disadvantage..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/grid-blackout.webp in the image generation.  Drones/tech roll at Disadvantage. in Cybermancy has the description of:  All tech shuts down until reboot.</v>
       </c>
-      <c r="Z25" s="4" t="s">
+      <c r="AA25" s="4" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1299</v>
       </c>
@@ -20229,54 +20480,57 @@
         <v>27</v>
       </c>
       <c r="I26" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J26" t="s">
         <v>20</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>1353</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>1355</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>1338</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>24</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>25</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>1397</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>1673</v>
       </c>
-      <c r="U26" t="str">
+      <c r="V26" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/lethal-edge.webp in the image generation. hitPoints in Cybermancy has the description of:  Can slice through vehicles on Hope crit.</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="W26" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>1519</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>1722</v>
       </c>
-      <c r="Y26" t="str">
+      <c r="Z26" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Can slice through vehicles on Hope crit..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/corpse-cutter.webp in the image generation.  Can slice through vehicles on Hope crit. in Cybermancy has the description of:  Destroy one environmental object (door, drone, wall).</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="AA26" s="4" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1300</v>
       </c>
@@ -20303,54 +20557,57 @@
         <v>27</v>
       </c>
       <c r="I27" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J27" t="s">
         <v>20</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>21</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>1356</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>1339</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>24</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>25</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>1435</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>1679</v>
       </c>
-      <c r="U27" t="str">
+      <c r="V27" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/hidden-killer.webp in the image generation. hitPoints in Cybermancy has the description of:  +2 to first attack in combat.</v>
       </c>
-      <c r="V27" s="4" t="s">
+      <c r="W27" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>1521</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>1723</v>
       </c>
-      <c r="Y27" t="str">
+      <c r="Z27" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  +2 to first attack in combat..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/critical-tendons.webp in the image generation.  +2 to first attack in combat. in Cybermancy has the description of:  Cripple targets mobility permanently.</v>
       </c>
-      <c r="Z27" s="4" t="s">
+      <c r="AA27" s="4" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1301</v>
       </c>
@@ -20377,54 +20634,57 @@
         <v>27</v>
       </c>
       <c r="I28" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J28" t="s">
         <v>20</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>1351</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>1357</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>1340</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>24</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>25</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>1437</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>1680</v>
       </c>
-      <c r="U28" t="str">
+      <c r="V28" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/chain-lightning.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend 2 Hope, arc to 2 additional targets.</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="W28" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>1522</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>1724</v>
       </c>
-      <c r="Y28" t="str">
+      <c r="Z28" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Spend 2 Hope, arc to 2 additional targets..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/system-shutdown.webp in the image generation.  Spend 2 Hope, arc to 2 additional targets. in Cybermancy has the description of:  Target incapacitated (stun or KO).</v>
       </c>
-      <c r="Z28" s="4" t="s">
+      <c r="AA28" s="4" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1302</v>
       </c>
@@ -20451,54 +20711,57 @@
         <v>27</v>
       </c>
       <c r="I29" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J29" t="s">
         <v>20</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>21</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>1358</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>1341</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>24</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>25</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>1439</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>1681</v>
       </c>
-      <c r="U29" t="str">
+      <c r="V29" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/high-frequency.webp in the image generation. hitPoints in Cybermancy has the description of:  +2 to all attack rolls this scene after a hit.</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>1524</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>1725</v>
       </c>
-      <c r="Y29" t="str">
+      <c r="Z29" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  +2 to all attack rolls this scene after a hit..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/fatal-wound.webp in the image generation.  +2 to all attack rolls this scene after a hit. in Cybermancy has the description of:  Additional 1d12 bleed damage next turn.</v>
       </c>
-      <c r="Z29" s="4" t="s">
+      <c r="AA29" s="4" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1303</v>
       </c>
@@ -20525,54 +20788,57 @@
         <v>27</v>
       </c>
       <c r="I30" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J30" t="s">
         <v>20</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>1352</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>1355</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>1336</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>24</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>25</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>1441</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>1682</v>
       </c>
-      <c r="U30" t="str">
+      <c r="V30" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/autotarget.webp in the image generation. hitPoints in Cybermancy has the description of:  Always ignore cover.</v>
       </c>
-      <c r="V30" s="4" t="s">
+      <c r="W30" s="4" t="s">
         <v>1442</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>1526</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>1726</v>
       </c>
-      <c r="Y30" t="str">
+      <c r="Z30" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Always ignore cover..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/one-shot-kill.webp in the image generation.  Always ignore cover. in Cybermancy has the description of:  Severe damage ignoring all armor.</v>
       </c>
-      <c r="Z30" s="4" t="s">
+      <c r="AA30" s="4" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1304</v>
       </c>
@@ -20599,54 +20865,57 @@
         <v>18</v>
       </c>
       <c r="I31" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J31" t="s">
         <v>20</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>1351</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>1358</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>1342</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>24</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>25</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>1443</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>1683</v>
       </c>
-      <c r="U31" t="str">
+      <c r="V31" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/bulletstorm.webp in the image generation. hitPoints in Cybermancy has the description of:  Once per rest, attack 3 targets in Close.</v>
       </c>
-      <c r="V31" s="4" t="s">
+      <c r="W31" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>1528</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>1727</v>
       </c>
-      <c r="Y31" t="str">
+      <c r="Z31" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Once per rest, attack 3 targets in Close..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/suppression-killzone.webp in the image generation.  Once per rest, attack 3 targets in Close. in Cybermancy has the description of:  Enemies must Retreat or mark Stress.</v>
       </c>
-      <c r="Z31" s="4" t="s">
+      <c r="AA31" s="4" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1305</v>
       </c>
@@ -20673,54 +20942,57 @@
         <v>18</v>
       </c>
       <c r="I32" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J32" t="s">
         <v>20</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>1352</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>22</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>1343</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>24</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>25</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>1445</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>1684</v>
       </c>
-      <c r="U32" t="str">
+      <c r="V32" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/full-auto.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend Hope, double damage dice.</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="W32" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>1530</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>1728</v>
       </c>
-      <c r="Y32" t="str">
+      <c r="Z32" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Spend Hope, double damage dice..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/critical-barrage.webp in the image generation.  Spend Hope, double damage dice. in Cybermancy has the description of:  Mow down cover, forcing enemies into open.</v>
       </c>
-      <c r="Z32" s="4" t="s">
+      <c r="AA32" s="4" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1306</v>
       </c>
@@ -20747,54 +21019,57 @@
         <v>18</v>
       </c>
       <c r="I33" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J33" t="s">
         <v>20</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>1351</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>1</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>1356</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>1344</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>24</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>25</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>1447</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>1685</v>
       </c>
-      <c r="U33" t="str">
+      <c r="V33" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/knockback.webp in the image generation. hitPoints in Cybermancy has the description of:  Push targets back one range band.</v>
       </c>
-      <c r="V33" s="4" t="s">
+      <c r="W33" s="4" t="s">
         <v>1448</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>1532</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>1729</v>
       </c>
-      <c r="Y33" t="str">
+      <c r="Z33" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Push targets back one range band..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/concussive-blast.webp in the image generation.  Push targets back one range band. in Cybermancy has the description of:  Stun all in Close cone.</v>
       </c>
-      <c r="Z33" s="4" t="s">
+      <c r="AA33" s="4" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1307</v>
       </c>
@@ -20821,54 +21096,57 @@
         <v>18</v>
       </c>
       <c r="I34" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J34" t="s">
         <v>20</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>1354</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>1359</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>1343</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>24</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>25</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>1449</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>1686</v>
       </c>
-      <c r="U34" t="str">
+      <c r="V34" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/penetration.webp in the image generation. hitPoints in Cybermancy has the description of:  Shoot through walls/vehicles.</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="W34" s="4" t="s">
         <v>1450</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>1603</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>1730</v>
       </c>
-      <c r="Y34" t="str">
+      <c r="Z34" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Shoot through walls/vehicles..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/executioners-shot.webp in the image generation.  Shoot through walls/vehicles. in Cybermancy has the description of:  Instantly remove non-boss foe.</v>
       </c>
-      <c r="Z34" s="4" t="s">
+      <c r="AA34" s="4" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1308</v>
       </c>
@@ -20895,54 +21173,57 @@
         <v>27</v>
       </c>
       <c r="I35" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J35" t="s">
         <v>20</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>1352</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>1</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>22</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>1338</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>24</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>25</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>1451</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>1687</v>
       </c>
-      <c r="U35" t="str">
+      <c r="V35" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/fragment-split.webp in the image generation. hitPoints in Cybermancy has the description of:  Hit two separate zones.</v>
       </c>
-      <c r="V35" s="4" t="s">
+      <c r="W35" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>1535</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>1731</v>
       </c>
-      <c r="Y35" t="str">
+      <c r="Z35" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Hit two separate zones..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/kill-zone.webp in the image generation.  Hit two separate zones. in Cybermancy has the description of:  Full damage in all adjacent zones.</v>
       </c>
-      <c r="Z35" s="4" t="s">
+      <c r="AA35" s="4" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1309</v>
       </c>
@@ -20969,54 +21250,57 @@
         <v>27</v>
       </c>
       <c r="I36" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J36" t="s">
         <v>20</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>1352</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>1</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>1359</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>1330</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>24</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>25</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>1453</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>1688</v>
       </c>
-      <c r="U36" t="str">
+      <c r="V36" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/system-overload.webp in the image generation. hitPoints in Cybermancy has the description of:  Devices take 2 rounds to recover.</v>
       </c>
-      <c r="V36" s="4" t="s">
+      <c r="W36" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>1537</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>1732</v>
       </c>
-      <c r="Y36" t="str">
+      <c r="Z36" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Devices take 2 rounds to recover..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/matrix-burnout.webp in the image generation.  Devices take 2 rounds to recover. in Cybermancy has the description of:  Deckers hit take HP damage directly.</v>
       </c>
-      <c r="Z36" s="4" t="s">
+      <c r="AA36" s="4" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1310</v>
       </c>
@@ -21043,54 +21327,57 @@
         <v>27</v>
       </c>
       <c r="I37" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J37" t="s">
         <v>20</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>1353</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>1</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>1355</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>1345</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>24</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>25</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>1455</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>1689</v>
       </c>
-      <c r="U37" t="str">
+      <c r="V37" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/reality-cut.webp in the image generation. hitPoints in Cybermancy has the description of:  Can slice vehicles, turrets, drones.</v>
       </c>
-      <c r="V37" s="4" t="s">
+      <c r="W37" s="4" t="s">
         <v>1456</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>1539</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>1733</v>
       </c>
-      <c r="Y37" t="str">
+      <c r="Z37" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Can slice vehicles, turrets, drones..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/sever-reality.webp in the image generation.  Can slice vehicles, turrets, drones. in Cybermancy has the description of:  Slice environment  create a permanent gap or hazard.</v>
       </c>
-      <c r="Z37" s="4" t="s">
+      <c r="AA37" s="4" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1311</v>
       </c>
@@ -21117,54 +21404,57 @@
         <v>27</v>
       </c>
       <c r="I38" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J38" t="s">
         <v>20</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>21</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>1</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>1356</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>1346</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>24</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>25</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>1457</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>1690</v>
       </c>
-      <c r="U38" t="str">
+      <c r="V38" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/ghost-kill.webp in the image generation. hitPoints in Cybermancy has the description of:  Cannot be tracked by sensors.</v>
       </c>
-      <c r="V38" s="4" t="s">
+      <c r="W38" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>1540</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>1734</v>
       </c>
-      <c r="Y38" t="str">
+      <c r="Z38" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Cannot be tracked by sensors..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/spinal-sever.webp in the image generation.  Cannot be tracked by sensors. in Cybermancy has the description of:  Target permanently disabled unless cybernetically healed.</v>
       </c>
-      <c r="Z38" s="4" t="s">
+      <c r="AA38" s="4" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1312</v>
       </c>
@@ -21191,54 +21481,57 @@
         <v>27</v>
       </c>
       <c r="I39" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J39" t="s">
         <v>20</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>1351</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>1</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>1357</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>1346</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>24</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>25</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>1459</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>1691</v>
       </c>
-      <c r="U39" t="str">
+      <c r="V39" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/overdrive.webp in the image generation. hitPoints in Cybermancy has the description of:  Once per rest, stun all enemies in Close range.</v>
       </c>
-      <c r="V39" s="4" t="s">
+      <c r="W39" s="4" t="s">
         <v>1460</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>1542</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>1735</v>
       </c>
-      <c r="Y39" t="str">
+      <c r="Z39" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Once per rest, stun all enemies in Close range..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/emp-surge.webp in the image generation.  Once per rest, stun all enemies in Close range. in Cybermancy has the description of:  Wipe out all small electronics in scene.</v>
       </c>
-      <c r="Z39" s="4" t="s">
+      <c r="AA39" s="4" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1313</v>
       </c>
@@ -21265,54 +21558,57 @@
         <v>27</v>
       </c>
       <c r="I40" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J40" t="s">
         <v>20</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>21</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>1</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>1358</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>1346</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>24</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>25</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>1461</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>1692</v>
       </c>
-      <c r="U40" t="str">
+      <c r="V40" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/self-sharpening.webp in the image generation. hitPoints in Cybermancy has the description of:  Ignore all armor values.</v>
       </c>
-      <c r="V40" s="4" t="s">
+      <c r="W40" s="4" t="s">
         <v>1462</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>1544</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>1736</v>
       </c>
-      <c r="Y40" t="str">
+      <c r="Z40" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Ignore all armor values..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/critical-dissection.webp in the image generation.  Ignore all armor values. in Cybermancy has the description of:  Narratively kill or disable any single non-boss foe.</v>
       </c>
-      <c r="Z40" s="4" t="s">
+      <c r="AA40" s="4" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1314</v>
       </c>
@@ -21339,54 +21635,57 @@
         <v>27</v>
       </c>
       <c r="I41" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J41" t="s">
         <v>20</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>1352</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>1</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>1355</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>1347</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>24</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>25</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>1463</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>1693</v>
       </c>
-      <c r="U41" t="str">
+      <c r="V41" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/ai-assist.webp in the image generation. hitPoints in Cybermancy has the description of:  Advantage on all ranged rolls.</v>
       </c>
-      <c r="V41" s="4" t="s">
+      <c r="W41" s="4" t="s">
         <v>1464</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>1546</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>1737</v>
       </c>
-      <c r="Y41" t="str">
+      <c r="Z41" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Advantage on all ranged rolls..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/neural-kill.webp in the image generation.  Advantage on all ranged rolls. in Cybermancy has the description of:  Bullet bypasses physical armor; deals Stress + HP.</v>
       </c>
-      <c r="Z41" s="4" t="s">
+      <c r="AA41" s="4" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1315</v>
       </c>
@@ -21413,54 +21712,57 @@
         <v>18</v>
       </c>
       <c r="I42" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J42" t="s">
         <v>20</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>1351</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>1</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>1358</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>1348</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>24</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>25</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>1465</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>1694</v>
       </c>
-      <c r="U42" t="str">
+      <c r="V42" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/gyrostabilized.webp in the image generation. hitPoints in Cybermancy has the description of:  Fire with no recoil penalty.</v>
       </c>
-      <c r="V42" s="4" t="s">
+      <c r="W42" s="4" t="s">
         <v>1466</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>1548</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>1738</v>
       </c>
-      <c r="Y42" t="str">
+      <c r="Z42" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Fire with no recoil penalty..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/critical-spray.webp in the image generation.  Fire with no recoil penalty. in Cybermancy has the description of:  Hit all enemies in Close range automatically.</v>
       </c>
-      <c r="Z42" s="4" t="s">
+      <c r="AA42" s="4" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1316</v>
       </c>
@@ -21487,54 +21789,57 @@
         <v>18</v>
       </c>
       <c r="I43" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J43" t="s">
         <v>20</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>1352</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>1</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>22</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>1349</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>24</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>25</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>1467</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>1695</v>
       </c>
-      <c r="U43" t="str">
+      <c r="V43" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/rail-shot.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend Stress to deal double damage dice.</v>
       </c>
-      <c r="V43" s="4" t="s">
+      <c r="W43" s="4" t="s">
         <v>1468</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>1550</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>1739</v>
       </c>
-      <c r="Y43" t="str">
+      <c r="Z43" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Spend Stress to deal double damage dice..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/hyper-pierce.webp in the image generation.  Spend Stress to deal double damage dice. in Cybermancy has the description of:  Shot tears through multiple enemies/vehicles in a line.</v>
       </c>
-      <c r="Z43" s="4" t="s">
+      <c r="AA43" s="4" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1317</v>
       </c>
@@ -21561,54 +21866,57 @@
         <v>18</v>
       </c>
       <c r="I44" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J44" t="s">
         <v>20</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>1351</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>1</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>1356</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>1349</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>24</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>25</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>1469</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>1696</v>
       </c>
-      <c r="U44" t="str">
+      <c r="V44" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/meltdown.webp in the image generation. hitPoints in Cybermancy has the description of:  Spend Hope to add 1d8 burn damage.</v>
       </c>
-      <c r="V44" s="4" t="s">
+      <c r="W44" s="4" t="s">
         <v>1470</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>1552</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>1740</v>
       </c>
-      <c r="Y44" t="str">
+      <c r="Z44" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Spend Hope to add 1d8 burn damage..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/critical-inferno.webp in the image generation.  Spend Hope to add 1d8 burn damage. in Cybermancy has the description of:  All targets in blast zone catch fire.</v>
       </c>
-      <c r="Z44" s="4" t="s">
+      <c r="AA44" s="4" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1318</v>
       </c>
@@ -21635,54 +21943,57 @@
         <v>18</v>
       </c>
       <c r="I45" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J45" t="s">
         <v>20</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>1354</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>1</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>1359</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>1349</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>24</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>25</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>1471</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>1697</v>
       </c>
-      <c r="U45" t="str">
+      <c r="V45" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/satellite-link.webp in the image generation. hitPoints in Cybermancy has the description of:  Call in orbital fire once per rest.</v>
       </c>
-      <c r="V45" s="4" t="s">
+      <c r="W45" s="4" t="s">
         <v>1472</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>1607</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>1741</v>
       </c>
-      <c r="Y45" t="str">
+      <c r="Z45" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Call in orbital fire once per rest..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/heavens-lance.webp in the image generation.  Call in orbital fire once per rest. in Cybermancy has the description of:  Obliterate target zone, GM narrates consequences.</v>
       </c>
-      <c r="Z45" s="4" t="s">
+      <c r="AA45" s="4" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1319</v>
       </c>
@@ -21709,54 +22020,57 @@
         <v>27</v>
       </c>
       <c r="I46" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J46" t="s">
         <v>20</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>1352</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>1</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>22</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>1350</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>24</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>25</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>1473</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>1698</v>
       </c>
-      <c r="U46" t="str">
+      <c r="V46" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/final-boom.webp in the image generation. hitPoints in Cybermancy has the description of:  Single-use, but massive radius.</v>
       </c>
-      <c r="V46" s="4" t="s">
+      <c r="W46" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>1554</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>1743</v>
       </c>
-      <c r="Y46" t="str">
+      <c r="Z46" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Single-use, but massive radius..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/tactical-nuke-micro.webp in the image generation.  Single-use, but massive radius. in Cybermancy has the description of:  Entire area wiped  citywide consequences.</v>
       </c>
-      <c r="Z46" s="4" t="s">
+      <c r="AA46" s="4" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1320</v>
       </c>
@@ -21783,50 +22097,53 @@
         <v>27</v>
       </c>
       <c r="I47" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J47" t="s">
         <v>20</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>1352</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>1</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>1359</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>1350</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>24</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>25</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>1475</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>1699</v>
       </c>
-      <c r="U47" t="str">
+      <c r="V47" t="str">
         <f t="shared" si="1"/>
         <v>Cybermancy image generator thread: generate an image for hitPoints.png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/weapons-feature/blackout.webp in the image generation. hitPoints in Cybermancy has the description of:  Kill power grid in 1 km radius once per rest.</v>
       </c>
-      <c r="V47" s="4" t="s">
+      <c r="W47" s="4" t="s">
         <v>1476</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>1555</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>1742</v>
       </c>
-      <c r="Y47" t="str">
+      <c r="Z47" t="str">
         <f t="shared" si="2"/>
         <v>Cybermancy image generator thread: generate an image for  Kill power grid in 1 km radius once per rest..png in the size recommended by Foundry VTT for icons.  Focus on the descriptive aspects implied by modules/cybermancy/assets/icons/features/system-collapse.webp in the image generation.  Kill power grid in 1 km radius once per rest. in Cybermancy has the description of:  Entire Matrix zone crashes beyond repair.</v>
       </c>
-      <c r="Z47" s="4" t="s">
+      <c r="AA47" s="4" t="s">
         <v>1556</v>
       </c>
     </row>
@@ -21840,36 +22157,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3466477-CEDE-4560-9CEE-D928858E09B2}">
           <x14:formula1>
             <xm:f>'Controlled Lists'!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q1048576</xm:sqref>
+          <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4E89FD5-FE25-4CFB-A918-FD22073EDC6E}">
           <x14:formula1>
             <xm:f>'Controlled Lists'!$I$2:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R1048576</xm:sqref>
+          <xm:sqref>S2:S1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C03F2E2C-FEEA-4D76-AD53-54682C78D9BF}">
           <x14:formula1>
             <xm:f>'Controlled Lists'!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M1048576</xm:sqref>
+          <xm:sqref>N2:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B078C6EA-DC82-4C08-8677-EAF96D0C98A3}">
           <x14:formula1>
             <xm:f>'Controlled Lists'!$K$2:$K$49</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L1048576</xm:sqref>
+          <xm:sqref>M2:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F369775-DDF2-47A3-800D-EF83EF2F8563}">
           <x14:formula1>
             <xm:f>'Actions and Effects'!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:K1048576</xm:sqref>
+          <xm:sqref>K2:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E686D192-2305-4189-A649-5A945B43EECE}">
           <x14:formula1>
@@ -21889,6 +22206,12 @@
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{92C4D8AB-2E05-4C90-88FB-D6D13AA790D3}">
+          <x14:formula1>
+            <xm:f>'Controlled Lists'!$L$2:$L$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -21896,11 +22219,508 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A0210F-6AD5-4290-AC2A-0367F956D048}">
-  <dimension ref="A1:K49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCFD68C-59DD-4B04-8B60-92ACCE4AA398}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="60.81640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3416</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3896</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F19" si="0">LOWER(SUBSTITUTE(A2, " ", "-"))</f>
+        <v>chemical-analysis-tool</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G19" si="1">"modules/cybermancy/assets/icons/drone-mods/" &amp; F2 &amp; ".webp"</f>
+        <v>modules/cybermancy/assets/icons/drone-mods/chemical-analysis-tool.webp</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3876</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>electronic-surveillance-kit</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/electronic-surveillance-kit.webp</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>grappling-device</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/grappling-device.webp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3884</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3818</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>melee-weapon</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/melee-weapon.webp</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3885</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3874</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>night-vision</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/night-vision.webp</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3898</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>storage-locker</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/storage-locker.webp</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3891</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>submersible</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/submersible.webp</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3808</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>telescope</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/telescope.webp</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3822</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>digger</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/digger.webp</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3882</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>extra-armor</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/extra-armor.webp</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3888</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>extra-weapon</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/extra-weapon.webp</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>grenade</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/grenade.webp</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3875</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>lock-kit</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/lock-kit.webp</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>portable-barrier</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/portable-barrier.webp</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>signal-booster</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/signal-booster.webp</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>signal-jammer</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/signal-jammer.webp</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3890</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3879</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>rocket-launcher</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/rocket-launcher.webp</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3899</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>stealth-shield</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>modules/cybermancy/assets/icons/drone-mods/stealth-shield.webp</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G19" xr:uid="{1FCFD68C-59DD-4B04-8B60-92ACCE4AA398}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
+      <sortCondition ref="E1:E19"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A0210F-6AD5-4290-AC2A-0367F956D048}">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21913,7 +22733,7 @@
     <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -21947,8 +22767,11 @@
       <c r="K1" s="2" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="2" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1083</v>
       </c>
@@ -21982,8 +22805,11 @@
       <c r="K2" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1224</v>
       </c>
@@ -22017,8 +22843,11 @@
       <c r="K3" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -22043,8 +22872,11 @@
       <c r="K4" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1228</v>
       </c>
@@ -22067,7 +22899,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1390</v>
       </c>
@@ -22090,7 +22922,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>33</v>
       </c>
@@ -22104,7 +22936,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>34</v>
       </c>
@@ -22112,42 +22944,42 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K11" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K12" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K13" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K14" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K15" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K16" t="s">
         <v>1243</v>
       </c>
@@ -22323,7 +23155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8134B3E0-0F30-40E4-A4E1-00A26E5811E5}">
   <dimension ref="A1:S89"/>
   <sheetViews>
@@ -27465,7 +28297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505CFBCA-2C2D-462D-87B0-C470CF4E2D4D}">
   <dimension ref="A1:M71"/>
   <sheetViews>
@@ -30058,7 +30890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A08C63D-786F-48AD-B943-04AE296DBD85}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -30166,11 +30998,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3452830-8D2F-4382-81BA-07482F749090}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
@@ -30573,7 +31405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E888BC-20E7-4294-8A2D-BD0A7B31655F}">
   <dimension ref="A1:E530"/>
   <sheetViews>
@@ -39605,7 +40437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEAB126-0109-4623-9075-55EE61BE8294}">
   <dimension ref="A1:B67"/>
   <sheetViews>
@@ -40156,7 +40988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA33895-3184-47ED-9CD0-40CC7512F6C6}">
   <dimension ref="A1:A59"/>
   <sheetViews>
@@ -40427,7 +41259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0C7A3E-12E3-44FA-897C-7CC00A9A6183}">
   <dimension ref="A1:A62"/>
   <sheetViews>
@@ -40677,24 +41509,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6272441A-4F60-45C1-9446-40428F7AE6AD}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.453125" customWidth="1"/>
-    <col min="5" max="5" width="73.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" customWidth="1"/>
+    <col min="4" max="4" width="113" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.453125" customWidth="1"/>
+    <col min="6" max="6" width="73.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1787</v>
       </c>
@@ -40702,22 +41535,25 @@
         <v>1788</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1789</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2187</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1965</v>
       </c>
@@ -40725,24 +41561,27 @@
         <v>1999</v>
       </c>
       <c r="C2" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D2" t="s">
         <v>2000</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <f>SUBSTITUTE(LOWER(B2), " ", "-") &amp; ".webp"</f>
         <v>impact-padded-street-vest.webp</v>
       </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E35" si="0">"modules/cybermancy/assets/icons/armors/" &amp; SUBSTITUTE(LOWER(B2), " ", "-") &amp; ".webp"</f>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F35" si="0">"modules/cybermancy/assets/icons/armors/" &amp; SUBSTITUTE(LOWER(B2), " ", "-") &amp; ".webp"</f>
         <v>modules/cybermancy/assets/icons/armors/impact-padded-street-vest.webp</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1224</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1966</v>
       </c>
@@ -40750,24 +41589,27 @@
         <v>2001</v>
       </c>
       <c r="C3" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D3" t="s">
         <v>2002</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D35" si="1">SUBSTITUTE(LOWER(B3), " ", "-") &amp; ".webp"</f>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E35" si="1">SUBSTITUTE(LOWER(B3), " ", "-") &amp; ".webp"</f>
         <v>kevflex-jacket.webp</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/kevflex-jacket.webp</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>1224</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1967</v>
       </c>
@@ -40775,24 +41617,27 @@
         <v>2003</v>
       </c>
       <c r="C4" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D4" t="s">
         <v>2004</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="1"/>
         <v>slash-resistant-polymer-jacket.webp</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/slash-resistant-polymer-jacket.webp</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1224</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1968</v>
       </c>
@@ -40800,24 +41645,27 @@
         <v>2005</v>
       </c>
       <c r="C5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D5" t="s">
         <v>2006</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="1"/>
         <v>composite-riot-carapace.webp</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/composite-riot-carapace.webp</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>1224</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1969</v>
       </c>
@@ -40825,24 +41673,27 @@
         <v>2007</v>
       </c>
       <c r="C6" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D6" t="s">
         <v>2008</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="1"/>
         <v>reinforced-street-vest.webp</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/reinforced-street-vest.webp</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>1224</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1970</v>
       </c>
@@ -40850,24 +41701,27 @@
         <v>2009</v>
       </c>
       <c r="C7" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D7" t="s">
         <v>2010</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="1"/>
         <v>kevflex-jacket-mk-ii.webp</v>
       </c>
-      <c r="E7" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/kevflex-jacket-mk-ii.webp</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>1224</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1971</v>
       </c>
@@ -40875,24 +41729,27 @@
         <v>2011</v>
       </c>
       <c r="C8" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D8" t="s">
         <v>2012</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="1"/>
         <v>advanced-slash-resistant-jacket.webp</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/advanced-slash-resistant-jacket.webp</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>1224</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1972</v>
       </c>
@@ -40900,24 +41757,27 @@
         <v>2013</v>
       </c>
       <c r="C9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D9" t="s">
         <v>2014</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="1"/>
         <v>enhanced-riot-carapace.webp</v>
       </c>
-      <c r="E9" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/enhanced-riot-carapace.webp</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>1224</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1973</v>
       </c>
@@ -40925,24 +41785,27 @@
         <v>2015</v>
       </c>
       <c r="C10" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D10" t="s">
         <v>2016</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="1"/>
         <v>arc-shield-mesh.webp</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/arc-shield-mesh.webp</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>1224</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1974</v>
       </c>
@@ -40950,24 +41813,27 @@
         <v>2017</v>
       </c>
       <c r="C11" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D11" t="s">
         <v>2018</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="1"/>
         <v>auto-heal-laminate.webp</v>
       </c>
-      <c r="E11" t="str">
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/auto-heal-laminate.webp</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>1224</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1975</v>
       </c>
@@ -40975,24 +41841,27 @@
         <v>2019</v>
       </c>
       <c r="C12" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D12" t="s">
         <v>2020</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="1"/>
         <v>ceramsteel-chest-rig.webp</v>
       </c>
-      <c r="E12" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/ceramsteel-chest-rig.webp</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>1224</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1976</v>
       </c>
@@ -41000,24 +41869,27 @@
         <v>2021</v>
       </c>
       <c r="C13" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D13" t="s">
         <v>2022</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="1"/>
         <v>kinetic-shift-harness.webp</v>
       </c>
-      <c r="E13" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/kinetic-shift-harness.webp</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>1224</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1977</v>
       </c>
@@ -41025,49 +41897,52 @@
         <v>2023</v>
       </c>
       <c r="C14" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D14" t="s">
         <v>2024</v>
       </c>
-      <c r="D14" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="1"/>
         <v>ghoststep-weave.webp</v>
       </c>
-      <c r="E14" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/ghoststep-weave.webp</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>1224</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1978</v>
       </c>
       <c r="B15" t="s">
         <v>2025</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>2026</v>
       </c>
-      <c r="D15" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="1"/>
         <v>hope-bank-vest.webp</v>
       </c>
-      <c r="E15" t="str">
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/hope-bank-vest.webp</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>1224</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1979</v>
       </c>
@@ -41075,24 +41950,27 @@
         <v>2027</v>
       </c>
       <c r="C16" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D16" t="s">
         <v>2028</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="1"/>
         <v>tactical-gel-suit.webp</v>
       </c>
-      <c r="E16" t="str">
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/tactical-gel-suit.webp</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>1224</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1980</v>
       </c>
@@ -41100,24 +41978,27 @@
         <v>2029</v>
       </c>
       <c r="C17" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D17" t="s">
         <v>2030</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="1"/>
         <v>kevflex-trench.webp</v>
       </c>
-      <c r="E17" t="str">
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/kevflex-trench.webp</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>1224</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1981</v>
       </c>
@@ -41125,24 +42006,27 @@
         <v>2031</v>
       </c>
       <c r="C18" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D18" t="s">
         <v>2032</v>
       </c>
-      <c r="D18" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="1"/>
         <v>slash-resistant-polymer-coat.webp</v>
       </c>
-      <c r="E18" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/slash-resistant-polymer-coat.webp</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>1224</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1982</v>
       </c>
@@ -41150,24 +42034,27 @@
         <v>2033</v>
       </c>
       <c r="C19" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D19" t="s">
         <v>2034</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="1"/>
         <v>assault-carapace.webp</v>
       </c>
-      <c r="E19" t="str">
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/assault-carapace.webp</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>1224</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1983</v>
       </c>
@@ -41175,467 +42062,527 @@
         <v>2035</v>
       </c>
       <c r="C20" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D20" t="s">
         <v>2036</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="1"/>
         <v>gilded-boardroom-suit.webp</v>
       </c>
-      <c r="E20" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/gilded-boardroom-suit.webp</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>1224</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1984</v>
       </c>
       <c r="B21" t="s">
         <v>2037</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>2038</v>
       </c>
-      <c r="D21" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="1"/>
         <v>failsafe-exo-plate.webp</v>
       </c>
-      <c r="E21" t="str">
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/failsafe-exo-plate.webp</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>1224</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1985</v>
       </c>
       <c r="B22" t="s">
         <v>2039</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>2040</v>
       </c>
-      <c r="D22" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="1"/>
         <v>razor-stud-carapace.webp</v>
       </c>
-      <c r="E22" t="str">
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/razor-stud-carapace.webp</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>1224</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1986</v>
       </c>
       <c r="B23" t="s">
         <v>2041</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>2042</v>
       </c>
-      <c r="D23" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="1"/>
         <v>kinetic-only-bulwark.webp</v>
       </c>
-      <c r="E23" t="str">
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/kinetic-only-bulwark.webp</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>1224</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1987</v>
       </c>
       <c r="B24" t="s">
         <v>2043</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>2044</v>
       </c>
-      <c r="D24" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="1"/>
         <v>hexweave-mantle.webp</v>
       </c>
-      <c r="E24" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/hexweave-mantle.webp</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>1224</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1988</v>
       </c>
       <c r="B25" t="s">
         <v>2045</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>2046</v>
       </c>
-      <c r="D25" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="1"/>
         <v>pain-route-harness.webp</v>
       </c>
-      <c r="E25" t="str">
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/pain-route-harness.webp</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>1224</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1989</v>
       </c>
       <c r="B26" t="s">
         <v>2047</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>2048</v>
       </c>
-      <c r="D26" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="1"/>
         <v>legendary-gel-suit.webp</v>
       </c>
-      <c r="E26" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/legendary-gel-suit.webp</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>1224</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1990</v>
       </c>
       <c r="B27" t="s">
         <v>2049</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>2050</v>
       </c>
-      <c r="D27" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="1"/>
         <v>legendary-kevflex-trench.webp</v>
       </c>
-      <c r="E27" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/legendary-kevflex-trench.webp</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>1224</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1991</v>
       </c>
       <c r="B28" t="s">
         <v>2051</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>2052</v>
       </c>
-      <c r="D28" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="1"/>
         <v>legendary-polymer-coat.webp</v>
       </c>
-      <c r="E28" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/legendary-polymer-coat.webp</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>1224</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1992</v>
       </c>
       <c r="B29" t="s">
         <v>2053</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>2054</v>
       </c>
-      <c r="D29" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="1"/>
         <v>legendary-assault-carapace.webp</v>
       </c>
-      <c r="E29" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/legendary-assault-carapace.webp</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>1224</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1993</v>
       </c>
       <c r="B30" t="s">
         <v>2055</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>2056</v>
       </c>
-      <c r="D30" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="1"/>
         <v>timeslip-silks.webp</v>
       </c>
-      <c r="E30" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/timeslip-silks.webp</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>1224</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1994</v>
       </c>
       <c r="B31" t="s">
         <v>2057</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>2058</v>
       </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="1"/>
         <v>caster’s-conduit-harness.webp</v>
       </c>
-      <c r="E31" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/caster’s-conduit-harness.webp</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>1224</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1995</v>
       </c>
       <c r="B32" t="s">
         <v>2059</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>2060</v>
       </c>
-      <c r="D32" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="1"/>
         <v>emberguard-mantle.webp</v>
       </c>
-      <c r="E32" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/emberguard-mantle.webp</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>1224</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1996</v>
       </c>
       <c r="B33" t="s">
         <v>2061</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>2062</v>
       </c>
-      <c r="D33" t="str">
+      <c r="E33" t="str">
         <f t="shared" si="1"/>
         <v>double-buffer-plating.webp</v>
       </c>
-      <c r="E33" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/double-buffer-plating.webp</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>1224</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1997</v>
       </c>
       <c r="B34" t="s">
         <v>2063</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>2064</v>
       </c>
-      <c r="D34" t="str">
+      <c r="E34" t="str">
         <f t="shared" si="1"/>
         <v>truthlight-carapace.webp</v>
       </c>
-      <c r="E34" t="str">
+      <c r="F34" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/truthlight-carapace.webp</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>1224</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1998</v>
       </c>
       <c r="B35" t="s">
         <v>2065</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>2066</v>
       </c>
-      <c r="D35" t="str">
+      <c r="E35" t="str">
         <f t="shared" si="1"/>
         <v>savior-polymer-aegis.webp</v>
       </c>
-      <c r="E35" t="str">
+      <c r="F35" t="str">
         <f t="shared" si="0"/>
         <v>modules/cybermancy/assets/icons/armors/savior-polymer-aegis.webp</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>1224</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="8"/>
+    <row r="36" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" s="8"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D41" s="8"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D42" s="8"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D43" s="8"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D44" s="8"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D45" s="8"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D46" s="8"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="8:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H49" s="11"/>
+      <c r="E46" s="8"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="9:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I49" s="11"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G46" xr:uid="{0C9D9134-F79D-4817-8CCF-3F076393413E}">
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H46" xr:uid="{0C9D9134-F79D-4817-8CCF-3F076393413E}">
       <formula1>1</formula1>
       <formula2>4</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4AEEC740-1249-4249-88EB-A879F8072C9B}">
+          <x14:formula1>
+            <xm:f>'Controlled Lists'!$L$2:$L$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C35</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -51430,7 +52377,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52078,280 +53025,271 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCFD68C-59DD-4B04-8B60-92ACCE4AA398}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C504AE9D-D2E3-4455-9A9C-7CBD370CA65F}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="73.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2579</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3885</v>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3961</v>
       </c>
       <c r="C2" t="s">
-        <v>3874</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3886</v>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3963</v>
       </c>
       <c r="C3" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3810</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3887</v>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3965</v>
       </c>
       <c r="C4" t="s">
-        <v>3876</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3811</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3888</v>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3978</v>
       </c>
       <c r="C5" t="s">
-        <v>3877</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3812</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3889</v>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3982</v>
       </c>
       <c r="C6" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3813</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3890</v>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3988</v>
       </c>
       <c r="C7" t="s">
-        <v>3879</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>3814</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>3881</v>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3990</v>
       </c>
       <c r="C8" t="s">
-        <v>3882</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3815</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3891</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3816</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3892</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3880</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>3805</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3893</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3817</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>3883</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3884</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3818</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3819</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3894</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3827</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>3820</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3898</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3828</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>3821</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3895</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3822</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>3823</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3896</v>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3970</v>
       </c>
       <c r="C16" t="s">
-        <v>3829</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>3824</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3899</v>
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3972</v>
       </c>
       <c r="C17" t="s">
-        <v>3830</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>3825</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3900</v>
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>3974</v>
       </c>
       <c r="C18" t="s">
-        <v>3826</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>3807</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3897</v>
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>3976</v>
       </c>
       <c r="C19" t="s">
-        <v>3808</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>3980</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4005</v>
       </c>
     </row>
   </sheetData>
